--- a/Data/Quality_MCF-7_28_.xlsx
+++ b/Data/Quality_MCF-7_28_.xlsx
@@ -436,7 +436,7 @@
         <v>0.9830437620307961</v>
       </c>
       <c r="D2">
-        <v>-0.3207078978226414</v>
+        <v>-9.346829274352018</v>
       </c>
       <c r="E2">
         <v>0.1261722742677648</v>
@@ -459,7 +459,7 @@
         <v>0.9634085174729545</v>
       </c>
       <c r="D3">
-        <v>-0.1894202349138059</v>
+        <v>-2.228714795573151</v>
       </c>
       <c r="E3">
         <v>0.1853485456373067</v>
@@ -482,7 +482,7 @@
         <v>0.9190791089512919</v>
       </c>
       <c r="D4">
-        <v>-0.5038440576035743</v>
+        <v>-0.2024976312557418</v>
       </c>
       <c r="E4">
         <v>0.2756319185239445</v>
@@ -505,7 +505,7 @@
         <v>0.8936393289543549</v>
       </c>
       <c r="D5">
-        <v>-0.3362835311813339</v>
+        <v>-0.09563353194956559</v>
       </c>
       <c r="E5">
         <v>0.3160019147873616</v>
@@ -528,7 +528,7 @@
         <v>0.8439822862103141</v>
       </c>
       <c r="D6">
-        <v>0.1949756279014481</v>
+        <v>-0.4664976121339501</v>
       </c>
       <c r="E6">
         <v>0.3827243857265846</v>
@@ -551,7 +551,7 @@
         <v>0.817407466355857</v>
       </c>
       <c r="D7">
-        <v>-0.008212090511563463</v>
+        <v>0.05523372542545824</v>
       </c>
       <c r="E7">
         <v>0.4140384626014387</v>
@@ -574,7 +574,7 @@
         <v>0.758879900311795</v>
       </c>
       <c r="D8">
-        <v>-0.8722431311383905</v>
+        <v>-0.1126703409652901</v>
       </c>
       <c r="E8">
         <v>0.4757906323220511</v>
@@ -597,7 +597,7 @@
         <v>0.7399580011517356</v>
       </c>
       <c r="D9">
-        <v>-1.044878708210682</v>
+        <v>-0.3780302632986277</v>
       </c>
       <c r="E9">
         <v>0.4941069102335673</v>
@@ -620,7 +620,7 @@
         <v>0.7322729719811931</v>
       </c>
       <c r="D10">
-        <v>-0.5974208855270828</v>
+        <v>-3.114414958238498E-05</v>
       </c>
       <c r="E10">
         <v>0.5013549282504252</v>
@@ -643,7 +643,7 @@
         <v>0.6954774555751748</v>
       </c>
       <c r="D11">
-        <v>-0.5139980791120726</v>
+        <v>0.1273984733373642</v>
       </c>
       <c r="E11">
         <v>0.5346984249144957</v>
@@ -666,7 +666,7 @@
         <v>0.6291884409497923</v>
       </c>
       <c r="D12">
-        <v>-0.8287535736221998</v>
+        <v>0.08136630717103754</v>
       </c>
       <c r="E12">
         <v>0.5900323338236364</v>
@@ -689,7 +689,7 @@
         <v>0.626877071327275</v>
       </c>
       <c r="D13">
-        <v>-0.8045702126077328</v>
+        <v>0.08051221341728665</v>
       </c>
       <c r="E13">
         <v>0.5918683933661225</v>
@@ -712,7 +712,7 @@
         <v>0.6216627221125545</v>
       </c>
       <c r="D14">
-        <v>-0.9405850252604924</v>
+        <v>0.1024293676415845</v>
       </c>
       <c r="E14">
         <v>0.5959896903900563</v>
@@ -735,7 +735,7 @@
         <v>0.5930730285721322</v>
       </c>
       <c r="D15">
-        <v>-0.8275741902550835</v>
+        <v>0.1745399636739838</v>
       </c>
       <c r="E15">
         <v>0.6180981132924775</v>
@@ -758,7 +758,7 @@
         <v>0.5922121792544695</v>
       </c>
       <c r="D16">
-        <v>-0.8596181873285313</v>
+        <v>0.1536680461600561</v>
       </c>
       <c r="E16">
         <v>0.6187515576036993</v>
@@ -781,7 +781,7 @@
         <v>0.5481783912208877</v>
       </c>
       <c r="D17">
-        <v>0.08266879887258105</v>
+        <v>0.5530109890647028</v>
       </c>
       <c r="E17">
         <v>0.6513024002010739</v>
@@ -804,7 +804,7 @@
         <v>0.5409949279947794</v>
       </c>
       <c r="D18">
-        <v>0.05164276782835253</v>
+        <v>0.556265421179604</v>
       </c>
       <c r="E18">
         <v>0.6564594765337485</v>
@@ -827,7 +827,7 @@
         <v>0.5283510681142922</v>
       </c>
       <c r="D19">
-        <v>-0.1660672522686086</v>
+        <v>0.5009760847434094</v>
       </c>
       <c r="E19">
         <v>0.6654395471577522</v>
@@ -850,7 +850,7 @@
         <v>0.5283510681142922</v>
       </c>
       <c r="D20">
-        <v>-0.1660672522686086</v>
+        <v>0.5009760847434094</v>
       </c>
       <c r="E20">
         <v>0.6654395471577522</v>
@@ -909,7 +909,7 @@
         <v>0.7274396771276985</v>
       </c>
       <c r="D2">
-        <v>-2.223891749900586</v>
+        <v>0.2053559299394029</v>
       </c>
       <c r="E2">
         <v>0.5058601836565734</v>
@@ -935,7 +935,7 @@
         <v>0.8261889843886815</v>
       </c>
       <c r="D3">
-        <v>0.1309631006128245</v>
+        <v>0.5907019848742332</v>
       </c>
       <c r="E3">
         <v>0.4039595023148186</v>
@@ -961,7 +961,7 @@
         <v>0.8998365120078833</v>
       </c>
       <c r="D4">
-        <v>0.5006044773227527</v>
+        <v>0.631989854670223</v>
       </c>
       <c r="E4">
         <v>0.3066577180638927</v>
@@ -987,7 +987,7 @@
         <v>0.9586333443168061</v>
       </c>
       <c r="D5">
-        <v>0.2652815133919202</v>
+        <v>0.2757171892514017</v>
       </c>
       <c r="E5">
         <v>0.1970717556433657</v>
@@ -1013,7 +1013,7 @@
         <v>0.9852931731117048</v>
       </c>
       <c r="D6">
-        <v>0.4613298714236865</v>
+        <v>0.6476186461093547</v>
       </c>
       <c r="E6">
         <v>0.1175056285890714</v>
@@ -1039,7 +1039,7 @@
         <v>0.9949429076997089</v>
       </c>
       <c r="D7">
-        <v>0.5618146068400801</v>
+        <v>0.6290079293085123</v>
       </c>
       <c r="E7">
         <v>0.06890482276831114</v>
@@ -1065,7 +1065,7 @@
         <v>0.9973459716439829</v>
       </c>
       <c r="D8">
-        <v>0.4291426857761604</v>
+        <v>0.5092052304258257</v>
       </c>
       <c r="E8">
         <v>0.04991740029611962</v>
@@ -1091,7 +1091,7 @@
         <v>0.9981270821313172</v>
       </c>
       <c r="D9">
-        <v>0.5656427143509489</v>
+        <v>0.6551734707373593</v>
       </c>
       <c r="E9">
         <v>0.04193325222719796</v>
@@ -1117,7 +1117,7 @@
         <v>0.9983390019433259</v>
       </c>
       <c r="D10">
-        <v>-0.04323167175037934</v>
+        <v>0.4283655412089671</v>
       </c>
       <c r="E10">
         <v>0.03948969159531347</v>
@@ -1143,7 +1143,7 @@
         <v>0.9983775299390215</v>
       </c>
       <c r="D11">
-        <v>0.2473955803066977</v>
+        <v>0.3397898212433474</v>
       </c>
       <c r="E11">
         <v>0.03902900914112532</v>
@@ -1169,7 +1169,7 @@
         <v>0.9983876550840005</v>
       </c>
       <c r="D12">
-        <v>0.4090046926683066</v>
+        <v>0.5996217036237905</v>
       </c>
       <c r="E12">
         <v>0.03890703683312756</v>
@@ -1195,7 +1195,7 @@
         <v>0.9983892728538845</v>
       </c>
       <c r="D13">
-        <v>0.4101869222746327</v>
+        <v>0.6055875811303841</v>
       </c>
       <c r="E13">
         <v>0.03888751296191245</v>
@@ -1221,7 +1221,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D14">
-        <v>0.135749556417338</v>
+        <v>0.3024305039978804</v>
       </c>
       <c r="E14">
         <v>0.03888633595258084</v>
@@ -1247,7 +1247,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D15">
-        <v>0.135749556417338</v>
+        <v>0.3024305039978804</v>
       </c>
       <c r="E15">
         <v>0.03888633595258084</v>
@@ -1273,7 +1273,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D16">
-        <v>0.135749556417338</v>
+        <v>0.3024305039978804</v>
       </c>
       <c r="E16">
         <v>0.03888633595258084</v>
@@ -1299,7 +1299,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D17">
-        <v>0.135749556417338</v>
+        <v>0.3024305039978804</v>
       </c>
       <c r="E17">
         <v>0.03888633595258084</v>
@@ -1325,7 +1325,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D18">
-        <v>0.135749556417338</v>
+        <v>0.3024305039978804</v>
       </c>
       <c r="E18">
         <v>0.03888633595258084</v>
@@ -1351,7 +1351,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D19">
-        <v>0.135749556417338</v>
+        <v>0.3024305039978804</v>
       </c>
       <c r="E19">
         <v>0.03888633595258084</v>
@@ -1377,7 +1377,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D20">
-        <v>0.135749556417338</v>
+        <v>0.3024305039978804</v>
       </c>
       <c r="E20">
         <v>0.03888633595258084</v>
@@ -1403,7 +1403,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D21">
-        <v>0.135749556417338</v>
+        <v>0.3024305039978804</v>
       </c>
       <c r="E21">
         <v>0.03888633595258084</v>
@@ -1429,7 +1429,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D22">
-        <v>0.135749556417338</v>
+        <v>0.3024305039978804</v>
       </c>
       <c r="E22">
         <v>0.03888633595258084</v>
@@ -1455,7 +1455,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D23">
-        <v>0.135749556417338</v>
+        <v>0.3024305039978804</v>
       </c>
       <c r="E23">
         <v>0.03888633595258084</v>
@@ -1481,7 +1481,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D24">
-        <v>0.135749556417338</v>
+        <v>0.3024305039978804</v>
       </c>
       <c r="E24">
         <v>0.03888633595258084</v>
@@ -1507,7 +1507,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D25">
-        <v>0.135749556417338</v>
+        <v>0.3024305039978804</v>
       </c>
       <c r="E25">
         <v>0.03888633595258084</v>
@@ -1533,7 +1533,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D26">
-        <v>0.135749556417338</v>
+        <v>0.3024305039978804</v>
       </c>
       <c r="E26">
         <v>0.03888633595258084</v>
@@ -1559,7 +1559,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D27">
-        <v>0.135749556417338</v>
+        <v>0.3024305039978804</v>
       </c>
       <c r="E27">
         <v>0.03888633595258084</v>
@@ -1585,7 +1585,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D28">
-        <v>0.135749556417338</v>
+        <v>0.3024305039978804</v>
       </c>
       <c r="E28">
         <v>0.03888633595258084</v>
@@ -1611,7 +1611,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D29">
-        <v>0.135749556417338</v>
+        <v>0.3024305039978804</v>
       </c>
       <c r="E29">
         <v>0.03888633595258084</v>
@@ -1637,7 +1637,7 @@
         <v>0.7274396771276986</v>
       </c>
       <c r="D30">
-        <v>-2.223891749900576</v>
+        <v>0.2053559299394034</v>
       </c>
       <c r="E30">
         <v>0.5058601836565733</v>
@@ -1663,7 +1663,7 @@
         <v>0.8261600746867871</v>
       </c>
       <c r="D31">
-        <v>0.1309631006128242</v>
+        <v>0.5907019848742328</v>
       </c>
       <c r="E31">
         <v>0.4039930958795834</v>
@@ -1689,7 +1689,7 @@
         <v>0.8998302560779662</v>
       </c>
       <c r="D32">
-        <v>0.5006044773227537</v>
+        <v>0.6319898546702234</v>
       </c>
       <c r="E32">
         <v>0.3066672944039204</v>
@@ -1715,7 +1715,7 @@
         <v>0.9586333443168061</v>
       </c>
       <c r="D33">
-        <v>-0.1700206902322392</v>
+        <v>0.1543594924715375</v>
       </c>
       <c r="E33">
         <v>0.1970717556433657</v>
@@ -1741,7 +1741,7 @@
         <v>0.9850832434818029</v>
       </c>
       <c r="D34">
-        <v>0.5424090440293197</v>
+        <v>0.600139656303571</v>
       </c>
       <c r="E34">
         <v>0.1183413121376152</v>
@@ -1767,7 +1767,7 @@
         <v>0.9932792190862643</v>
       </c>
       <c r="D35">
-        <v>0.4541371418061879</v>
+        <v>0.5795204803453606</v>
       </c>
       <c r="E35">
         <v>0.07943447856409309</v>
@@ -1793,7 +1793,7 @@
         <v>0.9962806325210081</v>
       </c>
       <c r="D36">
-        <v>0.3794210592423944</v>
+        <v>0.5314650344547036</v>
       </c>
       <c r="E36">
         <v>0.05909268514255551</v>
@@ -1819,7 +1819,7 @@
         <v>0.9974053635174956</v>
       </c>
       <c r="D37">
-        <v>0.3754132612771085</v>
+        <v>0.546386177118345</v>
       </c>
       <c r="E37">
         <v>0.04935571411648788</v>
@@ -1845,7 +1845,7 @@
         <v>0.9978723490214532</v>
       </c>
       <c r="D38">
-        <v>0.2335205242635291</v>
+        <v>0.2804050827944197</v>
       </c>
       <c r="E38">
         <v>0.04469401532647289</v>
@@ -1871,7 +1871,7 @@
         <v>0.9981957872755562</v>
       </c>
       <c r="D39">
-        <v>0.3445902174372062</v>
+        <v>0.5144884110700956</v>
       </c>
       <c r="E39">
         <v>0.04115693742840407</v>
@@ -1897,7 +1897,7 @@
         <v>0.9983487410549339</v>
       </c>
       <c r="D40">
-        <v>0.2904108513547992</v>
+        <v>0.4867774452077512</v>
       </c>
       <c r="E40">
         <v>0.03937374927681192</v>
@@ -1923,7 +1923,7 @@
         <v>0.9983826087493228</v>
       </c>
       <c r="D41">
-        <v>0.006793983533046499</v>
+        <v>0.2794222332161231</v>
       </c>
       <c r="E41">
         <v>0.03896787510105104</v>
@@ -1949,7 +1949,7 @@
         <v>0.9983891975900033</v>
       </c>
       <c r="D42">
-        <v>0.3228868232048078</v>
+        <v>0.4802815150411354</v>
       </c>
       <c r="E42">
         <v>0.03888842149287386</v>
@@ -1975,7 +1975,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D43">
-        <v>0.3567693898356364</v>
+        <v>0.4429312470763744</v>
       </c>
       <c r="E43">
         <v>0.03888633595258084</v>
@@ -2001,7 +2001,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D44">
-        <v>0.3567693898356364</v>
+        <v>0.4429312470763744</v>
       </c>
       <c r="E44">
         <v>0.03888633595258084</v>
@@ -2027,7 +2027,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D45">
-        <v>0.3567693898356364</v>
+        <v>0.4429312470763744</v>
       </c>
       <c r="E45">
         <v>0.03888633595258084</v>
@@ -2053,7 +2053,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D46">
-        <v>0.3567693898356364</v>
+        <v>0.4429312470763744</v>
       </c>
       <c r="E46">
         <v>0.03888633595258084</v>
@@ -2079,7 +2079,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D47">
-        <v>0.3567693898356364</v>
+        <v>0.4429312470763744</v>
       </c>
       <c r="E47">
         <v>0.03888633595258084</v>
@@ -2105,7 +2105,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D48">
-        <v>0.3567693898356364</v>
+        <v>0.4429312470763744</v>
       </c>
       <c r="E48">
         <v>0.03888633595258084</v>
@@ -2131,7 +2131,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D49">
-        <v>0.3567693898356364</v>
+        <v>0.4429312470763744</v>
       </c>
       <c r="E49">
         <v>0.03888633595258084</v>
@@ -2157,7 +2157,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D50">
-        <v>0.3567693898356364</v>
+        <v>0.4429312470763744</v>
       </c>
       <c r="E50">
         <v>0.03888633595258084</v>
@@ -2183,7 +2183,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D51">
-        <v>0.3567693898356364</v>
+        <v>0.4429312470763744</v>
       </c>
       <c r="E51">
         <v>0.03888633595258084</v>
@@ -2209,7 +2209,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D52">
-        <v>0.3567693898356364</v>
+        <v>0.4429312470763744</v>
       </c>
       <c r="E52">
         <v>0.03888633595258084</v>
@@ -2235,7 +2235,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D53">
-        <v>0.3567693898356364</v>
+        <v>0.4429312470763744</v>
       </c>
       <c r="E53">
         <v>0.03888633595258084</v>
@@ -2261,7 +2261,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D54">
-        <v>0.3567693898356364</v>
+        <v>0.4429312470763744</v>
       </c>
       <c r="E54">
         <v>0.03888633595258084</v>
@@ -2287,7 +2287,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D55">
-        <v>0.3567693898356364</v>
+        <v>0.4429312470763744</v>
       </c>
       <c r="E55">
         <v>0.03888633595258084</v>
@@ -2313,7 +2313,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D56">
-        <v>0.3567693898356364</v>
+        <v>0.4429312470763744</v>
       </c>
       <c r="E56">
         <v>0.03888633595258084</v>
@@ -2339,7 +2339,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D57">
-        <v>0.3567693898356364</v>
+        <v>0.4429312470763744</v>
       </c>
       <c r="E57">
         <v>0.03888633595258084</v>
@@ -2365,7 +2365,7 @@
         <v>0.7274396771276985</v>
       </c>
       <c r="D58">
-        <v>-2.223891749900593</v>
+        <v>0.2053559299394034</v>
       </c>
       <c r="E58">
         <v>0.5058601836565734</v>
@@ -2391,7 +2391,7 @@
         <v>0.826160074686787</v>
       </c>
       <c r="D59">
-        <v>0.1309631006128243</v>
+        <v>0.5907019848742328</v>
       </c>
       <c r="E59">
         <v>0.4039930958795835</v>
@@ -2417,7 +2417,7 @@
         <v>0.8982028512991084</v>
       </c>
       <c r="D60">
-        <v>0.7421981086044389</v>
+        <v>0.812399468002154</v>
       </c>
       <c r="E60">
         <v>0.3091483883095074</v>
@@ -2443,7 +2443,7 @@
         <v>0.9543018205373138</v>
       </c>
       <c r="D61">
-        <v>0.7243576259965196</v>
+        <v>0.7446128205591446</v>
       </c>
       <c r="E61">
         <v>0.2071326823474275</v>
@@ -2469,7 +2469,7 @@
         <v>0.9799048499711993</v>
       </c>
       <c r="D62">
-        <v>0.7639898129444918</v>
+        <v>0.715384399091001</v>
       </c>
       <c r="E62">
         <v>0.1373551053439098</v>
@@ -2495,7 +2495,7 @@
         <v>0.9943018205657091</v>
       </c>
       <c r="D63">
-        <v>0.574773780165389</v>
+        <v>0.5921961388452089</v>
       </c>
       <c r="E63">
         <v>0.07314206884479579</v>
@@ -2521,7 +2521,7 @@
         <v>0.996496312624367</v>
       </c>
       <c r="D64">
-        <v>0.1955321728170875</v>
+        <v>0.4413502888119366</v>
       </c>
       <c r="E64">
         <v>0.05735375463120556</v>
@@ -2547,7 +2547,7 @@
         <v>0.9979680920473465</v>
       </c>
       <c r="D65">
-        <v>0.4338153773629773</v>
+        <v>0.356348497681565</v>
       </c>
       <c r="E65">
         <v>0.04367683849974981</v>
@@ -2573,7 +2573,7 @@
         <v>0.9982534184356796</v>
       </c>
       <c r="D66">
-        <v>0.4044551257954101</v>
+        <v>0.3952614272445271</v>
       </c>
       <c r="E66">
         <v>0.04049427386750875</v>
@@ -2599,7 +2599,7 @@
         <v>0.9983503215934479</v>
       </c>
       <c r="D67">
-        <v>0.3985121584627778</v>
+        <v>0.4765758006558937</v>
       </c>
       <c r="E67">
         <v>0.03935490104404101</v>
@@ -2625,7 +2625,7 @@
         <v>0.9983783736561872</v>
       </c>
       <c r="D68">
-        <v>0.3997108907074972</v>
+        <v>0.4766490947781475</v>
       </c>
       <c r="E68">
         <v>0.0390188598854098</v>
@@ -2651,7 +2651,7 @@
         <v>0.9983862441271996</v>
       </c>
       <c r="D69">
-        <v>0.3989695808133523</v>
+        <v>0.4764833300590168</v>
       </c>
       <c r="E69">
         <v>0.03892405680915146</v>
@@ -2677,7 +2677,7 @@
         <v>0.9983889429025886</v>
       </c>
       <c r="D70">
-        <v>0.2499338145013426</v>
+        <v>0.2284818220693021</v>
       </c>
       <c r="E70">
         <v>0.03889149573711304</v>
@@ -2703,7 +2703,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D71">
-        <v>0.2502009740879162</v>
+        <v>0.2284596193604753</v>
       </c>
       <c r="E71">
         <v>0.03888633595258084</v>
@@ -2729,7 +2729,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D72">
-        <v>0.2502009740879162</v>
+        <v>0.2284596193604753</v>
       </c>
       <c r="E72">
         <v>0.03888633595258084</v>
@@ -2755,7 +2755,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D73">
-        <v>0.2502009740879162</v>
+        <v>0.2284596193604753</v>
       </c>
       <c r="E73">
         <v>0.03888633595258084</v>
@@ -2781,7 +2781,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D74">
-        <v>0.2502009740879162</v>
+        <v>0.2284596193604753</v>
       </c>
       <c r="E74">
         <v>0.03888633595258084</v>
@@ -2807,7 +2807,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D75">
-        <v>0.2502009740879162</v>
+        <v>0.2284596193604753</v>
       </c>
       <c r="E75">
         <v>0.03888633595258084</v>
@@ -2833,7 +2833,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D76">
-        <v>0.2502009740879162</v>
+        <v>0.2284596193604753</v>
       </c>
       <c r="E76">
         <v>0.03888633595258084</v>
@@ -2859,7 +2859,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D77">
-        <v>0.2502009740879162</v>
+        <v>0.2284596193604753</v>
       </c>
       <c r="E77">
         <v>0.03888633595258084</v>
@@ -2885,7 +2885,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D78">
-        <v>0.2502009740879162</v>
+        <v>0.2284596193604753</v>
       </c>
       <c r="E78">
         <v>0.03888633595258084</v>
@@ -2911,7 +2911,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D79">
-        <v>0.2502009740879162</v>
+        <v>0.2284596193604753</v>
       </c>
       <c r="E79">
         <v>0.03888633595258084</v>
@@ -2937,7 +2937,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D80">
-        <v>0.2502009740879162</v>
+        <v>0.2284596193604753</v>
       </c>
       <c r="E80">
         <v>0.03888633595258084</v>
@@ -2963,7 +2963,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D81">
-        <v>0.2502009740879162</v>
+        <v>0.2284596193604753</v>
       </c>
       <c r="E81">
         <v>0.03888633595258084</v>
@@ -2989,7 +2989,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D82">
-        <v>0.2502009740879162</v>
+        <v>0.2284596193604753</v>
       </c>
       <c r="E82">
         <v>0.03888633595258084</v>
@@ -3015,7 +3015,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D83">
-        <v>0.2502009740879162</v>
+        <v>0.2284596193604753</v>
       </c>
       <c r="E83">
         <v>0.03888633595258084</v>
@@ -3041,7 +3041,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D84">
-        <v>0.2502009740879162</v>
+        <v>0.2284596193604753</v>
       </c>
       <c r="E84">
         <v>0.03888633595258084</v>
@@ -3067,7 +3067,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D85">
-        <v>0.2502009740879162</v>
+        <v>0.2284596193604753</v>
       </c>
       <c r="E85">
         <v>0.03888633595258084</v>
@@ -3093,7 +3093,7 @@
         <v>0.7203505428262806</v>
       </c>
       <c r="D86">
-        <v>-2.349304003959347</v>
+        <v>0.2031553576404902</v>
       </c>
       <c r="E86">
         <v>0.5123965184143621</v>
@@ -3119,7 +3119,7 @@
         <v>0.8259397016317953</v>
       </c>
       <c r="D87">
-        <v>0.1309631006128243</v>
+        <v>0.590701984874233</v>
       </c>
       <c r="E87">
         <v>0.4042490813655292</v>
@@ -3145,7 +3145,7 @@
         <v>0.8981282080125603</v>
       </c>
       <c r="D88">
-        <v>0.3717695630207143</v>
+        <v>0.6003811726912616</v>
       </c>
       <c r="E88">
         <v>0.3092617098683973</v>
@@ -3171,7 +3171,7 @@
         <v>0.9516718918520928</v>
       </c>
       <c r="D89">
-        <v>0.5106419854588531</v>
+        <v>0.5111152745079618</v>
       </c>
       <c r="E89">
         <v>0.213009551102462</v>
@@ -3197,7 +3197,7 @@
         <v>0.9780053065599692</v>
       </c>
       <c r="D90">
-        <v>0.6144939556045658</v>
+        <v>0.6703444707035336</v>
       </c>
       <c r="E90">
         <v>0.1437004527505246</v>
@@ -3223,7 +3223,7 @@
         <v>0.99384174257242</v>
       </c>
       <c r="D91">
-        <v>0.3545407805026869</v>
+        <v>0.5419465387962065</v>
       </c>
       <c r="E91">
         <v>0.07603754728001096</v>
@@ -3249,7 +3249,7 @@
         <v>0.9965008505445034</v>
       </c>
       <c r="D92">
-        <v>0.5583845805926106</v>
+        <v>0.6928257443326087</v>
       </c>
       <c r="E92">
         <v>0.05731660076185408</v>
@@ -3275,7 +3275,7 @@
         <v>0.9974576856569711</v>
       </c>
       <c r="D93">
-        <v>0.7669925841314811</v>
+        <v>0.7881592179810444</v>
       </c>
       <c r="E93">
         <v>0.04885553839862975</v>
@@ -3301,7 +3301,7 @@
         <v>0.9980090838836928</v>
       </c>
       <c r="D94">
-        <v>-0.1736642442408989</v>
+        <v>0.3132390821639772</v>
       </c>
       <c r="E94">
         <v>0.0432340241631129</v>
@@ -3327,7 +3327,7 @@
         <v>0.9982541943980957</v>
       </c>
       <c r="D95">
-        <v>0.6274526179345559</v>
+        <v>0.7061666762308219</v>
       </c>
       <c r="E95">
         <v>0.04048527757268589</v>
@@ -3353,7 +3353,7 @@
         <v>0.9983508511614098</v>
       </c>
       <c r="D96">
-        <v>0.612484969459493</v>
+        <v>0.693926076990907</v>
       </c>
       <c r="E96">
         <v>0.03934858382261081</v>
@@ -3379,7 +3379,7 @@
         <v>0.9983807446308061</v>
       </c>
       <c r="D97">
-        <v>0.4555263119463802</v>
+        <v>0.6467152370409495</v>
       </c>
       <c r="E97">
         <v>0.03899032477706618</v>
@@ -3405,7 +3405,7 @@
         <v>0.9983880518560758</v>
       </c>
       <c r="D98">
-        <v>0.6254356267288815</v>
+        <v>0.7048165453342784</v>
       </c>
       <c r="E98">
         <v>0.03890224934149909</v>
@@ -3431,7 +3431,7 @@
         <v>0.9983892728538845</v>
       </c>
       <c r="D99">
-        <v>0.6252523162104495</v>
+        <v>0.7048356904591282</v>
       </c>
       <c r="E99">
         <v>0.03888751296191245</v>
@@ -3457,7 +3457,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D100">
-        <v>0.6132852452318678</v>
+        <v>0.6938797479035765</v>
       </c>
       <c r="E100">
         <v>0.03888633595258084</v>
@@ -3483,7 +3483,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D101">
-        <v>0.6132852452318678</v>
+        <v>0.6938797479035765</v>
       </c>
       <c r="E101">
         <v>0.03888633595258084</v>
@@ -3509,7 +3509,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D102">
-        <v>0.6132852452318678</v>
+        <v>0.6938797479035765</v>
       </c>
       <c r="E102">
         <v>0.03888633595258084</v>
@@ -3535,7 +3535,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D103">
-        <v>0.6132852452318678</v>
+        <v>0.6938797479035765</v>
       </c>
       <c r="E103">
         <v>0.03888633595258084</v>
@@ -3561,7 +3561,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D104">
-        <v>0.6132852452318678</v>
+        <v>0.6938797479035765</v>
       </c>
       <c r="E104">
         <v>0.03888633595258084</v>
@@ -3587,7 +3587,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D105">
-        <v>0.6132852452318678</v>
+        <v>0.6938797479035765</v>
       </c>
       <c r="E105">
         <v>0.03888633595258084</v>
@@ -3613,7 +3613,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D106">
-        <v>0.6132852452318678</v>
+        <v>0.6938797479035765</v>
       </c>
       <c r="E106">
         <v>0.03888633595258084</v>
@@ -3639,7 +3639,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D107">
-        <v>0.6132852452318678</v>
+        <v>0.6938797479035765</v>
       </c>
       <c r="E107">
         <v>0.03888633595258084</v>
@@ -3665,7 +3665,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D108">
-        <v>0.6132852452318678</v>
+        <v>0.6938797479035765</v>
       </c>
       <c r="E108">
         <v>0.03888633595258084</v>
@@ -3691,7 +3691,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D109">
-        <v>0.6132852452318678</v>
+        <v>0.6938797479035765</v>
       </c>
       <c r="E109">
         <v>0.03888633595258084</v>
@@ -3717,7 +3717,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D110">
-        <v>0.6132852452318678</v>
+        <v>0.6938797479035765</v>
       </c>
       <c r="E110">
         <v>0.03888633595258084</v>
@@ -3743,7 +3743,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D111">
-        <v>0.6132852452318678</v>
+        <v>0.6938797479035765</v>
       </c>
       <c r="E111">
         <v>0.03888633595258084</v>
@@ -3769,7 +3769,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D112">
-        <v>0.6132852452318678</v>
+        <v>0.6938797479035765</v>
       </c>
       <c r="E112">
         <v>0.03888633595258084</v>
@@ -3795,7 +3795,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D113">
-        <v>0.6132852452318678</v>
+        <v>0.6938797479035765</v>
       </c>
       <c r="E113">
         <v>0.03888633595258084</v>
@@ -3821,7 +3821,7 @@
         <v>0.7078481576113366</v>
       </c>
       <c r="D114">
-        <v>-3.395770729250946</v>
+        <v>0.06229897797916151</v>
       </c>
       <c r="E114">
         <v>0.5237252280792789</v>
@@ -3847,7 +3847,7 @@
         <v>0.81094500624051</v>
       </c>
       <c r="D115">
-        <v>-0.4350016525433795</v>
+        <v>0.1680090074044929</v>
       </c>
       <c r="E115">
         <v>0.4213017436664838</v>
@@ -3873,7 +3873,7 @@
         <v>0.8630932104702583</v>
       </c>
       <c r="D116">
-        <v>-0.4621328947864678</v>
+        <v>-0.168752364491114</v>
       </c>
       <c r="E116">
         <v>0.3585185844575325</v>
@@ -3899,7 +3899,7 @@
         <v>0.8922214005225695</v>
       </c>
       <c r="D117">
-        <v>-0.4181104253125936</v>
+        <v>0.0797797442625231</v>
       </c>
       <c r="E117">
         <v>0.318101302803014</v>
@@ -3925,7 +3925,7 @@
         <v>0.9317921047726526</v>
       </c>
       <c r="D118">
-        <v>-0.4703661344104246</v>
+        <v>0.1726545991259716</v>
       </c>
       <c r="E118">
         <v>0.2530559213283757</v>
@@ -3951,7 +3951,7 @@
         <v>0.951896289028925</v>
       </c>
       <c r="D119">
-        <v>-0.4310730922634416</v>
+        <v>0.2015371153461087</v>
       </c>
       <c r="E119">
         <v>0.2125144525176651</v>
@@ -3977,7 +3977,7 @@
         <v>0.9654337209052402</v>
       </c>
       <c r="D120">
-        <v>-0.3982334157582519</v>
+        <v>0.2338098330249426</v>
       </c>
       <c r="E120">
         <v>0.1801463619355863</v>
@@ -4003,7 +4003,7 @@
         <v>0.9753334656253395</v>
       </c>
       <c r="D121">
-        <v>-0.4319262677073956</v>
+        <v>0.2611721572941953</v>
       </c>
       <c r="E121">
         <v>0.1521784820374222</v>
@@ -4029,7 +4029,7 @@
         <v>0.9854689008881946</v>
       </c>
       <c r="D122">
-        <v>-0.3828909292642124</v>
+        <v>0.2546997325539847</v>
       </c>
       <c r="E122">
         <v>0.1168014978959882</v>
@@ -4055,7 +4055,7 @@
         <v>0.9936104743262881</v>
       </c>
       <c r="D123">
-        <v>-0.3292703332286122</v>
+        <v>0.2753408798963662</v>
       </c>
       <c r="E123">
         <v>0.07745215209200773</v>
@@ -4081,7 +4081,7 @@
         <v>0.9971086642207903</v>
       </c>
       <c r="D124">
-        <v>-0.342468825108315</v>
+        <v>0.2743421690447667</v>
       </c>
       <c r="E124">
         <v>0.05210128625175552</v>
@@ -4107,7 +4107,7 @@
         <v>0.9981567068459073</v>
       </c>
       <c r="D125">
-        <v>-0.2789222887364595</v>
+        <v>0.3039011522944023</v>
       </c>
       <c r="E125">
         <v>0.0416002925641654</v>
@@ -4133,7 +4133,7 @@
         <v>0.9983590875097039</v>
       </c>
       <c r="D126">
-        <v>-0.2900106946183303</v>
+        <v>0.3088889903333629</v>
       </c>
       <c r="E126">
         <v>0.03925020146424737</v>
@@ -4159,7 +4159,7 @@
         <v>0.9983872677842333</v>
       </c>
       <c r="D127">
-        <v>-0.2759460032877752</v>
+        <v>0.3051091556940376</v>
       </c>
       <c r="E127">
         <v>0.03891170946283638</v>
@@ -4185,7 +4185,7 @@
         <v>0.9983892646031141</v>
       </c>
       <c r="D128">
-        <v>-0.2888811791003894</v>
+        <v>0.3044031294888142</v>
       </c>
       <c r="E128">
         <v>0.03888761256026187</v>
@@ -4211,7 +4211,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D129">
-        <v>-0.2888811791003894</v>
+        <v>0.3044031294888142</v>
       </c>
       <c r="E129">
         <v>0.03888633595258084</v>
@@ -4237,7 +4237,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D130">
-        <v>-0.2888811791003894</v>
+        <v>0.3044031294888142</v>
       </c>
       <c r="E130">
         <v>0.03888633595258084</v>
@@ -4263,7 +4263,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D131">
-        <v>-0.2888811791003894</v>
+        <v>0.3044031294888142</v>
       </c>
       <c r="E131">
         <v>0.03888633595258084</v>
@@ -4289,7 +4289,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D132">
-        <v>-0.2888811791003894</v>
+        <v>0.3044031294888142</v>
       </c>
       <c r="E132">
         <v>0.03888633595258084</v>
@@ -4315,7 +4315,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D133">
-        <v>-0.2888811791003894</v>
+        <v>0.3044031294888142</v>
       </c>
       <c r="E133">
         <v>0.03888633595258084</v>
@@ -4341,7 +4341,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D134">
-        <v>-0.2888811791003894</v>
+        <v>0.3044031294888142</v>
       </c>
       <c r="E134">
         <v>0.03888633595258084</v>
@@ -4367,7 +4367,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D135">
-        <v>-0.2888811791003894</v>
+        <v>0.3044031294888142</v>
       </c>
       <c r="E135">
         <v>0.03888633595258084</v>
@@ -4393,7 +4393,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D136">
-        <v>-0.2888811791003894</v>
+        <v>0.3044031294888142</v>
       </c>
       <c r="E136">
         <v>0.03888633595258084</v>
@@ -4419,7 +4419,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D137">
-        <v>-0.2888811791003894</v>
+        <v>0.3044031294888142</v>
       </c>
       <c r="E137">
         <v>0.03888633595258084</v>
@@ -4445,7 +4445,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D138">
-        <v>-0.2888811791003894</v>
+        <v>0.3044031294888142</v>
       </c>
       <c r="E138">
         <v>0.03888633595258084</v>
@@ -4471,7 +4471,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D139">
-        <v>-0.2888811791003894</v>
+        <v>0.3044031294888142</v>
       </c>
       <c r="E139">
         <v>0.03888633595258084</v>
@@ -4497,7 +4497,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D140">
-        <v>-0.2888811791003894</v>
+        <v>0.3044031294888142</v>
       </c>
       <c r="E140">
         <v>0.03888633595258084</v>
@@ -4523,7 +4523,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D141">
-        <v>-0.2888811791003894</v>
+        <v>0.3044031294888142</v>
       </c>
       <c r="E141">
         <v>0.03888633595258084</v>
@@ -4549,7 +4549,7 @@
         <v>0.7063521783162452</v>
       </c>
       <c r="D142">
-        <v>-3.39241473562504</v>
+        <v>-0.06343042741726324</v>
       </c>
       <c r="E142">
         <v>0.5250643976104433</v>
@@ -4575,7 +4575,7 @@
         <v>0.8206417176356057</v>
       </c>
       <c r="D143">
-        <v>-0.9975771888872444</v>
+        <v>0.1308328217606031</v>
       </c>
       <c r="E143">
         <v>0.410355159189516</v>
@@ -4601,7 +4601,7 @@
         <v>0.8954995465841451</v>
       </c>
       <c r="D144">
-        <v>-0.892128642654934</v>
+        <v>0.1932361957856293</v>
       </c>
       <c r="E144">
         <v>0.3132263337990872</v>
@@ -4627,7 +4627,7 @@
         <v>0.9472951080403619</v>
       </c>
       <c r="D145">
-        <v>-0.1575383900933653</v>
+        <v>0.1161981074217464</v>
       </c>
       <c r="E145">
         <v>0.2224460219390174</v>
@@ -4653,7 +4653,7 @@
         <v>0.9682684714392684</v>
       </c>
       <c r="D146">
-        <v>-0.1391513267137165</v>
+        <v>0.1054911125040444</v>
       </c>
       <c r="E146">
         <v>0.1726015440541201</v>
@@ -4679,7 +4679,7 @@
         <v>0.9831716819715034</v>
       </c>
       <c r="D147">
-        <v>-0.5928115673162442</v>
+        <v>0.02400030243314299</v>
       </c>
       <c r="E147">
         <v>0.1256954436853915</v>
@@ -4705,7 +4705,7 @@
         <v>0.9945021114276259</v>
       </c>
       <c r="D148">
-        <v>-0.5673011983596421</v>
+        <v>0.02078907128511787</v>
       </c>
       <c r="E148">
         <v>0.07184509884926431</v>
@@ -4731,7 +4731,7 @@
         <v>0.9960086680053103</v>
       </c>
       <c r="D149">
-        <v>-0.2433054717197234</v>
+        <v>-0.01331743863110368</v>
       </c>
       <c r="E149">
         <v>0.06121503562387617</v>
@@ -4757,7 +4757,7 @@
         <v>0.9972949567364831</v>
       </c>
       <c r="D150">
-        <v>-0.6359541970558811</v>
+        <v>-0.002893906932888379</v>
       </c>
       <c r="E150">
         <v>0.05039486516737544</v>
@@ -4783,7 +4783,7 @@
         <v>0.9979449944495916</v>
       </c>
       <c r="D151">
-        <v>-0.1964461792695595</v>
+        <v>0.03545573106216815</v>
       </c>
       <c r="E151">
         <v>0.04392438398308884</v>
@@ -4809,7 +4809,7 @@
         <v>0.9982180190791325</v>
       </c>
       <c r="D152">
-        <v>-0.6386681403292822</v>
+        <v>-0.006983774297004919</v>
       </c>
       <c r="E152">
         <v>0.04090258019259801</v>
@@ -4835,7 +4835,7 @@
         <v>0.9983482792955646</v>
       </c>
       <c r="D153">
-        <v>-0.6292711967227116</v>
+        <v>-0.01360286100029628</v>
       </c>
       <c r="E153">
         <v>0.0393792541453284</v>
@@ -4861,7 +4861,7 @@
         <v>0.998386454552545</v>
       </c>
       <c r="D154">
-        <v>-0.1719908176311287</v>
+        <v>0.06864134151784296</v>
       </c>
       <c r="E154">
         <v>0.03892151897946526</v>
@@ -4887,7 +4887,7 @@
         <v>0.9983892728538845</v>
       </c>
       <c r="D155">
-        <v>-0.5862544811836417</v>
+        <v>0.001544058682677818</v>
       </c>
       <c r="E155">
         <v>0.03888751296191245</v>
@@ -4913,7 +4913,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D156">
-        <v>-0.252566392685432</v>
+        <v>0.03828781963226735</v>
       </c>
       <c r="E156">
         <v>0.03888633595258084</v>
@@ -4939,7 +4939,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D157">
-        <v>-0.252566392685432</v>
+        <v>0.03828781963226735</v>
       </c>
       <c r="E157">
         <v>0.03888633595258084</v>
@@ -4965,7 +4965,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D158">
-        <v>-0.252566392685432</v>
+        <v>0.03828781963226735</v>
       </c>
       <c r="E158">
         <v>0.03888633595258084</v>
@@ -4991,7 +4991,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D159">
-        <v>-0.252566392685432</v>
+        <v>0.03828781963226735</v>
       </c>
       <c r="E159">
         <v>0.03888633595258084</v>
@@ -5017,7 +5017,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D160">
-        <v>-0.252566392685432</v>
+        <v>0.03828781963226735</v>
       </c>
       <c r="E160">
         <v>0.03888633595258084</v>
@@ -5043,7 +5043,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D161">
-        <v>-0.252566392685432</v>
+        <v>0.03828781963226735</v>
       </c>
       <c r="E161">
         <v>0.03888633595258084</v>
@@ -5069,7 +5069,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D162">
-        <v>-0.252566392685432</v>
+        <v>0.03828781963226735</v>
       </c>
       <c r="E162">
         <v>0.03888633595258084</v>
@@ -5095,7 +5095,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D163">
-        <v>-0.252566392685432</v>
+        <v>0.03828781963226735</v>
       </c>
       <c r="E163">
         <v>0.03888633595258084</v>
@@ -5121,7 +5121,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D164">
-        <v>-0.252566392685432</v>
+        <v>0.03828781963226735</v>
       </c>
       <c r="E164">
         <v>0.03888633595258084</v>
@@ -5147,7 +5147,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D165">
-        <v>-0.252566392685432</v>
+        <v>0.03828781963226735</v>
       </c>
       <c r="E165">
         <v>0.03888633595258084</v>
@@ -5173,7 +5173,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D166">
-        <v>-0.252566392685432</v>
+        <v>0.03828781963226735</v>
       </c>
       <c r="E166">
         <v>0.03888633595258084</v>
@@ -5199,7 +5199,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D167">
-        <v>-0.252566392685432</v>
+        <v>0.03828781963226735</v>
       </c>
       <c r="E167">
         <v>0.03888633595258084</v>
@@ -5225,7 +5225,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D168">
-        <v>-0.252566392685432</v>
+        <v>0.03828781963226735</v>
       </c>
       <c r="E168">
         <v>0.03888633595258084</v>
@@ -5251,7 +5251,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D169">
-        <v>-0.252566392685432</v>
+        <v>0.03828781963226735</v>
       </c>
       <c r="E169">
         <v>0.03888633595258084</v>
@@ -5277,7 +5277,7 @@
         <v>0.7063521783162452</v>
       </c>
       <c r="D170">
-        <v>-3.392414735625024</v>
+        <v>-0.06343042741726279</v>
       </c>
       <c r="E170">
         <v>0.5250643976104432</v>
@@ -5303,7 +5303,7 @@
         <v>0.8206417176356057</v>
       </c>
       <c r="D171">
-        <v>-0.9975771888872493</v>
+        <v>0.1308328217606027</v>
       </c>
       <c r="E171">
         <v>0.410355159189516</v>
@@ -5329,7 +5329,7 @@
         <v>0.8954995465841451</v>
       </c>
       <c r="D172">
-        <v>-0.8921286426549304</v>
+        <v>0.1932361957856293</v>
       </c>
       <c r="E172">
         <v>0.3132263337990872</v>
@@ -5355,7 +5355,7 @@
         <v>0.9472951080403619</v>
       </c>
       <c r="D173">
-        <v>-0.1551866464948977</v>
+        <v>0.1161554702861852</v>
       </c>
       <c r="E173">
         <v>0.2224460219390174</v>
@@ -5381,7 +5381,7 @@
         <v>0.9682684714392684</v>
       </c>
       <c r="D174">
-        <v>-0.1484290735557929</v>
+        <v>0.07720643232252244</v>
       </c>
       <c r="E174">
         <v>0.1726015440541201</v>
@@ -5407,7 +5407,7 @@
         <v>0.9831716819715034</v>
       </c>
       <c r="D175">
-        <v>-0.6537335767748427</v>
+        <v>0.008394974801024135</v>
       </c>
       <c r="E175">
         <v>0.1256954436853915</v>
@@ -5433,7 +5433,7 @@
         <v>0.9945021114276259</v>
       </c>
       <c r="D176">
-        <v>-0.1533238076261225</v>
+        <v>0.07463844969807332</v>
       </c>
       <c r="E176">
         <v>0.07184509884926431</v>
@@ -5459,7 +5459,7 @@
         <v>0.9960086680053103</v>
       </c>
       <c r="D177">
-        <v>-0.2052088250951751</v>
+        <v>0.00260125076455564</v>
       </c>
       <c r="E177">
         <v>0.06121503562387617</v>
@@ -5485,7 +5485,7 @@
         <v>0.9972949567364831</v>
       </c>
       <c r="D178">
-        <v>-0.6569305855875411</v>
+        <v>-0.04464920877029499</v>
       </c>
       <c r="E178">
         <v>0.05039486516737544</v>
@@ -5511,7 +5511,7 @@
         <v>0.9979449944495916</v>
       </c>
       <c r="D179">
-        <v>-0.1637567253775019</v>
+        <v>0.0695628817462185</v>
       </c>
       <c r="E179">
         <v>0.04392438398308884</v>
@@ -5537,7 +5537,7 @@
         <v>0.9982180190791325</v>
       </c>
       <c r="D180">
-        <v>-0.1757088544987724</v>
+        <v>0.03411556195991394</v>
       </c>
       <c r="E180">
         <v>0.040902580192598</v>
@@ -5563,7 +5563,7 @@
         <v>0.9983449797667955</v>
       </c>
       <c r="D181">
-        <v>-0.2601286045721376</v>
+        <v>0.02708906145230427</v>
       </c>
       <c r="E181">
         <v>0.03941856713474535</v>
@@ -5589,7 +5589,7 @@
         <v>0.998384601847192</v>
       </c>
       <c r="D182">
-        <v>-0.1689676502355764</v>
+        <v>0.0534153685224581</v>
       </c>
       <c r="E182">
         <v>0.03894385780449816</v>
@@ -5615,7 +5615,7 @@
         <v>0.9983892728538845</v>
       </c>
       <c r="D183">
-        <v>-0.7343891313412794</v>
+        <v>-0.04771674251157876</v>
       </c>
       <c r="E183">
         <v>0.03888751296191245</v>
@@ -5641,7 +5641,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D184">
-        <v>-0.7219457638747053</v>
+        <v>-0.01958181925093916</v>
       </c>
       <c r="E184">
         <v>0.03888633595258084</v>
@@ -5667,7 +5667,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D185">
-        <v>-0.7219457638747053</v>
+        <v>-0.01958181925093916</v>
       </c>
       <c r="E185">
         <v>0.03888633595258084</v>
@@ -5693,7 +5693,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D186">
-        <v>-0.7219457638747053</v>
+        <v>-0.01958181925093916</v>
       </c>
       <c r="E186">
         <v>0.03888633595258084</v>
@@ -5719,7 +5719,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D187">
-        <v>-0.7219457638747053</v>
+        <v>-0.01958181925093916</v>
       </c>
       <c r="E187">
         <v>0.03888633595258084</v>
@@ -5745,7 +5745,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D188">
-        <v>-0.7219457638747053</v>
+        <v>-0.01958181925093916</v>
       </c>
       <c r="E188">
         <v>0.03888633595258084</v>
@@ -5771,7 +5771,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D189">
-        <v>-0.7219457638747053</v>
+        <v>-0.01958181925093916</v>
       </c>
       <c r="E189">
         <v>0.03888633595258084</v>
@@ -5797,7 +5797,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D190">
-        <v>-0.7219457638747053</v>
+        <v>-0.01958181925093916</v>
       </c>
       <c r="E190">
         <v>0.03888633595258084</v>
@@ -5823,7 +5823,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D191">
-        <v>-0.7219457638747053</v>
+        <v>-0.01958181925093916</v>
       </c>
       <c r="E191">
         <v>0.03888633595258084</v>
@@ -5849,7 +5849,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D192">
-        <v>-0.7219457638747053</v>
+        <v>-0.01958181925093916</v>
       </c>
       <c r="E192">
         <v>0.03888633595258084</v>
@@ -5875,7 +5875,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D193">
-        <v>-0.7219457638747053</v>
+        <v>-0.01958181925093916</v>
       </c>
       <c r="E193">
         <v>0.03888633595258084</v>
@@ -5901,7 +5901,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D194">
-        <v>-0.7219457638747053</v>
+        <v>-0.01958181925093916</v>
       </c>
       <c r="E194">
         <v>0.03888633595258084</v>
@@ -5927,7 +5927,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D195">
-        <v>-0.7219457638747053</v>
+        <v>-0.01958181925093916</v>
       </c>
       <c r="E195">
         <v>0.03888633595258084</v>
@@ -5953,7 +5953,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D196">
-        <v>-0.7219457638747053</v>
+        <v>-0.01958181925093916</v>
       </c>
       <c r="E196">
         <v>0.03888633595258084</v>
@@ -5979,7 +5979,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D197">
-        <v>-0.7219457638747053</v>
+        <v>-0.01958181925093916</v>
       </c>
       <c r="E197">
         <v>0.03888633595258084</v>
@@ -6005,7 +6005,7 @@
         <v>0.7063521783162452</v>
       </c>
       <c r="D198">
-        <v>-3.39241473562502</v>
+        <v>-0.06343042741726257</v>
       </c>
       <c r="E198">
         <v>0.5250643976104433</v>
@@ -6031,7 +6031,7 @@
         <v>0.8206417176356057</v>
       </c>
       <c r="D199">
-        <v>-0.9975771888872498</v>
+        <v>0.1308328217606027</v>
       </c>
       <c r="E199">
         <v>0.410355159189516</v>
@@ -6057,7 +6057,7 @@
         <v>0.886835675315981</v>
       </c>
       <c r="D200">
-        <v>-0.6740867727426687</v>
+        <v>0.1518354649388934</v>
       </c>
       <c r="E200">
         <v>0.3259522234570137</v>
@@ -6083,7 +6083,7 @@
         <v>0.9367315842411177</v>
       </c>
       <c r="D201">
-        <v>-0.9347362769917911</v>
+        <v>0.05740474303028975</v>
       </c>
       <c r="E201">
         <v>0.2437208363521569</v>
@@ -6109,7 +6109,7 @@
         <v>0.9678853267188544</v>
       </c>
       <c r="D202">
-        <v>-0.553190912954294</v>
+        <v>0.1881890739514724</v>
       </c>
       <c r="E202">
         <v>0.1736404624811522</v>
@@ -6135,7 +6135,7 @@
         <v>0.9830394404102378</v>
       </c>
       <c r="D203">
-        <v>-0.6571361572592591</v>
+        <v>0.1312055896594208</v>
       </c>
       <c r="E203">
         <v>0.1261883519483435</v>
@@ -6161,7 +6161,7 @@
         <v>0.9944639333443417</v>
       </c>
       <c r="D204">
-        <v>-0.6300530130090896</v>
+        <v>0.1128789683383961</v>
       </c>
       <c r="E204">
         <v>0.07209411834208412</v>
@@ -6187,7 +6187,7 @@
         <v>0.9960028593412161</v>
       </c>
       <c r="D205">
-        <v>-0.4878382866253195</v>
+        <v>0.1491524276647846</v>
       </c>
       <c r="E205">
         <v>0.06125956315305792</v>
@@ -6213,7 +6213,7 @@
         <v>0.9972949567364831</v>
       </c>
       <c r="D206">
-        <v>-0.8255100246712463</v>
+        <v>0.1026462295311936</v>
       </c>
       <c r="E206">
         <v>0.05039486516737544</v>
@@ -6239,7 +6239,7 @@
         <v>0.9979449944495916</v>
       </c>
       <c r="D207">
-        <v>-0.7661224582817254</v>
+        <v>0.1255932286219481</v>
       </c>
       <c r="E207">
         <v>0.04392438398308884</v>
@@ -6265,7 +6265,7 @@
         <v>0.9982180190791325</v>
       </c>
       <c r="D208">
-        <v>-0.5362147557051598</v>
+        <v>0.1716746217719173</v>
       </c>
       <c r="E208">
         <v>0.040902580192598</v>
@@ -6291,7 +6291,7 @@
         <v>0.9983449797667955</v>
       </c>
       <c r="D209">
-        <v>-0.6458033275698079</v>
+        <v>0.1412288798063731</v>
       </c>
       <c r="E209">
         <v>0.03941856713474535</v>
@@ -6317,7 +6317,7 @@
         <v>0.998384601847192</v>
       </c>
       <c r="D210">
-        <v>-0.5529389412026364</v>
+        <v>0.1437584472393638</v>
       </c>
       <c r="E210">
         <v>0.03894385780449816</v>
@@ -6343,7 +6343,7 @@
         <v>0.9983892728538845</v>
       </c>
       <c r="D211">
-        <v>-0.6776057206646733</v>
+        <v>0.1009880425785288</v>
       </c>
       <c r="E211">
         <v>0.03888751296191245</v>
@@ -6369,7 +6369,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D212">
-        <v>-0.7156419994474708</v>
+        <v>0.1278748471904639</v>
       </c>
       <c r="E212">
         <v>0.03888633595258084</v>
@@ -6395,7 +6395,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D213">
-        <v>-0.7156419994474708</v>
+        <v>0.1278748471904639</v>
       </c>
       <c r="E213">
         <v>0.03888633595258084</v>
@@ -6421,7 +6421,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D214">
-        <v>-0.7156419994474708</v>
+        <v>0.1278748471904639</v>
       </c>
       <c r="E214">
         <v>0.03888633595258084</v>
@@ -6447,7 +6447,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D215">
-        <v>-0.7156419994474708</v>
+        <v>0.1278748471904639</v>
       </c>
       <c r="E215">
         <v>0.03888633595258084</v>
@@ -6473,7 +6473,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D216">
-        <v>-0.7156419994474708</v>
+        <v>0.1278748471904639</v>
       </c>
       <c r="E216">
         <v>0.03888633595258084</v>
@@ -6499,7 +6499,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D217">
-        <v>-0.7156419994474708</v>
+        <v>0.1278748471904639</v>
       </c>
       <c r="E217">
         <v>0.03888633595258084</v>
@@ -6525,7 +6525,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D218">
-        <v>-0.7156419994474708</v>
+        <v>0.1278748471904639</v>
       </c>
       <c r="E218">
         <v>0.03888633595258084</v>
@@ -6551,7 +6551,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D219">
-        <v>-0.7156419994474708</v>
+        <v>0.1278748471904639</v>
       </c>
       <c r="E219">
         <v>0.03888633595258084</v>
@@ -6577,7 +6577,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D220">
-        <v>-0.7156419994474708</v>
+        <v>0.1278748471904639</v>
       </c>
       <c r="E220">
         <v>0.03888633595258084</v>
@@ -6603,7 +6603,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D221">
-        <v>-0.7156419994474708</v>
+        <v>0.1278748471904639</v>
       </c>
       <c r="E221">
         <v>0.03888633595258084</v>
@@ -6629,7 +6629,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D222">
-        <v>-0.7156419994474708</v>
+        <v>0.1278748471904639</v>
       </c>
       <c r="E222">
         <v>0.03888633595258084</v>
@@ -6655,7 +6655,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D223">
-        <v>-0.7156419994474708</v>
+        <v>0.1278748471904639</v>
       </c>
       <c r="E223">
         <v>0.03888633595258084</v>
@@ -6681,7 +6681,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D224">
-        <v>-0.7156419994474708</v>
+        <v>0.1278748471904639</v>
       </c>
       <c r="E224">
         <v>0.03888633595258084</v>
@@ -6707,7 +6707,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D225">
-        <v>-0.7156419994474708</v>
+        <v>0.1278748471904639</v>
       </c>
       <c r="E225">
         <v>0.03888633595258084</v>
@@ -6733,7 +6733,7 @@
         <v>0.7063521783162452</v>
       </c>
       <c r="D226">
-        <v>-3.392414735625014</v>
+        <v>-0.06343042741726346</v>
       </c>
       <c r="E226">
         <v>0.5250643976104432</v>
@@ -6759,7 +6759,7 @@
         <v>0.8206417176356057</v>
       </c>
       <c r="D227">
-        <v>-0.9975771888872469</v>
+        <v>0.1308328217606027</v>
       </c>
       <c r="E227">
         <v>0.410355159189516</v>
@@ -6785,7 +6785,7 @@
         <v>0.886835675315981</v>
       </c>
       <c r="D228">
-        <v>-0.6740867727426658</v>
+        <v>0.1518354649388939</v>
       </c>
       <c r="E228">
         <v>0.3259522234570137</v>
@@ -6811,7 +6811,7 @@
         <v>0.9367315842411177</v>
       </c>
       <c r="D229">
-        <v>-0.9347362769917911</v>
+        <v>0.05740474303028975</v>
       </c>
       <c r="E229">
         <v>0.2437208363521569</v>
@@ -6837,7 +6837,7 @@
         <v>0.9678853267188544</v>
       </c>
       <c r="D230">
-        <v>-0.5358007896201948</v>
+        <v>0.1929432077708741</v>
       </c>
       <c r="E230">
         <v>0.1736404624811522</v>
@@ -6863,7 +6863,7 @@
         <v>0.9830394404102378</v>
       </c>
       <c r="D231">
-        <v>-0.6524947551199929</v>
+        <v>0.1328657271903153</v>
       </c>
       <c r="E231">
         <v>0.1261883519483435</v>
@@ -6889,7 +6889,7 @@
         <v>0.9944639333443417</v>
       </c>
       <c r="D232">
-        <v>-0.6268333490536855</v>
+        <v>0.1340741439392747</v>
       </c>
       <c r="E232">
         <v>0.07209411834208412</v>
@@ -6915,7 +6915,7 @@
         <v>0.9960028593412161</v>
       </c>
       <c r="D233">
-        <v>-0.6867494441367648</v>
+        <v>0.1435511084560083</v>
       </c>
       <c r="E233">
         <v>0.06125956315305793</v>
@@ -6941,7 +6941,7 @@
         <v>0.9972949567364831</v>
       </c>
       <c r="D234">
-        <v>-0.5662728772283432</v>
+        <v>0.1340883468164775</v>
       </c>
       <c r="E234">
         <v>0.05039486516737544</v>
@@ -6967,7 +6967,7 @@
         <v>0.9979449944495916</v>
       </c>
       <c r="D235">
-        <v>-0.5629636227112951</v>
+        <v>0.1521327811812915</v>
       </c>
       <c r="E235">
         <v>0.04392438398308884</v>
@@ -6993,7 +6993,7 @@
         <v>0.9982180190791325</v>
       </c>
       <c r="D236">
-        <v>-0.5731648357267729</v>
+        <v>0.1301816708081465</v>
       </c>
       <c r="E236">
         <v>0.040902580192598</v>
@@ -7019,7 +7019,7 @@
         <v>0.9983449797667955</v>
       </c>
       <c r="D237">
-        <v>-0.537745652630891</v>
+        <v>0.1569477340403285</v>
       </c>
       <c r="E237">
         <v>0.03941856713474535</v>
@@ -7045,7 +7045,7 @@
         <v>0.998384601847192</v>
       </c>
       <c r="D238">
-        <v>-0.7553012700965738</v>
+        <v>0.1363236561329565</v>
       </c>
       <c r="E238">
         <v>0.03894385780449816</v>
@@ -7071,7 +7071,7 @@
         <v>0.9983892728538845</v>
       </c>
       <c r="D239">
-        <v>-0.5566753047432433</v>
+        <v>0.1738701745529606</v>
       </c>
       <c r="E239">
         <v>0.03888751296191245</v>
@@ -7097,7 +7097,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D240">
-        <v>-0.558078987653029</v>
+        <v>0.1361800989405326</v>
       </c>
       <c r="E240">
         <v>0.03888633595258084</v>
@@ -7123,7 +7123,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D241">
-        <v>-0.558078987653029</v>
+        <v>0.1361800989405326</v>
       </c>
       <c r="E241">
         <v>0.03888633595258084</v>
@@ -7149,7 +7149,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D242">
-        <v>-0.558078987653029</v>
+        <v>0.1361800989405326</v>
       </c>
       <c r="E242">
         <v>0.03888633595258084</v>
@@ -7175,7 +7175,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D243">
-        <v>-0.558078987653029</v>
+        <v>0.1361800989405326</v>
       </c>
       <c r="E243">
         <v>0.03888633595258084</v>
@@ -7201,7 +7201,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D244">
-        <v>-0.558078987653029</v>
+        <v>0.1361800989405326</v>
       </c>
       <c r="E244">
         <v>0.03888633595258084</v>
@@ -7227,7 +7227,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D245">
-        <v>-0.558078987653029</v>
+        <v>0.1361800989405326</v>
       </c>
       <c r="E245">
         <v>0.03888633595258084</v>
@@ -7253,7 +7253,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D246">
-        <v>-0.558078987653029</v>
+        <v>0.1361800989405326</v>
       </c>
       <c r="E246">
         <v>0.03888633595258084</v>
@@ -7279,7 +7279,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D247">
-        <v>-0.558078987653029</v>
+        <v>0.1361800989405326</v>
       </c>
       <c r="E247">
         <v>0.03888633595258084</v>
@@ -7305,7 +7305,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D248">
-        <v>-0.558078987653029</v>
+        <v>0.1361800989405326</v>
       </c>
       <c r="E248">
         <v>0.03888633595258084</v>
@@ -7331,7 +7331,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D249">
-        <v>-0.558078987653029</v>
+        <v>0.1361800989405326</v>
       </c>
       <c r="E249">
         <v>0.03888633595258084</v>
@@ -7357,7 +7357,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D250">
-        <v>-0.558078987653029</v>
+        <v>0.1361800989405326</v>
       </c>
       <c r="E250">
         <v>0.03888633595258084</v>
@@ -7383,7 +7383,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D251">
-        <v>-0.558078987653029</v>
+        <v>0.1361800989405326</v>
       </c>
       <c r="E251">
         <v>0.03888633595258084</v>
@@ -7409,7 +7409,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D252">
-        <v>-0.558078987653029</v>
+        <v>0.1361800989405326</v>
       </c>
       <c r="E252">
         <v>0.03888633595258084</v>
@@ -7435,7 +7435,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D253">
-        <v>-0.558078987653029</v>
+        <v>0.1361800989405326</v>
       </c>
       <c r="E253">
         <v>0.03888633595258084</v>
@@ -7461,7 +7461,7 @@
         <v>0.6790639934920031</v>
       </c>
       <c r="D254">
-        <v>-1.772695227235614</v>
+        <v>0.2428717332043444</v>
       </c>
       <c r="E254">
         <v>0.5489191750500925</v>
@@ -7487,7 +7487,7 @@
         <v>0.7653120599420979</v>
       </c>
       <c r="D255">
-        <v>-0.2725995866103479</v>
+        <v>0.08240795227257103</v>
       </c>
       <c r="E255">
         <v>0.4694016008212117</v>
@@ -7513,7 +7513,7 @@
         <v>0.8592208160062133</v>
       </c>
       <c r="D256">
-        <v>-0.5654196543759791</v>
+        <v>-0.2765826163117935</v>
       </c>
       <c r="E256">
         <v>0.363553559925702</v>
@@ -7539,7 +7539,7 @@
         <v>0.897890702962251</v>
       </c>
       <c r="D257">
-        <v>-0.6005601215818046</v>
+        <v>0.028554083906425</v>
       </c>
       <c r="E257">
         <v>0.3096220081173587</v>
@@ -7565,7 +7565,7 @@
         <v>0.9377378124263963</v>
       </c>
       <c r="D258">
-        <v>-0.7112912222784764</v>
+        <v>-0.05372161480388238</v>
       </c>
       <c r="E258">
         <v>0.2417749864349876</v>
@@ -7591,7 +7591,7 @@
         <v>0.9625502679383587</v>
       </c>
       <c r="D259">
-        <v>-0.9129843481733098</v>
+        <v>-0.3539219880970172</v>
       </c>
       <c r="E259">
         <v>0.1875096129075454</v>
@@ -7617,7 +7617,7 @@
         <v>0.9744432060254206</v>
       </c>
       <c r="D260">
-        <v>-0.9736062565726624</v>
+        <v>-0.8364657097489354</v>
       </c>
       <c r="E260">
         <v>0.1549003381424011</v>
@@ -7643,7 +7643,7 @@
         <v>0.9802303619426883</v>
       </c>
       <c r="D261">
-        <v>-0.9522850708843247</v>
+        <v>-0.8183514952252011</v>
       </c>
       <c r="E261">
         <v>0.1362380876895926</v>
@@ -7669,7 +7669,7 @@
         <v>0.9839669062058353</v>
       </c>
       <c r="D262">
-        <v>-0.9795563570635126</v>
+        <v>-0.8179715915760448</v>
       </c>
       <c r="E262">
         <v>0.1226896270935517</v>
@@ -7695,7 +7695,7 @@
         <v>0.9929945820459215</v>
       </c>
       <c r="D263">
-        <v>-0.9583637980949509</v>
+        <v>-0.3770163661969053</v>
       </c>
       <c r="E263">
         <v>0.081099131884765</v>
@@ -7721,7 +7721,7 @@
         <v>0.9952560851985385</v>
       </c>
       <c r="D264">
-        <v>-0.9564881599611617</v>
+        <v>-0.365374558349111</v>
       </c>
       <c r="E264">
         <v>0.06673714446223823</v>
@@ -7747,7 +7747,7 @@
         <v>0.9970512350156503</v>
       </c>
       <c r="D265">
-        <v>-0.9625597051061343</v>
+        <v>-0.7253582007755541</v>
       </c>
       <c r="E265">
         <v>0.05261617341789186</v>
@@ -7773,7 +7773,7 @@
         <v>0.9977446928814305</v>
       </c>
       <c r="D266">
-        <v>-0.907236897999268</v>
+        <v>-0.3501737820633988</v>
       </c>
       <c r="E266">
         <v>0.04601527535653108</v>
@@ -7799,7 +7799,7 @@
         <v>0.9980899357547788</v>
       </c>
       <c r="D267">
-        <v>-0.9427478529088607</v>
+        <v>-0.3762346681686644</v>
       </c>
       <c r="E267">
         <v>0.04234705055302156</v>
@@ -7825,7 +7825,7 @@
         <v>0.9982976026594218</v>
       </c>
       <c r="D268">
-        <v>-0.9539590161018789</v>
+        <v>-0.8128840275403224</v>
       </c>
       <c r="E268">
         <v>0.03997879003074164</v>
@@ -7851,7 +7851,7 @@
         <v>0.9983717209107911</v>
       </c>
       <c r="D269">
-        <v>-0.9590822111035644</v>
+        <v>-0.3801451962467031</v>
       </c>
       <c r="E269">
         <v>0.03909881568129931</v>
@@ -7877,7 +7877,7 @@
         <v>0.9983840774246711</v>
       </c>
       <c r="D270">
-        <v>-0.9368915021084137</v>
+        <v>-0.3726040316035881</v>
       </c>
       <c r="E270">
         <v>0.03895017865449668</v>
@@ -7903,7 +7903,7 @@
         <v>0.9983875967074878</v>
       </c>
       <c r="D271">
-        <v>-0.9597892714894103</v>
+        <v>-0.8214764539948285</v>
       </c>
       <c r="E271">
         <v>0.03890774116027041</v>
@@ -7929,7 +7929,7 @@
         <v>0.9983892646031141</v>
       </c>
       <c r="D272">
-        <v>-0.9601582587752027</v>
+        <v>-0.3801692709987343</v>
       </c>
       <c r="E272">
         <v>0.03888761256026187</v>
@@ -7955,7 +7955,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D273">
-        <v>-0.9639172938525424</v>
+        <v>-0.8217106547224833</v>
       </c>
       <c r="E273">
         <v>0.03888633595258084</v>
@@ -7981,7 +7981,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D274">
-        <v>-0.9639172938525424</v>
+        <v>-0.8217106547224833</v>
       </c>
       <c r="E274">
         <v>0.03888633595258084</v>
@@ -8007,7 +8007,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D275">
-        <v>-0.9639172938525424</v>
+        <v>-0.8217106547224833</v>
       </c>
       <c r="E275">
         <v>0.03888633595258084</v>
@@ -8033,7 +8033,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D276">
-        <v>-0.9639172938525424</v>
+        <v>-0.8217106547224833</v>
       </c>
       <c r="E276">
         <v>0.03888633595258084</v>
@@ -8059,7 +8059,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D277">
-        <v>-0.9639172938525424</v>
+        <v>-0.8217106547224833</v>
       </c>
       <c r="E277">
         <v>0.03888633595258084</v>
@@ -8085,7 +8085,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D278">
-        <v>-0.9639172938525424</v>
+        <v>-0.8217106547224833</v>
       </c>
       <c r="E278">
         <v>0.03888633595258084</v>
@@ -8111,7 +8111,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D279">
-        <v>-0.9639172938525424</v>
+        <v>-0.8217106547224833</v>
       </c>
       <c r="E279">
         <v>0.03888633595258084</v>
@@ -8137,7 +8137,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D280">
-        <v>-0.9639172938525424</v>
+        <v>-0.8217106547224833</v>
       </c>
       <c r="E280">
         <v>0.03888633595258084</v>
@@ -8163,7 +8163,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D281">
-        <v>-0.9639172938525424</v>
+        <v>-0.8217106547224833</v>
       </c>
       <c r="E281">
         <v>0.03888633595258084</v>
@@ -8189,7 +8189,7 @@
         <v>0.6790639934920031</v>
       </c>
       <c r="D282">
-        <v>-1.772695227235616</v>
+        <v>0.242871733204345</v>
       </c>
       <c r="E282">
         <v>0.5489191750500925</v>
@@ -8215,7 +8215,7 @@
         <v>0.760552363878179</v>
       </c>
       <c r="D283">
-        <v>-0.1402006330193541</v>
+        <v>0.2349510670949396</v>
       </c>
       <c r="E283">
         <v>0.4741376652577453</v>
@@ -8241,7 +8241,7 @@
         <v>0.8146524787985712</v>
       </c>
       <c r="D284">
-        <v>0.5238808663932419</v>
+        <v>0.6985102681245866</v>
       </c>
       <c r="E284">
         <v>0.4171503102969486</v>
@@ -8267,7 +8267,7 @@
         <v>0.8659763583633073</v>
       </c>
       <c r="D285">
-        <v>0.3573241637739915</v>
+        <v>0.4991374576385711</v>
       </c>
       <c r="E285">
         <v>0.3547234396079676</v>
@@ -8293,7 +8293,7 @@
         <v>0.9123608835081781</v>
       </c>
       <c r="D286">
-        <v>0.08255907939960871</v>
+        <v>0.4845334105670641</v>
       </c>
       <c r="E286">
         <v>0.2868455885637321</v>
@@ -8319,7 +8319,7 @@
         <v>0.9423172268135136</v>
       </c>
       <c r="D287">
-        <v>-0.1221314810557013</v>
+        <v>0.3748893601937895</v>
       </c>
       <c r="E287">
         <v>0.2327138577586643</v>
@@ -8345,7 +8345,7 @@
         <v>0.9549836496154525</v>
       </c>
       <c r="D288">
-        <v>-0.04339526283407258</v>
+        <v>0.4017028265563385</v>
       </c>
       <c r="E288">
         <v>0.205581637552431</v>
@@ -8371,7 +8371,7 @@
         <v>0.9650738148372202</v>
       </c>
       <c r="D289">
-        <v>-0.02508175538751445</v>
+        <v>0.4076920062286684</v>
       </c>
       <c r="E289">
         <v>0.1810817804271464</v>
@@ -8397,7 +8397,7 @@
         <v>0.9792964892015975</v>
       </c>
       <c r="D290">
-        <v>-0.01393117526902365</v>
+        <v>0.4205566730742755</v>
       </c>
       <c r="E290">
         <v>0.1394187480181326</v>
@@ -8423,7 +8423,7 @@
         <v>0.9864224470646857</v>
       </c>
       <c r="D291">
-        <v>-0.01414076832195676</v>
+        <v>0.4223900252691338</v>
       </c>
       <c r="E291">
         <v>0.1129041569336324</v>
@@ -8449,7 +8449,7 @@
         <v>0.9929240026859677</v>
       </c>
       <c r="D292">
-        <v>-0.00711800144257424</v>
+        <v>0.4126698115723343</v>
       </c>
       <c r="E292">
         <v>0.08150664360932666</v>
@@ -8475,7 +8475,7 @@
         <v>0.9960952358039689</v>
       </c>
       <c r="D293">
-        <v>0.0009555313395245291</v>
+        <v>0.4229807678698014</v>
       </c>
       <c r="E293">
         <v>0.06054755161423864</v>
@@ -8501,7 +8501,7 @@
         <v>0.9973843919161254</v>
       </c>
       <c r="D294">
-        <v>-0.01271267123637565</v>
+        <v>0.4045177773122036</v>
       </c>
       <c r="E294">
         <v>0.04955477576708728</v>
@@ -8527,7 +8527,7 @@
         <v>0.9981041765030699</v>
       </c>
       <c r="D295">
-        <v>0.01349787538376002</v>
+        <v>0.4083048712814598</v>
       </c>
       <c r="E295">
         <v>0.0421888930625855</v>
@@ -8553,7 +8553,7 @@
         <v>0.9982366309618912</v>
       </c>
       <c r="D296">
-        <v>0.01535205576704035</v>
+        <v>0.4079910099909944</v>
       </c>
       <c r="E296">
         <v>0.04068841621168701</v>
@@ -8579,7 +8579,7 @@
         <v>0.9983452978029377</v>
       </c>
       <c r="D297">
-        <v>0.01303961191007508</v>
+        <v>0.4082839823588659</v>
       </c>
       <c r="E297">
         <v>0.03941477952807528</v>
@@ -8605,7 +8605,7 @@
         <v>0.9983843456444071</v>
       </c>
       <c r="D298">
-        <v>0.008150235498029956</v>
+        <v>0.4082603173264013</v>
       </c>
       <c r="E298">
         <v>0.03894694593767094</v>
@@ -8631,7 +8631,7 @@
         <v>0.998389240353097</v>
       </c>
       <c r="D299">
-        <v>0.00850754288411093</v>
+        <v>0.4083004892495434</v>
       </c>
       <c r="E299">
         <v>0.03888790529043983</v>
@@ -8657,7 +8657,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D300">
-        <v>0.008146255179302675</v>
+        <v>0.4082598632077274</v>
       </c>
       <c r="E300">
         <v>0.03888633595258084</v>
@@ -8683,7 +8683,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D301">
-        <v>0.008146255179302675</v>
+        <v>0.4082598632077274</v>
       </c>
       <c r="E301">
         <v>0.03888633595258084</v>
@@ -8709,7 +8709,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D302">
-        <v>0.008146255179302675</v>
+        <v>0.4082598632077274</v>
       </c>
       <c r="E302">
         <v>0.03888633595258084</v>
@@ -8735,7 +8735,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D303">
-        <v>0.008146255179302675</v>
+        <v>0.4082598632077274</v>
       </c>
       <c r="E303">
         <v>0.03888633595258084</v>
@@ -8761,7 +8761,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D304">
-        <v>0.008146255179302675</v>
+        <v>0.4082598632077274</v>
       </c>
       <c r="E304">
         <v>0.03888633595258084</v>
@@ -8787,7 +8787,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D305">
-        <v>0.008146255179302675</v>
+        <v>0.4082598632077274</v>
       </c>
       <c r="E305">
         <v>0.03888633595258084</v>
@@ -8813,7 +8813,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D306">
-        <v>0.008146255179302675</v>
+        <v>0.4082598632077274</v>
       </c>
       <c r="E306">
         <v>0.03888633595258084</v>
@@ -8839,7 +8839,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D307">
-        <v>0.008146255179302675</v>
+        <v>0.4082598632077274</v>
       </c>
       <c r="E307">
         <v>0.03888633595258084</v>
@@ -8865,7 +8865,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D308">
-        <v>0.008146255179302675</v>
+        <v>0.4082598632077274</v>
       </c>
       <c r="E308">
         <v>0.03888633595258084</v>
@@ -8891,7 +8891,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D309">
-        <v>0.008146255179302675</v>
+        <v>0.4082598632077274</v>
       </c>
       <c r="E309">
         <v>0.03888633595258084</v>
@@ -8917,7 +8917,7 @@
         <v>0.6790639934920031</v>
       </c>
       <c r="D310">
-        <v>-1.772695227235614</v>
+        <v>0.2428717332043444</v>
       </c>
       <c r="E310">
         <v>0.5489191750500925</v>
@@ -8943,7 +8943,7 @@
         <v>0.760552363878179</v>
       </c>
       <c r="D311">
-        <v>-0.1402006330193537</v>
+        <v>0.2349510670949402</v>
       </c>
       <c r="E311">
         <v>0.4741376652577453</v>
@@ -8969,7 +8969,7 @@
         <v>0.8146524787985713</v>
       </c>
       <c r="D312">
-        <v>0.5238808663932413</v>
+        <v>0.6985102681245869</v>
       </c>
       <c r="E312">
         <v>0.4171503102969485</v>
@@ -8995,7 +8995,7 @@
         <v>0.8659763583633073</v>
       </c>
       <c r="D313">
-        <v>0.7463954939380634</v>
+        <v>0.7721879700698981</v>
       </c>
       <c r="E313">
         <v>0.3547234396079677</v>
@@ -9021,7 +9021,7 @@
         <v>0.9098493315705999</v>
       </c>
       <c r="D314">
-        <v>0.5839691154909057</v>
+        <v>0.6905014009865391</v>
       </c>
       <c r="E314">
         <v>0.2909267500306879</v>
@@ -9047,7 +9047,7 @@
         <v>0.9352683949013259</v>
       </c>
       <c r="D315">
-        <v>0.5445106239903355</v>
+        <v>0.6776959464373511</v>
       </c>
       <c r="E315">
         <v>0.2465229567031211</v>
@@ -9073,7 +9073,7 @@
         <v>0.9648330957674063</v>
       </c>
       <c r="D316">
-        <v>0.3943486494548056</v>
+        <v>0.6118232613998107</v>
       </c>
       <c r="E316">
         <v>0.1817047369214962</v>
@@ -9099,7 +9099,7 @@
         <v>0.9809342600500579</v>
       </c>
       <c r="D317">
-        <v>0.3835882244480454</v>
+        <v>0.6146270582638471</v>
       </c>
       <c r="E317">
         <v>0.1337907266180755</v>
@@ -9125,7 +9125,7 @@
         <v>0.9881398503403594</v>
       </c>
       <c r="D318">
-        <v>0.4247891544654578</v>
+        <v>0.6219840913734888</v>
       </c>
       <c r="E318">
         <v>0.1055223038446944</v>
@@ -9151,7 +9151,7 @@
         <v>0.9943497019390206</v>
       </c>
       <c r="D319">
-        <v>0.3869340967231512</v>
+        <v>0.5994145497599659</v>
       </c>
       <c r="E319">
         <v>0.07283411690349964</v>
@@ -9177,7 +9177,7 @@
         <v>0.9960411912083815</v>
       </c>
       <c r="D320">
-        <v>0.3944372407963217</v>
+        <v>0.5903001167733548</v>
       </c>
       <c r="E320">
         <v>0.06096512139027015</v>
@@ -9203,7 +9203,7 @@
         <v>0.9974981181397381</v>
       </c>
       <c r="D321">
-        <v>0.3775924652206238</v>
+        <v>0.5913301344749046</v>
       </c>
       <c r="E321">
         <v>0.04846548677079395</v>
@@ -9229,7 +9229,7 @@
         <v>0.9980113975245993</v>
       </c>
       <c r="D322">
-        <v>0.3738995712045841</v>
+        <v>0.5893275920092795</v>
       </c>
       <c r="E322">
         <v>0.04320889576027986</v>
@@ -9255,7 +9255,7 @@
         <v>0.9981982145175442</v>
       </c>
       <c r="D323">
-        <v>0.3761309581374568</v>
+        <v>0.5834680521416608</v>
       </c>
       <c r="E323">
         <v>0.04112924350226456</v>
@@ -9281,7 +9281,7 @@
         <v>0.9983070502616155</v>
       </c>
       <c r="D324">
-        <v>0.360538739673234</v>
+        <v>0.587680826467724</v>
       </c>
       <c r="E324">
         <v>0.03986770280703703</v>
@@ -9307,7 +9307,7 @@
         <v>0.9983847364159529</v>
       </c>
       <c r="D325">
-        <v>0.3868610819380607</v>
+        <v>0.5842792267995092</v>
       </c>
       <c r="E325">
         <v>0.0389422356855715</v>
@@ -9333,7 +9333,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D326">
-        <v>0.3634635963530696</v>
+        <v>0.5813305550699766</v>
       </c>
       <c r="E326">
         <v>0.03888633595258084</v>
@@ -9359,7 +9359,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D327">
-        <v>0.3634635963530696</v>
+        <v>0.5813305550699766</v>
       </c>
       <c r="E327">
         <v>0.03888633595258084</v>
@@ -9385,7 +9385,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D328">
-        <v>0.3634635963530696</v>
+        <v>0.5813305550699766</v>
       </c>
       <c r="E328">
         <v>0.03888633595258084</v>
@@ -9411,7 +9411,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D329">
-        <v>0.3634635963530696</v>
+        <v>0.5813305550699766</v>
       </c>
       <c r="E329">
         <v>0.03888633595258084</v>
@@ -9437,7 +9437,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D330">
-        <v>0.3634635963530696</v>
+        <v>0.5813305550699766</v>
       </c>
       <c r="E330">
         <v>0.03888633595258084</v>
@@ -9463,7 +9463,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D331">
-        <v>0.3634635963530696</v>
+        <v>0.5813305550699766</v>
       </c>
       <c r="E331">
         <v>0.03888633595258084</v>
@@ -9489,7 +9489,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D332">
-        <v>0.3634635963530696</v>
+        <v>0.5813305550699766</v>
       </c>
       <c r="E332">
         <v>0.03888633595258084</v>
@@ -9515,7 +9515,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D333">
-        <v>0.3634635963530696</v>
+        <v>0.5813305550699766</v>
       </c>
       <c r="E333">
         <v>0.03888633595258084</v>
@@ -9541,7 +9541,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D334">
-        <v>0.3634635963530696</v>
+        <v>0.5813305550699766</v>
       </c>
       <c r="E334">
         <v>0.03888633595258084</v>
@@ -9567,7 +9567,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D335">
-        <v>0.3634635963530696</v>
+        <v>0.5813305550699766</v>
       </c>
       <c r="E335">
         <v>0.03888633595258084</v>
@@ -9593,7 +9593,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D336">
-        <v>0.3634635963530696</v>
+        <v>0.5813305550699766</v>
       </c>
       <c r="E336">
         <v>0.03888633595258084</v>
@@ -9619,7 +9619,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D337">
-        <v>0.3634635963530696</v>
+        <v>0.5813305550699766</v>
       </c>
       <c r="E337">
         <v>0.03888633595258084</v>
@@ -9645,7 +9645,7 @@
         <v>0.6790639934920031</v>
       </c>
       <c r="D338">
-        <v>-1.772695227235618</v>
+        <v>0.242871733204345</v>
       </c>
       <c r="E338">
         <v>0.5489191750500925</v>
@@ -9671,7 +9671,7 @@
         <v>0.7580759798184388</v>
       </c>
       <c r="D339">
-        <v>-1.736219212716898</v>
+        <v>-0.1030478990352914</v>
       </c>
       <c r="E339">
         <v>0.4765831410105864</v>
@@ -9697,7 +9697,7 @@
         <v>0.8302657393668297</v>
       </c>
       <c r="D340">
-        <v>-0.793582948095211</v>
+        <v>-0.02626494484930908</v>
       </c>
       <c r="E340">
         <v>0.3991939367764988</v>
@@ -9723,7 +9723,7 @@
         <v>0.8617462262501364</v>
       </c>
       <c r="D341">
-        <v>-0.7692527431379679</v>
+        <v>-0.06517410343425412</v>
       </c>
       <c r="E341">
         <v>0.3602779451956653</v>
@@ -9749,7 +9749,7 @@
         <v>0.8840446930337907</v>
       </c>
       <c r="D342">
-        <v>-0.7939039218766519</v>
+        <v>-0.3300411956081435</v>
       </c>
       <c r="E342">
         <v>0.3299472361738344</v>
@@ -9775,7 +9775,7 @@
         <v>0.9097191844304474</v>
       </c>
       <c r="D343">
-        <v>-0.5360214968719854</v>
+        <v>-0.3832783590971314</v>
       </c>
       <c r="E343">
         <v>0.2911366743139679</v>
@@ -9801,7 +9801,7 @@
         <v>0.9374381005448481</v>
       </c>
       <c r="D344">
-        <v>-0.5924033964911106</v>
+        <v>-0.4582207894798784</v>
       </c>
       <c r="E344">
         <v>0.2423562047030219</v>
@@ -9827,7 +9827,7 @@
         <v>0.9688183375510721</v>
       </c>
       <c r="D345">
-        <v>-0.6552972564224151</v>
+        <v>-0.3924296083057255</v>
       </c>
       <c r="E345">
         <v>0.1710995285095546</v>
@@ -9853,7 +9853,7 @@
         <v>0.9778256408963105</v>
       </c>
       <c r="D346">
-        <v>-0.6373823536229888</v>
+        <v>-0.3848979035908122</v>
       </c>
       <c r="E346">
         <v>0.1442861741946725</v>
@@ -9879,7 +9879,7 @@
         <v>0.9881103522419236</v>
       </c>
       <c r="D347">
-        <v>-0.6902973743005658</v>
+        <v>-0.4375002895679174</v>
       </c>
       <c r="E347">
         <v>0.1056534478162119</v>
@@ -9905,7 +9905,7 @@
         <v>0.9947694170445227</v>
       </c>
       <c r="D348">
-        <v>-0.6352459012829512</v>
+        <v>-0.384647164462917</v>
       </c>
       <c r="E348">
         <v>0.07007679436424928</v>
@@ -9931,7 +9931,7 @@
         <v>0.9966850694750813</v>
       </c>
       <c r="D349">
-        <v>-0.6941633475936699</v>
+        <v>-0.4317387788024083</v>
       </c>
       <c r="E349">
         <v>0.05578743518090117</v>
@@ -9957,7 +9957,7 @@
         <v>0.9978773830548476</v>
       </c>
       <c r="D350">
-        <v>-0.6166166689157158</v>
+        <v>-0.3863546838965619</v>
       </c>
       <c r="E350">
         <v>0.04464111087734203</v>
@@ -9983,7 +9983,7 @@
         <v>0.9980213005746683</v>
       </c>
       <c r="D351">
-        <v>-0.6202712374192847</v>
+        <v>-0.3861802247449175</v>
       </c>
       <c r="E351">
         <v>0.04310117339768266</v>
@@ -10009,7 +10009,7 @@
         <v>0.9981459051475102</v>
       </c>
       <c r="D352">
-        <v>-0.6611954070092758</v>
+        <v>-0.4220401694442253</v>
       </c>
       <c r="E352">
         <v>0.04172200338128022</v>
@@ -10035,7 +10035,7 @@
         <v>0.998258415221058</v>
       </c>
       <c r="D353">
-        <v>-0.620833409956119</v>
+        <v>-0.386165711866012</v>
       </c>
       <c r="E353">
         <v>0.0404363074586423</v>
@@ -10061,7 +10061,7 @@
         <v>0.9983214836657456</v>
       </c>
       <c r="D354">
-        <v>-0.620833409956119</v>
+        <v>-0.386165711866012</v>
       </c>
       <c r="E354">
         <v>0.03969739108035968</v>
@@ -10087,7 +10087,7 @@
         <v>0.9983559607712646</v>
       </c>
       <c r="D355">
-        <v>-0.620833409956119</v>
+        <v>-0.386165711866012</v>
       </c>
       <c r="E355">
         <v>0.03928757905361647</v>
@@ -10113,7 +10113,7 @@
         <v>0.9983762490278912</v>
       </c>
       <c r="D356">
-        <v>-0.6500584334103012</v>
+        <v>-0.4117023503702362</v>
       </c>
       <c r="E356">
         <v>0.0390444124543281</v>
@@ -10139,7 +10139,7 @@
         <v>0.9983874738339509</v>
       </c>
       <c r="D357">
-        <v>-0.620833409956119</v>
+        <v>-0.386165711866012</v>
       </c>
       <c r="E357">
         <v>0.03890922361838565</v>
@@ -10165,7 +10165,7 @@
         <v>0.9983892646031141</v>
       </c>
       <c r="D358">
-        <v>-0.620833409956119</v>
+        <v>-0.386165711866012</v>
       </c>
       <c r="E358">
         <v>0.03888761256026187</v>
@@ -10191,7 +10191,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D359">
-        <v>-0.6719685314989583</v>
+        <v>-0.4323890602848748</v>
       </c>
       <c r="E359">
         <v>0.03888633595258084</v>
@@ -10217,7 +10217,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D360">
-        <v>-0.6719685314989583</v>
+        <v>-0.4323890602848748</v>
       </c>
       <c r="E360">
         <v>0.03888633595258084</v>
@@ -10243,7 +10243,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D361">
-        <v>-0.6719685314989583</v>
+        <v>-0.4323890602848748</v>
       </c>
       <c r="E361">
         <v>0.03888633595258084</v>
@@ -10269,7 +10269,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D362">
-        <v>-0.6719685314989583</v>
+        <v>-0.4323890602848748</v>
       </c>
       <c r="E362">
         <v>0.03888633595258084</v>
@@ -10295,7 +10295,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D363">
-        <v>-0.6719685314989583</v>
+        <v>-0.4323890602848748</v>
       </c>
       <c r="E363">
         <v>0.03888633595258084</v>
@@ -10321,7 +10321,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D364">
-        <v>-0.6719685314989583</v>
+        <v>-0.4323890602848748</v>
       </c>
       <c r="E364">
         <v>0.03888633595258084</v>
@@ -10347,7 +10347,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D365">
-        <v>-0.6719685314989583</v>
+        <v>-0.4323890602848748</v>
       </c>
       <c r="E365">
         <v>0.03888633595258084</v>
@@ -10373,7 +10373,7 @@
         <v>0.6790639934920031</v>
       </c>
       <c r="D366">
-        <v>-1.772695227235616</v>
+        <v>0.2428717332043444</v>
       </c>
       <c r="E366">
         <v>0.5489191750500925</v>
@@ -10399,7 +10399,7 @@
         <v>0.7580759798184388</v>
       </c>
       <c r="D367">
-        <v>-1.736219212716902</v>
+        <v>-0.1030478990352921</v>
       </c>
       <c r="E367">
         <v>0.4765831410105864</v>
@@ -10425,7 +10425,7 @@
         <v>0.8302657393668297</v>
       </c>
       <c r="D368">
-        <v>-0.7935829480952123</v>
+        <v>-0.02626494484930819</v>
       </c>
       <c r="E368">
         <v>0.3991939367764988</v>
@@ -10451,7 +10451,7 @@
         <v>0.8617462262501364</v>
       </c>
       <c r="D369">
-        <v>-0.6179928104732695</v>
+        <v>-0.6967709715091763</v>
       </c>
       <c r="E369">
         <v>0.3602779451956653</v>
@@ -10477,7 +10477,7 @@
         <v>0.8840446930337907</v>
       </c>
       <c r="D370">
-        <v>-0.8264343767350202</v>
+        <v>-0.3555778341123677</v>
       </c>
       <c r="E370">
         <v>0.3299472361738344</v>
@@ -10503,7 +10503,7 @@
         <v>0.9097191844304474</v>
       </c>
       <c r="D371">
-        <v>-0.5889260394395033</v>
+        <v>-0.4295017075159948</v>
       </c>
       <c r="E371">
         <v>0.2911366743139679</v>
@@ -10529,7 +10529,7 @@
         <v>0.9374381005448481</v>
       </c>
       <c r="D372">
-        <v>-0.3841400161945097</v>
+        <v>-0.4962760049581119</v>
       </c>
       <c r="E372">
         <v>0.2423562047030219</v>
@@ -10555,7 +10555,7 @@
         <v>0.9688183375510721</v>
       </c>
       <c r="D373">
-        <v>-0.434463622155107</v>
+        <v>-0.5635943265076944</v>
       </c>
       <c r="E373">
         <v>0.1710995285095546</v>
@@ -10581,7 +10581,7 @@
         <v>0.9778256408963105</v>
       </c>
       <c r="D374">
-        <v>-0.4032243567227587</v>
+        <v>-0.4947904211936869</v>
       </c>
       <c r="E374">
         <v>0.1442861741946725</v>
@@ -10607,7 +10607,7 @@
         <v>0.9881103522419236</v>
       </c>
       <c r="D375">
-        <v>-0.4428234498357941</v>
+        <v>-0.5473928071707921</v>
       </c>
       <c r="E375">
         <v>0.1056534478162118</v>
@@ -10633,7 +10633,7 @@
         <v>0.9947694170445227</v>
       </c>
       <c r="D376">
-        <v>-0.3843267992387911</v>
+        <v>-0.5235373038645355</v>
       </c>
       <c r="E376">
         <v>0.07007679436424928</v>
@@ -10659,7 +10659,7 @@
         <v>0.9966176260315631</v>
       </c>
       <c r="D377">
-        <v>-0.3971395222032308</v>
+        <v>-0.5138594636230207</v>
       </c>
       <c r="E377">
         <v>0.05635208527058974</v>
@@ -10685,7 +10685,7 @@
         <v>0.9971790070220504</v>
       </c>
       <c r="D378">
-        <v>-0.4416990125649103</v>
+        <v>-0.5615101942669833</v>
       </c>
       <c r="E378">
         <v>0.05146360231581699</v>
@@ -10711,7 +10711,7 @@
         <v>0.9978973237471699</v>
       </c>
       <c r="D379">
-        <v>-0.3967357949594226</v>
+        <v>-0.5138135436464799</v>
       </c>
       <c r="E379">
         <v>0.04443092806519421</v>
@@ -10737,7 +10737,7 @@
         <v>0.9980109967011872</v>
       </c>
       <c r="D380">
-        <v>-0.3971327241099458</v>
+        <v>-0.5136135236284241</v>
       </c>
       <c r="E380">
         <v>0.04321325014096133</v>
@@ -10763,7 +10763,7 @@
         <v>0.9981369447243735</v>
       </c>
       <c r="D381">
-        <v>-0.3972558672941244</v>
+        <v>-0.5135990107495179</v>
       </c>
       <c r="E381">
         <v>0.04182269839499211</v>
@@ -10789,7 +10789,7 @@
         <v>0.9982582424548144</v>
       </c>
       <c r="D382">
-        <v>-0.4318460382803075</v>
+        <v>-0.5494734683277314</v>
       </c>
       <c r="E382">
         <v>0.04043831306175227</v>
@@ -10815,7 +10815,7 @@
         <v>0.9983214836657456</v>
       </c>
       <c r="D383">
-        <v>-0.4222215950673569</v>
+        <v>-0.5391356492537427</v>
       </c>
       <c r="E383">
         <v>0.03969739108035969</v>
@@ -10841,7 +10841,7 @@
         <v>0.9983559607712646</v>
       </c>
       <c r="D384">
-        <v>-0.4412195597530144</v>
+        <v>-0.5598223591683813</v>
       </c>
       <c r="E384">
         <v>0.03928757905361647</v>
@@ -10867,7 +10867,7 @@
         <v>0.9983762490278912</v>
       </c>
       <c r="D385">
-        <v>-0.3972558672941244</v>
+        <v>-0.5135990107495179</v>
       </c>
       <c r="E385">
         <v>0.0390444124543281</v>
@@ -10893,7 +10893,7 @@
         <v>0.9983874738339509</v>
       </c>
       <c r="D386">
-        <v>-0.3972558672941244</v>
+        <v>-0.5135990107495179</v>
       </c>
       <c r="E386">
         <v>0.03890922361838565</v>
@@ -10919,7 +10919,7 @@
         <v>0.9983892646031141</v>
       </c>
       <c r="D387">
-        <v>-0.4412195597530144</v>
+        <v>-0.5598223591683813</v>
       </c>
       <c r="E387">
         <v>0.03888761256026187</v>
@@ -10945,7 +10945,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D388">
-        <v>-0.3972558672941244</v>
+        <v>-0.5135990107495179</v>
       </c>
       <c r="E388">
         <v>0.03888633595258084</v>
@@ -10971,7 +10971,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D389">
-        <v>-0.3972558672941244</v>
+        <v>-0.5135990107495179</v>
       </c>
       <c r="E389">
         <v>0.03888633595258084</v>
@@ -10997,7 +10997,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D390">
-        <v>-0.3972558672941244</v>
+        <v>-0.5135990107495179</v>
       </c>
       <c r="E390">
         <v>0.03888633595258084</v>
@@ -11023,7 +11023,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D391">
-        <v>-0.3972558672941244</v>
+        <v>-0.5135990107495179</v>
       </c>
       <c r="E391">
         <v>0.03888633595258084</v>
@@ -11049,7 +11049,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D392">
-        <v>-0.3972558672941244</v>
+        <v>-0.5135990107495179</v>
       </c>
       <c r="E392">
         <v>0.03888633595258084</v>
@@ -11075,7 +11075,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D393">
-        <v>-0.3972558672941244</v>
+        <v>-0.5135990107495179</v>
       </c>
       <c r="E393">
         <v>0.03888633595258084</v>
@@ -11101,7 +11101,7 @@
         <v>0.6790639934920031</v>
       </c>
       <c r="D394">
-        <v>-1.772695227235618</v>
+        <v>0.242871733204345</v>
       </c>
       <c r="E394">
         <v>0.5489191750500925</v>
@@ -11127,7 +11127,7 @@
         <v>0.7580759798184388</v>
       </c>
       <c r="D395">
-        <v>-1.736219212716895</v>
+        <v>-0.103047899035291</v>
       </c>
       <c r="E395">
         <v>0.4765831410105864</v>
@@ -11153,7 +11153,7 @@
         <v>0.8302657393668297</v>
       </c>
       <c r="D396">
-        <v>-0.7935829480952123</v>
+        <v>-0.02626494484930819</v>
       </c>
       <c r="E396">
         <v>0.3991939367764988</v>
@@ -11179,7 +11179,7 @@
         <v>0.8617462262501364</v>
       </c>
       <c r="D397">
-        <v>-0.617992810473271</v>
+        <v>-0.6967709715091763</v>
       </c>
       <c r="E397">
         <v>0.3602779451956653</v>
@@ -11205,7 +11205,7 @@
         <v>0.8840446930337907</v>
       </c>
       <c r="D398">
-        <v>-0.7939039218766499</v>
+        <v>-0.330041195608143</v>
       </c>
       <c r="E398">
         <v>0.3299472361738344</v>
@@ -11231,7 +11231,7 @@
         <v>0.9089019752633574</v>
       </c>
       <c r="D399">
-        <v>-0.8571565714380021</v>
+        <v>-0.4306256490331202</v>
       </c>
       <c r="E399">
         <v>0.2924513698955251</v>
@@ -11257,7 +11257,7 @@
         <v>0.9197850027939617</v>
       </c>
       <c r="D400">
-        <v>-0.836044793768582</v>
+        <v>-0.4015833431946854</v>
       </c>
       <c r="E400">
         <v>0.2744270810169931</v>
@@ -11283,7 +11283,7 @@
         <v>0.9310254178005435</v>
       </c>
       <c r="D401">
-        <v>-0.863295970519329</v>
+        <v>-0.418213474977575</v>
       </c>
       <c r="E401">
         <v>0.2544741773639271</v>
@@ -11309,7 +11309,7 @@
         <v>0.9553279154849942</v>
       </c>
       <c r="D402">
-        <v>-0.8971218021105372</v>
+        <v>-0.5442225572738628</v>
       </c>
       <c r="E402">
         <v>0.2047940284473762</v>
@@ -11335,7 +11335,7 @@
         <v>0.9791988122245057</v>
       </c>
       <c r="D403">
-        <v>-0.9101852011225051</v>
+        <v>-0.7962252520542779</v>
       </c>
       <c r="E403">
         <v>0.1397472424868589</v>
@@ -11361,7 +11361,7 @@
         <v>0.9886518658226746</v>
       </c>
       <c r="D404">
-        <v>-0.8816300894788456</v>
+        <v>-0.7885126871141142</v>
       </c>
       <c r="E404">
         <v>0.1032194191727601</v>
@@ -11387,7 +11387,7 @@
         <v>0.9952538810664364</v>
       </c>
       <c r="D405">
-        <v>-0.9322116975740691</v>
+        <v>-0.8346232256652104</v>
       </c>
       <c r="E405">
         <v>0.06675264646916799</v>
@@ -11413,7 +11413,7 @@
         <v>0.9969741244416104</v>
       </c>
       <c r="D406">
-        <v>-0.8828135656908191</v>
+        <v>-0.7860821600376424</v>
       </c>
       <c r="E406">
         <v>0.05329969348715773</v>
@@ -11439,7 +11439,7 @@
         <v>0.9973550537629743</v>
       </c>
       <c r="D407">
-        <v>-0.9353737717690709</v>
+        <v>-0.8330067194886497</v>
       </c>
       <c r="E407">
         <v>0.0498319181119241</v>
@@ -11465,7 +11465,7 @@
         <v>0.9977237524726839</v>
       </c>
       <c r="D408">
-        <v>-0.8646623306221777</v>
+        <v>-0.7900920700364933</v>
       </c>
       <c r="E408">
         <v>0.04622840648535994</v>
@@ -11491,7 +11491,7 @@
         <v>0.9979625725350777</v>
       </c>
       <c r="D409">
-        <v>-0.8727813789024541</v>
+        <v>-0.7911015227009679</v>
       </c>
       <c r="E409">
         <v>0.04373612055349384</v>
@@ -11517,7 +11517,7 @@
         <v>0.9980563006796593</v>
       </c>
       <c r="D410">
-        <v>-0.9072593151771535</v>
+        <v>-0.8165856322063823</v>
       </c>
       <c r="E410">
         <v>0.04271827638236741</v>
@@ -11543,7 +11543,7 @@
         <v>0.9983284457069062</v>
       </c>
       <c r="D411">
-        <v>-0.867388239273581</v>
+        <v>-0.7906426572697591</v>
       </c>
       <c r="E411">
         <v>0.03961497840335872</v>
@@ -11569,7 +11569,7 @@
         <v>0.9983807556264526</v>
       </c>
       <c r="D412">
-        <v>-0.8627932909871381</v>
+        <v>-0.7899820412035019</v>
       </c>
       <c r="E412">
         <v>0.0389901923938229</v>
@@ -11595,7 +11595,7 @@
         <v>0.9983889058564605</v>
       </c>
       <c r="D413">
-        <v>-0.8812418895285357</v>
+        <v>-0.815022916347288</v>
       </c>
       <c r="E413">
         <v>0.03889194288794849</v>
@@ -11621,7 +11621,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D414">
-        <v>-0.8812418895285357</v>
+        <v>-0.815022916347288</v>
       </c>
       <c r="E414">
         <v>0.03888633595258084</v>
@@ -11647,7 +11647,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D415">
-        <v>-0.8812418895285357</v>
+        <v>-0.815022916347288</v>
       </c>
       <c r="E415">
         <v>0.03888633595258084</v>
@@ -11673,7 +11673,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D416">
-        <v>-0.8812418895285357</v>
+        <v>-0.815022916347288</v>
       </c>
       <c r="E416">
         <v>0.03888633595258084</v>
@@ -11699,7 +11699,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D417">
-        <v>-0.8812418895285357</v>
+        <v>-0.815022916347288</v>
       </c>
       <c r="E417">
         <v>0.03888633595258084</v>
@@ -11725,7 +11725,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D418">
-        <v>-0.8812418895285357</v>
+        <v>-0.815022916347288</v>
       </c>
       <c r="E418">
         <v>0.03888633595258084</v>
@@ -11751,7 +11751,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D419">
-        <v>-0.8812418895285357</v>
+        <v>-0.815022916347288</v>
       </c>
       <c r="E419">
         <v>0.03888633595258084</v>
@@ -11777,7 +11777,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D420">
-        <v>-0.8812418895285357</v>
+        <v>-0.815022916347288</v>
       </c>
       <c r="E420">
         <v>0.03888633595258084</v>
@@ -11803,7 +11803,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D421">
-        <v>-0.8812418895285357</v>
+        <v>-0.815022916347288</v>
       </c>
       <c r="E421">
         <v>0.03888633595258084</v>
@@ -11829,7 +11829,7 @@
         <v>0.6687062017953553</v>
       </c>
       <c r="D422">
-        <v>-5.309590406322414</v>
+        <v>-0.3010309606909167</v>
       </c>
       <c r="E422">
         <v>0.5577066626758617</v>
@@ -11855,7 +11855,7 @@
         <v>0.76421079470954</v>
       </c>
       <c r="D423">
-        <v>-4.343164808918782</v>
+        <v>-0.3069829797050623</v>
       </c>
       <c r="E423">
         <v>0.4705016374397019</v>
@@ -11881,7 +11881,7 @@
         <v>0.8373415866950784</v>
       </c>
       <c r="D424">
-        <v>-1.776095976582098</v>
+        <v>-0.3813213402139233</v>
       </c>
       <c r="E424">
         <v>0.3907846043813794</v>
@@ -11907,7 +11907,7 @@
         <v>0.8865248780652757</v>
       </c>
       <c r="D425">
-        <v>-1.97991176042579</v>
+        <v>-0.5520386253030245</v>
       </c>
       <c r="E425">
         <v>0.3263995181052202</v>
@@ -11933,7 +11933,7 @@
         <v>0.9166009221919524</v>
       </c>
       <c r="D426">
-        <v>-1.853970820782325</v>
+        <v>-0.5947112121833003</v>
       </c>
       <c r="E426">
         <v>0.2798206776875771</v>
@@ -11959,7 +11959,7 @@
         <v>0.9578119144210673</v>
       </c>
       <c r="D427">
-        <v>-1.537266316302158</v>
+        <v>-0.9146518075222139</v>
       </c>
       <c r="E427">
         <v>0.1990187934498424</v>
@@ -11985,7 +11985,7 @@
         <v>0.968613600797589</v>
       </c>
       <c r="D428">
-        <v>-1.581830402751793</v>
+        <v>-0.9357473821852309</v>
       </c>
       <c r="E428">
         <v>0.1716603236289046</v>
@@ -12011,7 +12011,7 @@
         <v>0.9763952448215657</v>
       </c>
       <c r="D429">
-        <v>-1.499804763795843</v>
+        <v>-0.9987658339287924</v>
       </c>
       <c r="E429">
         <v>0.1488671691943754</v>
@@ -12037,7 +12037,7 @@
         <v>0.9860017096610125</v>
       </c>
       <c r="D430">
-        <v>-1.519535006046088</v>
+        <v>-1.014769421400847</v>
       </c>
       <c r="E430">
         <v>0.1146401322357272</v>
@@ -12063,7 +12063,7 @@
         <v>0.995220716834155</v>
       </c>
       <c r="D431">
-        <v>-1.453728357763419</v>
+        <v>-1.023518399370258</v>
       </c>
       <c r="E431">
         <v>0.06698546263325994</v>
@@ -12089,7 +12089,7 @@
         <v>0.9969525546433716</v>
       </c>
       <c r="D432">
-        <v>-1.493218069936936</v>
+        <v>-1.053986728631346</v>
       </c>
       <c r="E432">
         <v>0.05348932819836059</v>
@@ -12115,7 +12115,7 @@
         <v>0.9979304942113777</v>
       </c>
       <c r="D433">
-        <v>-1.487946468240438</v>
+        <v>-1.017009630669244</v>
       </c>
       <c r="E433">
         <v>0.04407907807914409</v>
@@ -12141,7 +12141,7 @@
         <v>0.9983151947464739</v>
       </c>
       <c r="D434">
-        <v>-1.602181428339342</v>
+        <v>-1.078071476939911</v>
       </c>
       <c r="E434">
         <v>0.03977168892142698</v>
@@ -12167,7 +12167,7 @@
         <v>0.9983546921185493</v>
       </c>
       <c r="D435">
-        <v>-1.5321030936845</v>
+        <v>-1.054400837256988</v>
       </c>
       <c r="E435">
         <v>0.03930273461719933</v>
@@ -12193,7 +12193,7 @@
         <v>0.9983802088991318</v>
       </c>
       <c r="D436">
-        <v>-1.565082486810001</v>
+        <v>-1.030246710070588</v>
       </c>
       <c r="E436">
         <v>0.03899677423059972</v>
@@ -12219,7 +12219,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D437">
-        <v>-1.510905848277148</v>
+        <v>-1.018399235663281</v>
       </c>
       <c r="E437">
         <v>0.03888633595258084</v>
@@ -12245,7 +12245,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D438">
-        <v>-1.510905848277148</v>
+        <v>-1.018399235663281</v>
       </c>
       <c r="E438">
         <v>0.03888633595258084</v>
@@ -12271,7 +12271,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D439">
-        <v>-1.510905848277148</v>
+        <v>-1.018399235663281</v>
       </c>
       <c r="E439">
         <v>0.03888633595258084</v>
@@ -12297,7 +12297,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D440">
-        <v>-1.510905848277148</v>
+        <v>-1.018399235663281</v>
       </c>
       <c r="E440">
         <v>0.03888633595258084</v>
@@ -12323,7 +12323,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D441">
-        <v>-1.510905848277148</v>
+        <v>-1.018399235663281</v>
       </c>
       <c r="E441">
         <v>0.03888633595258084</v>
@@ -12349,7 +12349,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D442">
-        <v>-1.510905848277148</v>
+        <v>-1.018399235663281</v>
       </c>
       <c r="E442">
         <v>0.03888633595258084</v>
@@ -12375,7 +12375,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D443">
-        <v>-1.510905848277148</v>
+        <v>-1.018399235663281</v>
       </c>
       <c r="E443">
         <v>0.03888633595258084</v>
@@ -12401,7 +12401,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D444">
-        <v>-1.510905848277148</v>
+        <v>-1.018399235663281</v>
       </c>
       <c r="E444">
         <v>0.03888633595258084</v>
@@ -12427,7 +12427,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D445">
-        <v>-1.510905848277148</v>
+        <v>-1.018399235663281</v>
       </c>
       <c r="E445">
         <v>0.03888633595258084</v>
@@ -12453,7 +12453,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D446">
-        <v>-1.510905848277148</v>
+        <v>-1.018399235663281</v>
       </c>
       <c r="E446">
         <v>0.03888633595258084</v>
@@ -12479,7 +12479,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D447">
-        <v>-1.510905848277148</v>
+        <v>-1.018399235663281</v>
       </c>
       <c r="E447">
         <v>0.03888633595258084</v>
@@ -12505,7 +12505,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D448">
-        <v>-1.510905848277148</v>
+        <v>-1.018399235663281</v>
       </c>
       <c r="E448">
         <v>0.03888633595258084</v>
@@ -12531,7 +12531,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D449">
-        <v>-1.510905848277148</v>
+        <v>-1.018399235663281</v>
       </c>
       <c r="E449">
         <v>0.03888633595258084</v>
@@ -12557,7 +12557,7 @@
         <v>0.6508078515595168</v>
       </c>
       <c r="D450">
-        <v>-0.5835538705353194</v>
+        <v>0.3351094317689013</v>
       </c>
       <c r="E450">
         <v>0.5725737252663718</v>
@@ -12583,7 +12583,7 @@
         <v>0.7243227200690157</v>
       </c>
       <c r="D451">
-        <v>-1.150783729006676</v>
+        <v>-0.2058068472596351</v>
       </c>
       <c r="E451">
         <v>0.5087444299691058</v>
@@ -12609,7 +12609,7 @@
         <v>0.7945002029976019</v>
       </c>
       <c r="D452">
-        <v>-1.777795527261288</v>
+        <v>-0.8560587508261563</v>
       </c>
       <c r="E452">
         <v>0.4392430297016409</v>
@@ -12635,7 +12635,7 @@
         <v>0.8673815626665033</v>
       </c>
       <c r="D453">
-        <v>-1.262937086502923</v>
+        <v>-1.431794460492688</v>
       </c>
       <c r="E453">
         <v>0.3528589463494619</v>
@@ -12661,7 +12661,7 @@
         <v>0.8994511169656932</v>
       </c>
       <c r="D454">
-        <v>-1.169556749539586</v>
+        <v>-1.330624563230242</v>
       </c>
       <c r="E454">
         <v>0.3072471089758373</v>
@@ -12687,7 +12687,7 @@
         <v>0.9234636940016046</v>
       </c>
       <c r="D455">
-        <v>-0.8965001233644332</v>
+        <v>-1.269133210704304</v>
       </c>
       <c r="E455">
         <v>0.2680605649186073</v>
@@ -12713,7 +12713,7 @@
         <v>0.9704239298001072</v>
       </c>
       <c r="D456">
-        <v>-0.7260048004525221</v>
+        <v>-0.7696878390349364</v>
       </c>
       <c r="E456">
         <v>0.1666362232943635</v>
@@ -12739,7 +12739,7 @@
         <v>0.9800327169506053</v>
       </c>
       <c r="D457">
-        <v>-0.6754278274094414</v>
+        <v>-0.7558128099829728</v>
       </c>
       <c r="E457">
         <v>0.1369174074264026</v>
@@ -12765,7 +12765,7 @@
         <v>0.9862166858145863</v>
       </c>
       <c r="D458">
-        <v>-0.8909263236677551</v>
+        <v>-1.611006838312342</v>
       </c>
       <c r="E458">
         <v>0.1137564440306157</v>
@@ -12791,7 +12791,7 @@
         <v>0.9947253942699992</v>
       </c>
       <c r="D459">
-        <v>-0.9083274050449683</v>
+        <v>-1.597489964575756</v>
       </c>
       <c r="E459">
         <v>0.07037107427597557</v>
@@ -12817,7 +12817,7 @@
         <v>0.9965116768283623</v>
       </c>
       <c r="D460">
-        <v>-0.8923008947085096</v>
+        <v>-1.600286498960861</v>
       </c>
       <c r="E460">
         <v>0.05722786398246392</v>
@@ -12843,7 +12843,7 @@
         <v>0.9972502689618674</v>
       </c>
       <c r="D461">
-        <v>-0.8767590815918838</v>
+        <v>-1.590172347167175</v>
       </c>
       <c r="E461">
         <v>0.05080942589765756</v>
@@ -12869,7 +12869,7 @@
         <v>0.9979463734011167</v>
       </c>
       <c r="D462">
-        <v>-0.8765307617644771</v>
+        <v>-1.604177305542802</v>
       </c>
       <c r="E462">
         <v>0.04390964442179159</v>
@@ -12895,7 +12895,7 @@
         <v>0.998227092260053</v>
       </c>
       <c r="D463">
-        <v>-0.7884372222479901</v>
+        <v>-1.172386149394934</v>
       </c>
       <c r="E463">
         <v>0.04079831697940318</v>
@@ -12921,7 +12921,7 @@
         <v>0.9983629181920587</v>
       </c>
       <c r="D464">
-        <v>-0.8920589582965235</v>
+        <v>-0.6966069229455254</v>
       </c>
       <c r="E464">
         <v>0.03920436023018935</v>
@@ -12947,7 +12947,7 @@
         <v>0.9983857169932379</v>
       </c>
       <c r="D465">
-        <v>-0.7049487253342084</v>
+        <v>-0.2586243763194092</v>
       </c>
       <c r="E465">
         <v>0.03893041356896956</v>
@@ -12973,7 +12973,7 @@
         <v>0.998388509929783</v>
       </c>
       <c r="D466">
-        <v>-0.7243563039911236</v>
+        <v>-0.2552541118656815</v>
       </c>
       <c r="E466">
         <v>0.03889672144538633</v>
@@ -12999,7 +12999,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D467">
-        <v>-0.8129559850270234</v>
+        <v>-1.168880742251787</v>
       </c>
       <c r="E467">
         <v>0.03888633595258084</v>
@@ -13025,7 +13025,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D468">
-        <v>-0.8129559850270234</v>
+        <v>-1.168880742251787</v>
       </c>
       <c r="E468">
         <v>0.03888633595258084</v>
@@ -13051,7 +13051,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D469">
-        <v>-0.8129559850270234</v>
+        <v>-1.168880742251787</v>
       </c>
       <c r="E469">
         <v>0.03888633595258084</v>
@@ -13077,7 +13077,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D470">
-        <v>-0.8129559850270234</v>
+        <v>-1.168880742251787</v>
       </c>
       <c r="E470">
         <v>0.03888633595258084</v>
@@ -13103,7 +13103,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D471">
-        <v>-0.8129559850270234</v>
+        <v>-1.168880742251787</v>
       </c>
       <c r="E471">
         <v>0.03888633595258084</v>
@@ -13129,7 +13129,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D472">
-        <v>-0.8129559850270234</v>
+        <v>-1.168880742251787</v>
       </c>
       <c r="E472">
         <v>0.03888633595258084</v>
@@ -13155,7 +13155,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D473">
-        <v>-0.8129559850270234</v>
+        <v>-1.168880742251787</v>
       </c>
       <c r="E473">
         <v>0.03888633595258084</v>
@@ -13181,7 +13181,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D474">
-        <v>-0.8129559850270234</v>
+        <v>-1.168880742251787</v>
       </c>
       <c r="E474">
         <v>0.03888633595258084</v>
@@ -13207,7 +13207,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D475">
-        <v>-0.8129559850270234</v>
+        <v>-1.168880742251787</v>
       </c>
       <c r="E475">
         <v>0.03888633595258084</v>
@@ -13233,7 +13233,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D476">
-        <v>-0.8129559850270234</v>
+        <v>-1.168880742251787</v>
       </c>
       <c r="E476">
         <v>0.03888633595258084</v>
@@ -13259,7 +13259,7 @@
         <v>0.9983893703562469</v>
       </c>
       <c r="D477">
-        <v>-0.8129559850270234</v>
+        <v>-1.168880742251787</v>
       </c>
       <c r="E477">
         <v>0.03888633595258084</v>
@@ -13285,7 +13285,7 @@
         <v>0.6508078515595166</v>
       </c>
       <c r="D478">
-        <v>-0.5835538705353214</v>
+        <v>0.3351094317689013</v>
       </c>
       <c r="E478">
         <v>0.572573725266372</v>
@@ -13311,7 +13311,7 @@
         <v>0.7243227200690157</v>
       </c>
       <c r="D479">
-        <v>-1.150783729006675</v>
+        <v>-0.2058068472596353</v>
       </c>
       <c r="E479">
         <v>0.5087444299691058</v>
@@ -13337,7 +13337,7 @@
         <v>0.7887175013867707</v>
       </c>
       <c r="D480">
-        <v>-2.110661403310257</v>
+        <v>-0.7817059303330303</v>
       </c>
       <c r="E480">
         <v>0.4453802368925879</v>
@@ -13363,7 +13363,7 @@
         <v>0.8657226333752897</v>
       </c>
       <c r="D481">
-        <v>-0.7408712658532095</v>
+        <v>-0.005104855722772195</v>
       </c>
       <c r="E481">
         <v>0.3550590507099934</v>
@@ -13389,7 +13389,7 @@
         <v>0.8974621663495599</v>
       </c>
       <c r="D482">
-        <v>-1.032462738292304</v>
+        <v>-0.4341829583654417</v>
       </c>
       <c r="E482">
         <v>0.3102710452175276</v>
@@ -13415,7 +13415,7 @@
         <v>0.9135359813337282</v>
       </c>
       <c r="D483">
-        <v>-0.5789898823975375</v>
+        <v>-0.05302876717406924</v>
       </c>
       <c r="E483">
         <v>0.2849160325878521</v>
@@ -13441,7 +13441,7 @@
         <v>0.9515371582282485</v>
       </c>
       <c r="D484">
-        <v>-0.8112624944802309</v>
+        <v>-0.5490897755578059</v>
       </c>
       <c r="E484">
         <v>0.2133062684254117</v>
@@ -13467,7 +13467,7 @@
         <v>0.9658944744809461</v>
       </c>
       <c r="D485">
-        <v>-1.342723755119394</v>
+        <v>-1.034077130684521</v>
       </c>
       <c r="E485">
         <v>0.1789416974421374</v>
@@ -13493,7 +13493,7 @@
         <v>0.9717657010531151</v>
       </c>
       <c r="D486">
-        <v>-0.7975805567672209</v>
+        <v>-0.1872812901918524</v>
       </c>
       <c r="E486">
         <v>0.162812477222186</v>
@@ -13519,7 +13519,7 @@
         <v>0.9766343713994071</v>
       </c>
       <c r="D487">
-        <v>-1.045725640922467</v>
+        <v>-0.6155444599383659</v>
       </c>
       <c r="E487">
         <v>0.1481112047260059</v>
@@ -13545,7 +13545,7 @@
         <v>0.9804827663257883</v>
       </c>
       <c r="D488">
-        <v>-0.4989785847097801</v>
+        <v>-0.5845921572450681</v>
       </c>
       <c r="E488">
         <v>0.1353655994320755</v>
@@ -13571,7 +13571,7 @@
         <v>0.9807759205095219</v>
       </c>
       <c r="D489">
-        <v>-0.9832707689160847</v>
+        <v>-0.6640917452395867</v>
       </c>
       <c r="E489">
         <v>0.1343451388858194</v>
@@ -13597,7 +13597,7 @@
         <v>0.9818317810270247</v>
       </c>
       <c r="D490">
-        <v>-0.2284956686324682</v>
+        <v>-0.1636978946434178</v>
       </c>
       <c r="E490">
         <v>0.1306036630037595</v>
@@ -13623,7 +13623,7 @@
         <v>0.9818322045731552</v>
       </c>
       <c r="D491">
-        <v>-0.9861472872568071</v>
+        <v>-0.6534993933937085</v>
       </c>
       <c r="E491">
         <v>0.1306021406476451</v>
@@ -13649,7 +13649,7 @@
         <v>0.9818322045731552</v>
       </c>
       <c r="D492">
-        <v>-0.9906392040686511</v>
+        <v>-0.673348732983635</v>
       </c>
       <c r="E492">
         <v>0.1306021406476451</v>
@@ -13675,7 +13675,7 @@
         <v>0.9818322045731552</v>
       </c>
       <c r="D493">
-        <v>-0.9906392040686511</v>
+        <v>-0.673348732983635</v>
       </c>
       <c r="E493">
         <v>0.1306021406476451</v>
@@ -13701,7 +13701,7 @@
         <v>0.9818322045731552</v>
       </c>
       <c r="D494">
-        <v>-0.9906392040686511</v>
+        <v>-0.673348732983635</v>
       </c>
       <c r="E494">
         <v>0.1306021406476451</v>
@@ -13727,7 +13727,7 @@
         <v>0.9818322045731552</v>
       </c>
       <c r="D495">
-        <v>-0.9906392040686511</v>
+        <v>-0.673348732983635</v>
       </c>
       <c r="E495">
         <v>0.1306021406476451</v>
@@ -13753,7 +13753,7 @@
         <v>0.9818322045731552</v>
       </c>
       <c r="D496">
-        <v>-0.9906392040686511</v>
+        <v>-0.673348732983635</v>
       </c>
       <c r="E496">
         <v>0.1306021406476451</v>
@@ -13779,7 +13779,7 @@
         <v>0.9818322045731552</v>
       </c>
       <c r="D497">
-        <v>-0.9906392040686511</v>
+        <v>-0.673348732983635</v>
       </c>
       <c r="E497">
         <v>0.1306021406476451</v>
@@ -13805,7 +13805,7 @@
         <v>0.9818322045731552</v>
       </c>
       <c r="D498">
-        <v>-0.9906392040686511</v>
+        <v>-0.673348732983635</v>
       </c>
       <c r="E498">
         <v>0.1306021406476451</v>
@@ -13831,7 +13831,7 @@
         <v>0.9818322045731552</v>
       </c>
       <c r="D499">
-        <v>-0.9906392040686511</v>
+        <v>-0.673348732983635</v>
       </c>
       <c r="E499">
         <v>0.1306021406476451</v>
@@ -13857,7 +13857,7 @@
         <v>0.9818322045731552</v>
       </c>
       <c r="D500">
-        <v>-0.9906392040686511</v>
+        <v>-0.673348732983635</v>
       </c>
       <c r="E500">
         <v>0.1306021406476451</v>
@@ -13883,7 +13883,7 @@
         <v>0.9818322045731552</v>
       </c>
       <c r="D501">
-        <v>-0.9906392040686511</v>
+        <v>-0.673348732983635</v>
       </c>
       <c r="E501">
         <v>0.1306021406476451</v>
@@ -13909,7 +13909,7 @@
         <v>0.9818322045731552</v>
       </c>
       <c r="D502">
-        <v>-0.9906392040686511</v>
+        <v>-0.673348732983635</v>
       </c>
       <c r="E502">
         <v>0.1306021406476451</v>
@@ -13935,7 +13935,7 @@
         <v>0.9818322045731552</v>
       </c>
       <c r="D503">
-        <v>-0.9906392040686511</v>
+        <v>-0.673348732983635</v>
       </c>
       <c r="E503">
         <v>0.1306021406476451</v>
@@ -13961,7 +13961,7 @@
         <v>0.9818322045731552</v>
       </c>
       <c r="D504">
-        <v>-0.9906392040686511</v>
+        <v>-0.673348732983635</v>
       </c>
       <c r="E504">
         <v>0.1306021406476451</v>
@@ -13987,7 +13987,7 @@
         <v>0.9818322045731552</v>
       </c>
       <c r="D505">
-        <v>-0.9906392040686511</v>
+        <v>-0.673348732983635</v>
       </c>
       <c r="E505">
         <v>0.1306021406476451</v>
@@ -14013,7 +14013,7 @@
         <v>0.6508078515595166</v>
       </c>
       <c r="D506">
-        <v>-0.5835538705353214</v>
+        <v>0.3351094317689013</v>
       </c>
       <c r="E506">
         <v>0.572573725266372</v>
@@ -14039,7 +14039,7 @@
         <v>0.7243227200690157</v>
       </c>
       <c r="D507">
-        <v>-1.150783729006675</v>
+        <v>-0.2058068472596353</v>
       </c>
       <c r="E507">
         <v>0.5087444299691058</v>
@@ -14065,7 +14065,7 @@
         <v>0.7887175013867707</v>
       </c>
       <c r="D508">
-        <v>-2.110661403310257</v>
+        <v>-0.7817059303330303</v>
       </c>
       <c r="E508">
         <v>0.4453802368925879</v>
@@ -14091,7 +14091,7 @@
         <v>0.8657226333752897</v>
       </c>
       <c r="D509">
-        <v>-0.7408712658532095</v>
+        <v>-0.005104855722772195</v>
       </c>
       <c r="E509">
         <v>0.3550590507099934</v>
@@ -14117,7 +14117,7 @@
         <v>0.8974621663495599</v>
       </c>
       <c r="D510">
-        <v>-1.032462738292304</v>
+        <v>-0.4341829583654417</v>
       </c>
       <c r="E510">
         <v>0.3102710452175276</v>
@@ -14143,7 +14143,7 @@
         <v>0.9135359813337282</v>
       </c>
       <c r="D511">
-        <v>-0.5789898823975375</v>
+        <v>-0.05302876717406924</v>
       </c>
       <c r="E511">
         <v>0.2849160325878521</v>
@@ -14169,7 +14169,7 @@
         <v>0.9515371582282485</v>
       </c>
       <c r="D512">
-        <v>-0.8112624944802309</v>
+        <v>-0.5490897755578059</v>
       </c>
       <c r="E512">
         <v>0.2133062684254117</v>
@@ -14195,7 +14195,7 @@
         <v>0.9658944744809461</v>
       </c>
       <c r="D513">
-        <v>-1.342723755119394</v>
+        <v>-1.034077130684521</v>
       </c>
       <c r="E513">
         <v>0.1789416974421374</v>
@@ -14221,7 +14221,7 @@
         <v>0.9717657010531151</v>
       </c>
       <c r="D514">
-        <v>-0.7975805567672209</v>
+        <v>-0.1872812901918524</v>
       </c>
       <c r="E514">
         <v>0.162812477222186</v>
@@ -14247,7 +14247,7 @@
         <v>0.9766343713994071</v>
       </c>
       <c r="D515">
-        <v>-1.045725640922467</v>
+        <v>-0.6155444599383659</v>
       </c>
       <c r="E515">
         <v>0.1481112047260059</v>
@@ -14273,7 +14273,7 @@
         <v>0.9804827663257883</v>
       </c>
       <c r="D516">
-        <v>-0.4989785847097801</v>
+        <v>-0.5845921572450681</v>
       </c>
       <c r="E516">
         <v>0.1353655994320755</v>
@@ -14299,7 +14299,7 @@
         <v>0.9807759205095219</v>
       </c>
       <c r="D517">
-        <v>-0.9832707689160847</v>
+        <v>-0.6640917452395867</v>
       </c>
       <c r="E517">
         <v>0.1343451388858194</v>
@@ -14325,7 +14325,7 @@
         <v>0.9818317810270247</v>
       </c>
       <c r="D518">
-        <v>-0.2284956686324682</v>
+        <v>-0.1636978946434178</v>
       </c>
       <c r="E518">
         <v>0.1306036630037595</v>
@@ -14351,7 +14351,7 @@
         <v>0.9818322045731552</v>
       </c>
       <c r="D519">
-        <v>-0.9861472872568071</v>
+        <v>-0.6534993933937085</v>
       </c>
       <c r="E519">
         <v>0.1306021406476451</v>
@@ -14377,7 +14377,7 @@
         <v>0.9818322045731552</v>
       </c>
       <c r="D520">
-        <v>-0.9906392040686511</v>
+        <v>-0.673348732983635</v>
       </c>
       <c r="E520">
         <v>0.1306021406476451</v>
@@ -14403,7 +14403,7 @@
         <v>0.9818322045731552</v>
       </c>
       <c r="D521">
-        <v>-0.9906392040686511</v>
+        <v>-0.673348732983635</v>
       </c>
       <c r="E521">
         <v>0.1306021406476451</v>
@@ -14429,7 +14429,7 @@
         <v>0.9818322045731552</v>
       </c>
       <c r="D522">
-        <v>-0.9906392040686511</v>
+        <v>-0.673348732983635</v>
       </c>
       <c r="E522">
         <v>0.1306021406476451</v>
@@ -14455,7 +14455,7 @@
         <v>0.9818322045731552</v>
       </c>
       <c r="D523">
-        <v>-0.9906392040686511</v>
+        <v>-0.673348732983635</v>
       </c>
       <c r="E523">
         <v>0.1306021406476451</v>
@@ -14481,7 +14481,7 @@
         <v>0.9818322045731552</v>
       </c>
       <c r="D524">
-        <v>-0.9906392040686511</v>
+        <v>-0.673348732983635</v>
       </c>
       <c r="E524">
         <v>0.1306021406476451</v>
@@ -14507,7 +14507,7 @@
         <v>0.9818322045731552</v>
       </c>
       <c r="D525">
-        <v>-0.9906392040686511</v>
+        <v>-0.673348732983635</v>
       </c>
       <c r="E525">
         <v>0.1306021406476451</v>
@@ -14533,7 +14533,7 @@
         <v>0.9818322045731552</v>
       </c>
       <c r="D526">
-        <v>-0.9906392040686511</v>
+        <v>-0.673348732983635</v>
       </c>
       <c r="E526">
         <v>0.1306021406476451</v>
@@ -14559,7 +14559,7 @@
         <v>0.9818322045731552</v>
       </c>
       <c r="D527">
-        <v>-0.9906392040686511</v>
+        <v>-0.673348732983635</v>
       </c>
       <c r="E527">
         <v>0.1306021406476451</v>
@@ -14585,7 +14585,7 @@
         <v>0.9818322045731552</v>
       </c>
       <c r="D528">
-        <v>-0.9906392040686511</v>
+        <v>-0.673348732983635</v>
       </c>
       <c r="E528">
         <v>0.1306021406476451</v>
@@ -14611,7 +14611,7 @@
         <v>0.9818322045731552</v>
       </c>
       <c r="D529">
-        <v>-0.9906392040686511</v>
+        <v>-0.673348732983635</v>
       </c>
       <c r="E529">
         <v>0.1306021406476451</v>
@@ -14637,7 +14637,7 @@
         <v>0.9818322045731552</v>
       </c>
       <c r="D530">
-        <v>-0.9906392040686511</v>
+        <v>-0.673348732983635</v>
       </c>
       <c r="E530">
         <v>0.1306021406476451</v>
@@ -14663,7 +14663,7 @@
         <v>0.9818322045731552</v>
       </c>
       <c r="D531">
-        <v>-0.9906392040686511</v>
+        <v>-0.673348732983635</v>
       </c>
       <c r="E531">
         <v>0.1306021406476451</v>
@@ -14689,7 +14689,7 @@
         <v>0.9818322045731552</v>
       </c>
       <c r="D532">
-        <v>-0.9906392040686511</v>
+        <v>-0.673348732983635</v>
       </c>
       <c r="E532">
         <v>0.1306021406476451</v>
@@ -14715,7 +14715,7 @@
         <v>0.9818322045731552</v>
       </c>
       <c r="D533">
-        <v>-0.9906392040686511</v>
+        <v>-0.673348732983635</v>
       </c>
       <c r="E533">
         <v>0.1306021406476451</v>
@@ -14777,7 +14777,7 @@
         <v>0.8401275374692105</v>
       </c>
       <c r="D2">
-        <v>0.6615137769779931</v>
+        <v>0.7139936021113449</v>
       </c>
       <c r="E2">
         <v>0.3874235462566082</v>
@@ -14803,7 +14803,7 @@
         <v>0.866508738958029</v>
       </c>
       <c r="D3">
-        <v>0.4963608135020766</v>
+        <v>0.6506872365707492</v>
       </c>
       <c r="E3">
         <v>0.3540182066117232</v>
@@ -14829,7 +14829,7 @@
         <v>0.8872356850509526</v>
       </c>
       <c r="D4">
-        <v>0.2869698561676335</v>
+        <v>0.5398212876714892</v>
       </c>
       <c r="E4">
         <v>0.3253756305848655</v>
@@ -14855,7 +14855,7 @@
         <v>0.9182581907629762</v>
       </c>
       <c r="D5">
-        <v>0.4484476063645131</v>
+        <v>0.6301028780277369</v>
       </c>
       <c r="E5">
         <v>0.2770264921702822</v>
@@ -14881,7 +14881,7 @@
         <v>0.9124928478086202</v>
       </c>
       <c r="D6">
-        <v>0.4236566577974662</v>
+        <v>0.6346859268092979</v>
       </c>
       <c r="E6">
         <v>0.286629545549503</v>
@@ -14907,7 +14907,7 @@
         <v>0.920757285771015</v>
       </c>
       <c r="D7">
-        <v>0.3750035961870393</v>
+        <v>0.6093996478974208</v>
       </c>
       <c r="E7">
         <v>0.2727588502787734</v>
@@ -14933,7 +14933,7 @@
         <v>0.9336028609900272</v>
       </c>
       <c r="D8">
-        <v>0.3324108866587987</v>
+        <v>0.5999678169135702</v>
       </c>
       <c r="E8">
         <v>0.2496743127198494</v>
@@ -14959,7 +14959,7 @@
         <v>0.933283663612242</v>
       </c>
       <c r="D9">
-        <v>0.265021588208717</v>
+        <v>0.5940848407545366</v>
       </c>
       <c r="E9">
         <v>0.2502737348848517</v>
@@ -14985,7 +14985,7 @@
         <v>0.9359585799076495</v>
       </c>
       <c r="D10">
-        <v>0.2451000630445083</v>
+        <v>0.6028922583886431</v>
       </c>
       <c r="E10">
         <v>0.2452051891415649</v>
@@ -15011,7 +15011,7 @@
         <v>0.9382150514454541</v>
       </c>
       <c r="D11">
-        <v>0.3316899541046064</v>
+        <v>0.6089607281394999</v>
       </c>
       <c r="E11">
         <v>0.2408466026237543</v>
@@ -15037,7 +15037,7 @@
         <v>0.9373614446182501</v>
       </c>
       <c r="D12">
-        <v>0.3581454341509521</v>
+        <v>0.6161812682065755</v>
       </c>
       <c r="E12">
         <v>0.2425046365141774</v>
@@ -15063,7 +15063,7 @@
         <v>0.9381784382764864</v>
       </c>
       <c r="D13">
-        <v>0.3486799365112021</v>
+        <v>0.6023050424844217</v>
       </c>
       <c r="E13">
         <v>0.2409179537502136</v>
@@ -15089,7 +15089,7 @@
         <v>0.9369589367791016</v>
       </c>
       <c r="D14">
-        <v>0.3605531002885143</v>
+        <v>0.6079571152635881</v>
       </c>
       <c r="E14">
         <v>0.2432825416787193</v>
@@ -15115,7 +15115,7 @@
         <v>0.9382561186785916</v>
       </c>
       <c r="D15">
-        <v>0.4049223586930604</v>
+        <v>0.6256616818536525</v>
       </c>
       <c r="E15">
         <v>0.2407665463322933</v>
@@ -15141,7 +15141,7 @@
         <v>0.9374029543624351</v>
       </c>
       <c r="D16">
-        <v>0.4266680073302815</v>
+        <v>0.6366332444691021</v>
       </c>
       <c r="E16">
         <v>0.2424242708861804</v>
@@ -15167,7 +15167,7 @@
         <v>0.9353850410852211</v>
       </c>
       <c r="D17">
-        <v>0.4269352878467475</v>
+        <v>0.6339959602745158</v>
       </c>
       <c r="E17">
         <v>0.2463007396862127</v>
@@ -15193,7 +15193,7 @@
         <v>0.9330420569166333</v>
       </c>
       <c r="D18">
-        <v>0.3579630207577398</v>
+        <v>0.6224902023575309</v>
       </c>
       <c r="E18">
         <v>0.2507264962899992</v>
@@ -15219,7 +15219,7 @@
         <v>0.9342109087113409</v>
       </c>
       <c r="D19">
-        <v>0.318854786735733</v>
+        <v>0.6154376588057773</v>
       </c>
       <c r="E19">
         <v>0.2485284571312947</v>
@@ -15245,7 +15245,7 @@
         <v>0.9342097838208177</v>
       </c>
       <c r="D20">
-        <v>0.2984266362591819</v>
+        <v>0.606527065902511</v>
       </c>
       <c r="E20">
         <v>0.2485305818460892</v>
@@ -15271,7 +15271,7 @@
         <v>0.8229722571477501</v>
       </c>
       <c r="D21">
-        <v>0.3170417107673157</v>
+        <v>0.5964468527944191</v>
       </c>
       <c r="E21">
         <v>0.407680412609053</v>
@@ -15297,7 +15297,7 @@
         <v>0.8567339091339166</v>
       </c>
       <c r="D22">
-        <v>0.5883055444619762</v>
+        <v>0.6985176765150392</v>
       </c>
       <c r="E22">
         <v>0.3667506441787909</v>
@@ -15323,7 +15323,7 @@
         <v>0.8669935881217068</v>
       </c>
       <c r="D23">
-        <v>0.4935806329896307</v>
+        <v>0.6447737568488507</v>
       </c>
       <c r="E23">
         <v>0.3533747129078632</v>
@@ -15349,7 +15349,7 @@
         <v>0.9097928901170033</v>
       </c>
       <c r="D24">
-        <v>0.484907449952002</v>
+        <v>0.6291234109314416</v>
       </c>
       <c r="E24">
         <v>0.2910178073664003</v>
@@ -15375,7 +15375,7 @@
         <v>0.9104885534542732</v>
       </c>
       <c r="D25">
-        <v>0.4827398485751498</v>
+        <v>0.6454605960102</v>
       </c>
       <c r="E25">
         <v>0.2898934932836343</v>
@@ -15401,7 +15401,7 @@
         <v>0.9210118308901067</v>
       </c>
       <c r="D26">
-        <v>0.4073801957760201</v>
+        <v>0.6188625957546108</v>
       </c>
       <c r="E26">
         <v>0.2723204170416809</v>
@@ -15427,7 +15427,7 @@
         <v>0.921968641086658</v>
       </c>
       <c r="D27">
-        <v>0.4156540952713039</v>
+        <v>0.5928995616779731</v>
       </c>
       <c r="E27">
         <v>0.2706660374696188</v>
@@ -15453,7 +15453,7 @@
         <v>0.9283887116342299</v>
       </c>
       <c r="D28">
-        <v>0.4711033111110832</v>
+        <v>0.6515713022185652</v>
       </c>
       <c r="E28">
         <v>0.2592924811464662</v>
@@ -15479,7 +15479,7 @@
         <v>0.9332612958904644</v>
       </c>
       <c r="D29">
-        <v>0.4388381113018239</v>
+        <v>0.6516827619304956</v>
       </c>
       <c r="E29">
         <v>0.2503156855107596</v>
@@ -15505,7 +15505,7 @@
         <v>0.9379498080340973</v>
       </c>
       <c r="D30">
-        <v>0.4986596516139209</v>
+        <v>0.6614448336011693</v>
       </c>
       <c r="E30">
         <v>0.2413630274181278</v>
@@ -15531,7 +15531,7 @@
         <v>0.939538698363833</v>
       </c>
       <c r="D31">
-        <v>0.4463637779767589</v>
+        <v>0.6513185551477942</v>
       </c>
       <c r="E31">
         <v>0.2382527522119951</v>
@@ -15557,7 +15557,7 @@
         <v>0.9405334714243018</v>
       </c>
       <c r="D32">
-        <v>0.4295951315360784</v>
+        <v>0.6387972939060269</v>
       </c>
       <c r="E32">
         <v>0.2362846305352525</v>
@@ -15583,7 +15583,7 @@
         <v>0.9384155299995119</v>
       </c>
       <c r="D33">
-        <v>0.4697463704132565</v>
+        <v>0.6537634247874815</v>
       </c>
       <c r="E33">
         <v>0.2404555380388019</v>
@@ -15609,7 +15609,7 @@
         <v>0.9402240178573146</v>
       </c>
       <c r="D34">
-        <v>0.5005240552479311</v>
+        <v>0.6696799901273138</v>
       </c>
       <c r="E34">
         <v>0.2368986250408145</v>
@@ -15635,7 +15635,7 @@
         <v>0.9414697166110658</v>
       </c>
       <c r="D35">
-        <v>0.5448230877366769</v>
+        <v>0.6838100783714864</v>
       </c>
       <c r="E35">
         <v>0.2344172102980325</v>
@@ -15661,7 +15661,7 @@
         <v>0.9404796406923021</v>
       </c>
       <c r="D36">
-        <v>0.5203134659448068</v>
+        <v>0.6724119903942234</v>
       </c>
       <c r="E36">
         <v>0.2363915520064314</v>
@@ -15687,7 +15687,7 @@
         <v>0.9368146050597885</v>
       </c>
       <c r="D37">
-        <v>0.4572597397547835</v>
+        <v>0.6607291895248197</v>
       </c>
       <c r="E37">
         <v>0.2435608786132976</v>
@@ -15713,7 +15713,7 @@
         <v>0.9354878193924496</v>
       </c>
       <c r="D38">
-        <v>0.4138811373333213</v>
+        <v>0.6481320786462801</v>
       </c>
       <c r="E38">
         <v>0.2461047754082379</v>
@@ -15739,7 +15739,7 @@
         <v>0.9333296175702392</v>
       </c>
       <c r="D39">
-        <v>0.4104159444671176</v>
+        <v>0.6420248299909186</v>
       </c>
       <c r="E39">
         <v>0.2501875262403205</v>
@@ -15765,7 +15765,7 @@
         <v>0.8611968495448178</v>
       </c>
       <c r="D40">
-        <v>0.7300501102004093</v>
+        <v>0.7602153014577856</v>
       </c>
       <c r="E40">
         <v>0.3609930507177847</v>
@@ -15791,7 +15791,7 @@
         <v>0.8737940773061293</v>
       </c>
       <c r="D41">
-        <v>0.7273717473875726</v>
+        <v>0.7317260750639365</v>
       </c>
       <c r="E41">
         <v>0.3442223363724624</v>
@@ -15817,7 +15817,7 @@
         <v>0.8805657006801113</v>
       </c>
       <c r="D42">
-        <v>0.6302920749604675</v>
+        <v>0.6821889265229346</v>
       </c>
       <c r="E42">
         <v>0.3348603392355648</v>
@@ -15843,7 +15843,7 @@
         <v>0.9205256505829369</v>
       </c>
       <c r="D43">
-        <v>0.5645860031469926</v>
+        <v>0.6898680239704702</v>
       </c>
       <c r="E43">
         <v>0.2731572114696462</v>
@@ -15869,7 +15869,7 @@
         <v>0.9198812979002957</v>
       </c>
       <c r="D44">
-        <v>0.5590244863505014</v>
+        <v>0.7000460648858315</v>
       </c>
       <c r="E44">
         <v>0.2742623118249222</v>
@@ -15895,7 +15895,7 @@
         <v>0.9255480296695375</v>
       </c>
       <c r="D45">
-        <v>0.5374513965070151</v>
+        <v>0.6757127660912829</v>
       </c>
       <c r="E45">
         <v>0.2643852837037022</v>
@@ -15921,7 +15921,7 @@
         <v>0.924745354977154</v>
       </c>
       <c r="D46">
-        <v>0.5567262546492757</v>
+        <v>0.6914177104914496</v>
       </c>
       <c r="E46">
         <v>0.2658066460853741</v>
@@ -15947,7 +15947,7 @@
         <v>0.9195656441045672</v>
       </c>
       <c r="D47">
-        <v>0.5760435398833463</v>
+        <v>0.7311976652103904</v>
       </c>
       <c r="E47">
         <v>0.2748020537044032</v>
@@ -15973,7 +15973,7 @@
         <v>0.9255547057811032</v>
       </c>
       <c r="D48">
-        <v>0.5360357117455771</v>
+        <v>0.7230764863687408</v>
       </c>
       <c r="E48">
         <v>0.2643734297177522</v>
@@ -15999,7 +15999,7 @@
         <v>0.930459387005928</v>
       </c>
       <c r="D49">
-        <v>0.5594184205302838</v>
+        <v>0.7252726629309372</v>
       </c>
       <c r="E49">
         <v>0.2555161982855076</v>
@@ -16025,7 +16025,7 @@
         <v>0.9340264401394865</v>
       </c>
       <c r="D50">
-        <v>0.5318501092741544</v>
+        <v>0.714670486653862</v>
       </c>
       <c r="E50">
         <v>0.248876642495363</v>
@@ -16051,7 +16051,7 @@
         <v>0.9343705128370138</v>
       </c>
       <c r="D51">
-        <v>0.4953980994054255</v>
+        <v>0.7032217626232272</v>
       </c>
       <c r="E51">
         <v>0.2482268094488859</v>
@@ -16077,7 +16077,7 @@
         <v>0.9320701156229549</v>
       </c>
       <c r="D52">
-        <v>0.4806355017157843</v>
+        <v>0.6955512212469073</v>
       </c>
       <c r="E52">
         <v>0.2525396751818293</v>
@@ -16103,7 +16103,7 @@
         <v>0.9336739533980413</v>
       </c>
       <c r="D53">
-        <v>0.5386210925228716</v>
+        <v>0.7159652591060184</v>
       </c>
       <c r="E53">
         <v>0.2495406119143313</v>
@@ -16129,7 +16129,7 @@
         <v>0.9358487479226848</v>
       </c>
       <c r="D54">
-        <v>0.5739108430682966</v>
+        <v>0.7233145269831642</v>
       </c>
       <c r="E54">
         <v>0.2454153643342245</v>
@@ -16155,7 +16155,7 @@
         <v>0.9350335718031361</v>
       </c>
       <c r="D55">
-        <v>0.6007337586989202</v>
+        <v>0.7296501742336234</v>
       </c>
       <c r="E55">
         <v>0.2469697004459099</v>
@@ -16181,7 +16181,7 @@
         <v>0.9329550838454191</v>
       </c>
       <c r="D56">
-        <v>0.5413544539758467</v>
+        <v>0.7146787576650881</v>
       </c>
       <c r="E56">
         <v>0.2508892803884498</v>
@@ -16207,7 +16207,7 @@
         <v>0.9324770680869713</v>
       </c>
       <c r="D57">
-        <v>0.5139953222737546</v>
+        <v>0.7086626495895852</v>
       </c>
       <c r="E57">
         <v>0.2517820850049762</v>
@@ -16233,7 +16233,7 @@
         <v>0.9313076514409587</v>
       </c>
       <c r="D58">
-        <v>0.4758624940006376</v>
+        <v>0.685998582389625</v>
       </c>
       <c r="E58">
         <v>0.2539530086069509</v>
@@ -16259,7 +16259,7 @@
         <v>0.8590010807424229</v>
       </c>
       <c r="D59">
-        <v>0.7252155678261334</v>
+        <v>0.7110930673875364</v>
       </c>
       <c r="E59">
         <v>0.3638371756815437</v>
@@ -16285,7 +16285,7 @@
         <v>0.8824872787981</v>
       </c>
       <c r="D60">
-        <v>0.5455519460943831</v>
+        <v>0.6465887927958709</v>
       </c>
       <c r="E60">
         <v>0.3321556325722593</v>
@@ -16311,7 +16311,7 @@
         <v>0.8847972723002155</v>
       </c>
       <c r="D61">
-        <v>0.5115218680982767</v>
+        <v>0.6620864787674468</v>
       </c>
       <c r="E61">
         <v>0.3288747726994001</v>
@@ -16337,7 +16337,7 @@
         <v>0.9210520788440278</v>
       </c>
       <c r="D62">
-        <v>0.4875411782221605</v>
+        <v>0.6613842502976411</v>
       </c>
       <c r="E62">
         <v>0.2722510285733175</v>
@@ -16363,7 +16363,7 @@
         <v>0.9209835099939033</v>
       </c>
       <c r="D63">
-        <v>0.4098745564756816</v>
+        <v>0.6565411826069996</v>
       </c>
       <c r="E63">
         <v>0.2723692323716664</v>
@@ -16389,7 +16389,7 @@
         <v>0.9264696646313518</v>
       </c>
       <c r="D64">
-        <v>0.3795489914677289</v>
+        <v>0.6411999760892857</v>
       </c>
       <c r="E64">
         <v>0.2627437857940499</v>
@@ -16415,7 +16415,7 @@
         <v>0.9294644365750426</v>
       </c>
       <c r="D65">
-        <v>0.403384893680133</v>
+        <v>0.6382913303952273</v>
       </c>
       <c r="E65">
         <v>0.2573376020342305</v>
@@ -16441,7 +16441,7 @@
         <v>0.9219256216423456</v>
       </c>
       <c r="D66">
-        <v>0.4370706000748495</v>
+        <v>0.6863664484597052</v>
       </c>
       <c r="E66">
         <v>0.2707406375937322</v>
@@ -16467,7 +16467,7 @@
         <v>0.9296057512587532</v>
       </c>
       <c r="D67">
-        <v>0.3938764737763334</v>
+        <v>0.6805943054112278</v>
       </c>
       <c r="E67">
         <v>0.2570796909003049</v>
@@ -16493,7 +16493,7 @@
         <v>0.9344177483796059</v>
       </c>
       <c r="D68">
-        <v>0.4370977394530877</v>
+        <v>0.6892970502711051</v>
       </c>
       <c r="E68">
         <v>0.2481374651691289</v>
@@ -16519,7 +16519,7 @@
         <v>0.9363448288739715</v>
       </c>
       <c r="D69">
-        <v>0.3871106662536089</v>
+        <v>0.6822669424525697</v>
       </c>
       <c r="E69">
         <v>0.2444646255503155</v>
@@ -16545,7 +16545,7 @@
         <v>0.9365147589403295</v>
       </c>
       <c r="D70">
-        <v>0.3433818932705645</v>
+        <v>0.6612558435869502</v>
       </c>
       <c r="E70">
         <v>0.2441381033619748</v>
@@ -16571,7 +16571,7 @@
         <v>0.935984815172538</v>
       </c>
       <c r="D71">
-        <v>0.3942372803066106</v>
+        <v>0.6750604986672919</v>
       </c>
       <c r="E71">
         <v>0.2451549585091528</v>
@@ -16597,7 +16597,7 @@
         <v>0.9380347813835638</v>
       </c>
       <c r="D72">
-        <v>0.4214073453653115</v>
+        <v>0.6838655667356831</v>
       </c>
       <c r="E72">
         <v>0.241197706001782</v>
@@ -16623,7 +16623,7 @@
         <v>0.9396498001702295</v>
       </c>
       <c r="D73">
-        <v>0.5160476791576782</v>
+        <v>0.7103091655561566</v>
       </c>
       <c r="E73">
         <v>0.2380337486355457</v>
@@ -16649,7 +16649,7 @@
         <v>0.9367191121317718</v>
       </c>
       <c r="D74">
-        <v>0.5193865281796149</v>
+        <v>0.7086212190505684</v>
       </c>
       <c r="E74">
         <v>0.2437448575252368</v>
@@ -16675,7 +16675,7 @@
         <v>0.9331143267759028</v>
       </c>
       <c r="D75">
-        <v>0.4379190512138285</v>
+        <v>0.6858087529311904</v>
       </c>
       <c r="E75">
         <v>0.2505911511780242</v>
@@ -16701,7 +16701,7 @@
         <v>0.9340276084366383</v>
       </c>
       <c r="D76">
-        <v>0.4529864489658423</v>
+        <v>0.6884525014970196</v>
       </c>
       <c r="E76">
         <v>0.2488744388613582</v>
@@ -16727,7 +16727,7 @@
         <v>0.9337371285305511</v>
       </c>
       <c r="D77">
-        <v>0.4744962532602776</v>
+        <v>0.6941403621895615</v>
       </c>
       <c r="E77">
         <v>0.2494217406881734</v>
@@ -16753,7 +16753,7 @@
         <v>0.8369568074638779</v>
       </c>
       <c r="D78">
-        <v>0.7714641617601379</v>
+        <v>0.8131359334433308</v>
       </c>
       <c r="E78">
         <v>0.3912465447647543</v>
@@ -16779,7 +16779,7 @@
         <v>0.8651113667917503</v>
       </c>
       <c r="D79">
-        <v>0.5720018482413487</v>
+        <v>0.7071823783839386</v>
       </c>
       <c r="E79">
         <v>0.3558662950644581</v>
@@ -16805,7 +16805,7 @@
         <v>0.8655409833392822</v>
       </c>
       <c r="D80">
-        <v>0.4622900484567734</v>
+        <v>0.6570637556720692</v>
       </c>
       <c r="E80">
         <v>0.3552991309746058</v>
@@ -16831,7 +16831,7 @@
         <v>0.9044329786022698</v>
       </c>
       <c r="D81">
-        <v>0.5230657944836548</v>
+        <v>0.6869749862401104</v>
       </c>
       <c r="E81">
         <v>0.299538882336531</v>
@@ -16857,7 +16857,7 @@
         <v>0.9089124993857851</v>
       </c>
       <c r="D82">
-        <v>0.4589442758679051</v>
+        <v>0.6687346755216795</v>
       </c>
       <c r="E82">
         <v>0.292434476648247</v>
@@ -16883,7 +16883,7 @@
         <v>0.9154859188586091</v>
       </c>
       <c r="D83">
-        <v>0.4322310098388176</v>
+        <v>0.6633457411337476</v>
       </c>
       <c r="E83">
         <v>0.281684997330719</v>
@@ -16909,7 +16909,7 @@
         <v>0.9201954945125019</v>
       </c>
       <c r="D84">
-        <v>0.4671382470529747</v>
+        <v>0.6410779320329725</v>
       </c>
       <c r="E84">
         <v>0.2737240046807437</v>
@@ -16935,7 +16935,7 @@
         <v>0.9213147077242343</v>
       </c>
       <c r="D85">
-        <v>0.495518508334142</v>
+        <v>0.6876190951357192</v>
       </c>
       <c r="E85">
         <v>0.2717978149560944</v>
@@ -16961,7 +16961,7 @@
         <v>0.927847394018549</v>
       </c>
       <c r="D86">
-        <v>0.4543478679879769</v>
+        <v>0.6925868615608252</v>
       </c>
       <c r="E86">
         <v>0.26027064632314</v>
@@ -16987,7 +16987,7 @@
         <v>0.9310022203451574</v>
       </c>
       <c r="D87">
-        <v>0.4675048577336773</v>
+        <v>0.6932141216596566</v>
       </c>
       <c r="E87">
         <v>0.254516966003858</v>
@@ -17013,7 +17013,7 @@
         <v>0.9323179510471836</v>
       </c>
       <c r="D88">
-        <v>0.4925986798933487</v>
+        <v>0.7027508977332443</v>
       </c>
       <c r="E88">
         <v>0.2520785712858098</v>
@@ -17039,7 +17039,7 @@
         <v>0.9340406632354209</v>
       </c>
       <c r="D89">
-        <v>0.4850055133015307</v>
+        <v>0.7021294988122593</v>
       </c>
       <c r="E89">
         <v>0.2488498136629161</v>
@@ -17065,7 +17065,7 @@
         <v>0.9329075702188392</v>
       </c>
       <c r="D90">
-        <v>0.510821509181676</v>
+        <v>0.71046244832827</v>
       </c>
       <c r="E90">
         <v>0.2509781651914985</v>
@@ -17091,7 +17091,7 @@
         <v>0.9334571288174248</v>
       </c>
       <c r="D91">
-        <v>0.5418047543301434</v>
+        <v>0.7241114966259565</v>
       </c>
       <c r="E91">
         <v>0.2499481621445334</v>
@@ -17117,7 +17117,7 @@
         <v>0.9337713282341975</v>
       </c>
       <c r="D92">
-        <v>0.5906410337924974</v>
+        <v>0.7378641877320058</v>
       </c>
       <c r="E92">
         <v>0.2493573663986341</v>
@@ -17143,7 +17143,7 @@
         <v>0.9314001926766882</v>
       </c>
       <c r="D93">
-        <v>0.5854974574164451</v>
+        <v>0.7292874225907169</v>
       </c>
       <c r="E93">
         <v>0.2537818902353413</v>
@@ -17169,7 +17169,7 @@
         <v>0.9279950407250256</v>
       </c>
       <c r="D94">
-        <v>0.5216102628040966</v>
+        <v>0.7132711214760225</v>
       </c>
       <c r="E94">
         <v>0.2600042125449926</v>
@@ -17195,7 +17195,7 @@
         <v>0.9296109619510473</v>
       </c>
       <c r="D95">
-        <v>0.509603035522795</v>
+        <v>0.709129567394192</v>
       </c>
       <c r="E95">
         <v>0.2570701760040007</v>
@@ -17221,7 +17221,7 @@
         <v>0.930109397763535</v>
       </c>
       <c r="D96">
-        <v>0.5260805305665812</v>
+        <v>0.7113876744546433</v>
       </c>
       <c r="E96">
         <v>0.2561583818900033</v>
@@ -17247,7 +17247,7 @@
         <v>0.837466076000004</v>
       </c>
       <c r="D97">
-        <v>0.67378276546962</v>
+        <v>0.7513422793896931</v>
       </c>
       <c r="E97">
         <v>0.3906350338349345</v>
@@ -17273,7 +17273,7 @@
         <v>0.8701756808343846</v>
       </c>
       <c r="D98">
-        <v>0.6909886433164957</v>
+        <v>0.751839596759784</v>
       </c>
       <c r="E98">
         <v>0.3491219918535948</v>
@@ -17299,7 +17299,7 @@
         <v>0.8908392505830381</v>
       </c>
       <c r="D99">
-        <v>0.6145787454854381</v>
+        <v>0.7316837196697896</v>
       </c>
       <c r="E99">
         <v>0.320134466649556</v>
@@ -17325,7 +17325,7 @@
         <v>0.920630335563845</v>
       </c>
       <c r="D100">
-        <v>0.6063286712977464</v>
+        <v>0.7207751359443397</v>
       </c>
       <c r="E100">
         <v>0.2729772484973691</v>
@@ -17351,7 +17351,7 @@
         <v>0.9154638359309573</v>
       </c>
       <c r="D101">
-        <v>0.518882996316101</v>
+        <v>0.7058877530223024</v>
       </c>
       <c r="E101">
         <v>0.2817217960691498</v>
@@ -17377,7 +17377,7 @@
         <v>0.9209201023433068</v>
       </c>
       <c r="D102">
-        <v>0.4760836333333517</v>
+        <v>0.6913252695050702</v>
       </c>
       <c r="E102">
         <v>0.2724784932982368</v>
@@ -17403,7 +17403,7 @@
         <v>0.9247804541475526</v>
       </c>
       <c r="D103">
-        <v>0.4378676301792291</v>
+        <v>0.6416525497519776</v>
       </c>
       <c r="E103">
         <v>0.2657446520326614</v>
@@ -17429,7 +17429,7 @@
         <v>0.9243870367253826</v>
       </c>
       <c r="D104">
-        <v>0.5389274069722745</v>
+        <v>0.6845508295915863</v>
       </c>
       <c r="E104">
         <v>0.2664387018781836</v>
@@ -17455,7 +17455,7 @@
         <v>0.9287001845121214</v>
       </c>
       <c r="D105">
-        <v>0.4730037904744003</v>
+        <v>0.6627150508914061</v>
       </c>
       <c r="E105">
         <v>0.2587279710827937</v>
@@ -17481,7 +17481,7 @@
         <v>0.9315162208150558</v>
       </c>
       <c r="D106">
-        <v>0.5138435797540386</v>
+        <v>0.6805189025731802</v>
       </c>
       <c r="E106">
         <v>0.2535671789776122</v>
@@ -17507,7 +17507,7 @@
         <v>0.9324601872469266</v>
       </c>
       <c r="D107">
-        <v>0.5318043584391062</v>
+        <v>0.6724347937999395</v>
       </c>
       <c r="E107">
         <v>0.2518135559983918</v>
@@ -17533,7 +17533,7 @@
         <v>0.9339143628456678</v>
       </c>
       <c r="D108">
-        <v>0.5150147990544687</v>
+        <v>0.6694928958056159</v>
       </c>
       <c r="E108">
         <v>0.2490879512697538</v>
@@ -17559,7 +17559,7 @@
         <v>0.9365765091667269</v>
       </c>
       <c r="D109">
-        <v>0.5121704277758614</v>
+        <v>0.6711590773967293</v>
       </c>
       <c r="E109">
         <v>0.2440193415003114</v>
@@ -17585,7 +17585,7 @@
         <v>0.9373049386842174</v>
       </c>
       <c r="D110">
-        <v>0.5269923326540458</v>
+        <v>0.6749797748641768</v>
       </c>
       <c r="E110">
         <v>0.2426139929797109</v>
@@ -17611,7 +17611,7 @@
         <v>0.9380889490769971</v>
       </c>
       <c r="D111">
-        <v>0.5768208173484707</v>
+        <v>0.6922078525375996</v>
       </c>
       <c r="E111">
         <v>0.2410922599128515</v>
@@ -17637,7 +17637,7 @@
         <v>0.9344817354881246</v>
       </c>
       <c r="D112">
-        <v>0.5751792694671405</v>
+        <v>0.6885990989495082</v>
       </c>
       <c r="E112">
         <v>0.2480163845927359</v>
@@ -17663,7 +17663,7 @@
         <v>0.9314484059931415</v>
       </c>
       <c r="D113">
-        <v>0.5229304790410645</v>
+        <v>0.6806863323693206</v>
       </c>
       <c r="E113">
         <v>0.2536926930663902</v>
@@ -17689,7 +17689,7 @@
         <v>0.9320432731328406</v>
       </c>
       <c r="D114">
-        <v>0.5242439119973148</v>
+        <v>0.6808673424508503</v>
       </c>
       <c r="E114">
         <v>0.2525895657732015</v>
@@ -17715,7 +17715,7 @@
         <v>0.9331988395956379</v>
       </c>
       <c r="D115">
-        <v>0.5257350877638112</v>
+        <v>0.6778609395206507</v>
       </c>
       <c r="E115">
         <v>0.2504327849848803</v>
@@ -17741,7 +17741,7 @@
         <v>0.8131441283975089</v>
       </c>
       <c r="D116">
-        <v>0.771349322203685</v>
+        <v>0.7559597978942891</v>
       </c>
       <c r="E116">
         <v>0.4188442469014954</v>
@@ -17767,7 +17767,7 @@
         <v>0.8726125337508637</v>
       </c>
       <c r="D117">
-        <v>0.3733217024972271</v>
+        <v>0.5533193649799277</v>
       </c>
       <c r="E117">
         <v>0.3458298924527463</v>
@@ -17793,7 +17793,7 @@
         <v>0.8964169494599898</v>
       </c>
       <c r="D118">
-        <v>0.2233494036464001</v>
+        <v>0.4586434963784792</v>
       </c>
       <c r="E118">
         <v>0.3118484058530586</v>
@@ -17819,7 +17819,7 @@
         <v>0.925696947897651</v>
       </c>
       <c r="D119">
-        <v>0.444128284079619</v>
+        <v>0.6073069359051541</v>
       </c>
       <c r="E119">
         <v>0.2641207407016112</v>
@@ -17845,7 +17845,7 @@
         <v>0.9259801404384038</v>
       </c>
       <c r="D120">
-        <v>0.4148130508871218</v>
+        <v>0.6058434319342911</v>
       </c>
       <c r="E120">
         <v>0.2636169361710389</v>
@@ -17871,7 +17871,7 @@
         <v>0.9309704458944787</v>
       </c>
       <c r="D121">
-        <v>0.4364590777961559</v>
+        <v>0.6320528503349085</v>
       </c>
       <c r="E121">
         <v>0.2545755635846629</v>
@@ -17897,7 +17897,7 @@
         <v>0.9305546045575028</v>
       </c>
       <c r="D122">
-        <v>0.5010286834745994</v>
+        <v>0.6287555722292424</v>
       </c>
       <c r="E122">
         <v>0.2553412073003771</v>
@@ -17923,7 +17923,7 @@
         <v>0.925369448084458</v>
       </c>
       <c r="D123">
-        <v>0.4620621649660753</v>
+        <v>0.6231464875210719</v>
       </c>
       <c r="E123">
         <v>0.2647021729980813</v>
@@ -17949,7 +17949,7 @@
         <v>0.9309355653614204</v>
       </c>
       <c r="D124">
-        <v>0.4514556174537508</v>
+        <v>0.6417126977862254</v>
       </c>
       <c r="E124">
         <v>0.254639873792305</v>
@@ -17975,7 +17975,7 @@
         <v>0.9334030390618372</v>
       </c>
       <c r="D125">
-        <v>0.4787004982791903</v>
+        <v>0.6421057926397116</v>
       </c>
       <c r="E125">
         <v>0.2500497274098845</v>
@@ -18001,7 +18001,7 @@
         <v>0.9358200678396891</v>
       </c>
       <c r="D126">
-        <v>0.479691884412295</v>
+        <v>0.6361272960326922</v>
       </c>
       <c r="E126">
         <v>0.2454702170945889</v>
@@ -18027,7 +18027,7 @@
         <v>0.9361490455398813</v>
       </c>
       <c r="D127">
-        <v>0.4256689251753033</v>
+        <v>0.6094938484562729</v>
       </c>
       <c r="E127">
         <v>0.2448402851620845</v>
@@ -18053,7 +18053,7 @@
         <v>0.9389776495213876</v>
       </c>
       <c r="D128">
-        <v>0.4657163309550972</v>
+        <v>0.6264028839770471</v>
       </c>
       <c r="E128">
         <v>0.2393556292400103</v>
@@ -18079,7 +18079,7 @@
         <v>0.9387016557556788</v>
       </c>
       <c r="D129">
-        <v>0.5033865558596224</v>
+        <v>0.6402784690612608</v>
       </c>
       <c r="E129">
         <v>0.2398963010928863</v>
@@ -18105,7 +18105,7 @@
         <v>0.9397690320990875</v>
       </c>
       <c r="D130">
-        <v>0.5484928914841054</v>
+        <v>0.6645007842990973</v>
       </c>
       <c r="E130">
         <v>0.2377984946107639</v>
@@ -18131,7 +18131,7 @@
         <v>0.9379466846092173</v>
       </c>
       <c r="D131">
-        <v>0.53535864079526</v>
+        <v>0.6474797786673576</v>
       </c>
       <c r="E131">
         <v>0.2413691020955326</v>
@@ -18157,7 +18157,7 @@
         <v>0.9370664690669187</v>
       </c>
       <c r="D132">
-        <v>0.488648954300455</v>
+        <v>0.6397111712902896</v>
       </c>
       <c r="E132">
         <v>0.2430749635352423</v>
@@ -18183,7 +18183,7 @@
         <v>0.9377147453519108</v>
       </c>
       <c r="D133">
-        <v>0.4667383160995268</v>
+        <v>0.6302916356369647</v>
       </c>
       <c r="E133">
         <v>0.2418197690340594</v>
@@ -18209,7 +18209,7 @@
         <v>0.9385579692183261</v>
       </c>
       <c r="D134">
-        <v>0.4814761522905249</v>
+        <v>0.6365899565660356</v>
       </c>
       <c r="E134">
         <v>0.2401773012821812</v>
@@ -18235,7 +18235,7 @@
         <v>0.8193431813102361</v>
       </c>
       <c r="D135">
-        <v>0.5901699942891505</v>
+        <v>0.5998359432928866</v>
       </c>
       <c r="E135">
         <v>0.4118379457205952</v>
@@ -18261,7 +18261,7 @@
         <v>0.8949555842693092</v>
       </c>
       <c r="D136">
-        <v>0.3608254225789141</v>
+        <v>0.6019664385550563</v>
       </c>
       <c r="E136">
         <v>0.3140405033298735</v>
@@ -18287,7 +18287,7 @@
         <v>0.9083951425234711</v>
       </c>
       <c r="D137">
-        <v>0.1667041223190017</v>
+        <v>0.5219335017273188</v>
       </c>
       <c r="E137">
         <v>0.2932637823296486</v>
@@ -18313,7 +18313,7 @@
         <v>0.9317323310191892</v>
       </c>
       <c r="D138">
-        <v>0.2936534007011578</v>
+        <v>0.5711881001863219</v>
       </c>
       <c r="E138">
         <v>0.2531667793876075</v>
@@ -18339,7 +18339,7 @@
         <v>0.9330863057711961</v>
       </c>
       <c r="D139">
-        <v>0.2988378660494023</v>
+        <v>0.5832054774328015</v>
       </c>
       <c r="E139">
         <v>0.2506436368615375</v>
@@ -18365,7 +18365,7 @@
         <v>0.9355145536751536</v>
       </c>
       <c r="D140">
-        <v>0.2978661294255008</v>
+        <v>0.5957614066369238</v>
       </c>
       <c r="E140">
         <v>0.2460537763847946</v>
@@ -18391,7 +18391,7 @@
         <v>0.9394307081355605</v>
       </c>
       <c r="D141">
-        <v>0.3755345004070919</v>
+        <v>0.5861495648384187</v>
       </c>
       <c r="E141">
         <v>0.238465429494744</v>
@@ -18417,7 +18417,7 @@
         <v>0.9348107806927428</v>
       </c>
       <c r="D142">
-        <v>0.4337384124800263</v>
+        <v>0.6214758784457571</v>
       </c>
       <c r="E142">
         <v>0.247392807913638</v>
@@ -18443,7 +18443,7 @@
         <v>0.9353311051579468</v>
       </c>
       <c r="D143">
-        <v>0.4156755883416303</v>
+        <v>0.6318458153818725</v>
       </c>
       <c r="E143">
         <v>0.2464035153277576</v>
@@ -18469,7 +18469,7 @@
         <v>0.9365883835058797</v>
       </c>
       <c r="D144">
-        <v>0.459686851539335</v>
+        <v>0.6496450593523642</v>
       </c>
       <c r="E144">
         <v>0.2439964974088057</v>
@@ -18495,7 +18495,7 @@
         <v>0.9411514887005672</v>
       </c>
       <c r="D145">
-        <v>0.4872599146795304</v>
+        <v>0.6734437545855674</v>
       </c>
       <c r="E145">
         <v>0.2350536071540484</v>
@@ -18521,7 +18521,7 @@
         <v>0.9415983280548381</v>
       </c>
       <c r="D146">
-        <v>0.4331077562093179</v>
+        <v>0.6595607238019424</v>
       </c>
       <c r="E146">
         <v>0.234159520482115</v>
@@ -18547,7 +18547,7 @@
         <v>0.9445206781295924</v>
       </c>
       <c r="D147">
-        <v>0.4683466171010405</v>
+        <v>0.6733493379578592</v>
       </c>
       <c r="E147">
         <v>0.2282258072345593</v>
@@ -18573,7 +18573,7 @@
         <v>0.9441108172481647</v>
       </c>
       <c r="D148">
-        <v>0.4838109874166712</v>
+        <v>0.6692447308128979</v>
       </c>
       <c r="E148">
         <v>0.2290672802487423</v>
@@ -18599,7 +18599,7 @@
         <v>0.9432768126737001</v>
       </c>
       <c r="D149">
-        <v>0.5412445462926698</v>
+        <v>0.6856169857182544</v>
       </c>
       <c r="E149">
         <v>0.2307700759413372</v>
@@ -18625,7 +18625,7 @@
         <v>0.9414693953173073</v>
       </c>
       <c r="D150">
-        <v>0.5439665646538601</v>
+        <v>0.6832769344763044</v>
       </c>
       <c r="E150">
         <v>0.2344178536973021</v>
@@ -18651,7 +18651,7 @@
         <v>0.9397585901399064</v>
       </c>
       <c r="D151">
-        <v>0.5015460739277136</v>
+        <v>0.6783599639951641</v>
       </c>
       <c r="E151">
         <v>0.2378191067198654</v>
@@ -18677,7 +18677,7 @@
         <v>0.9404027583065531</v>
       </c>
       <c r="D152">
-        <v>0.5107056428314536</v>
+        <v>0.6832451162977405</v>
       </c>
       <c r="E152">
         <v>0.2365441760962539</v>
@@ -18703,7 +18703,7 @@
         <v>0.9407327124832472</v>
       </c>
       <c r="D153">
-        <v>0.5334730126796198</v>
+        <v>0.6871005207450842</v>
       </c>
       <c r="E153">
         <v>0.2358884656640536</v>
@@ -18729,7 +18729,7 @@
         <v>0.8155642901898115</v>
       </c>
       <c r="D154">
-        <v>0.7242623507733132</v>
+        <v>0.7445116274608955</v>
       </c>
       <c r="E154">
         <v>0.4161229662251478</v>
@@ -18755,7 +18755,7 @@
         <v>0.9008905088653885</v>
       </c>
       <c r="D155">
-        <v>0.4435221551704693</v>
+        <v>0.6323215742677277</v>
       </c>
       <c r="E155">
         <v>0.3050400075428641</v>
@@ -18781,7 +18781,7 @@
         <v>0.9121723678017551</v>
       </c>
       <c r="D156">
-        <v>0.1758257657236305</v>
+        <v>0.4741527269437857</v>
       </c>
       <c r="E156">
         <v>0.2871539317600735</v>
@@ -18807,7 +18807,7 @@
         <v>0.9325732473123703</v>
       </c>
       <c r="D157">
-        <v>0.3221006258040103</v>
+        <v>0.5256531493361851</v>
       </c>
       <c r="E157">
         <v>0.2516027027216735</v>
@@ -18833,7 +18833,7 @@
         <v>0.9291977956088511</v>
       </c>
       <c r="D158">
-        <v>0.2987166457221578</v>
+        <v>0.5367759518508439</v>
       </c>
       <c r="E158">
         <v>0.2578235414593028</v>
@@ -18859,7 +18859,7 @@
         <v>0.9314810146884196</v>
       </c>
       <c r="D159">
-        <v>0.2953481764456944</v>
+        <v>0.5454864781562858</v>
       </c>
       <c r="E159">
         <v>0.2536323474839517</v>
@@ -18885,7 +18885,7 @@
         <v>0.9355604770371355</v>
       </c>
       <c r="D160">
-        <v>0.3700290019490344</v>
+        <v>0.5402516841345006</v>
       </c>
       <c r="E160">
         <v>0.2459661470842436</v>
@@ -18911,7 +18911,7 @@
         <v>0.9311705795367553</v>
       </c>
       <c r="D161">
-        <v>0.3469560100696588</v>
+        <v>0.5401365547054362</v>
       </c>
       <c r="E161">
         <v>0.2542062571507674</v>
@@ -18937,7 +18937,7 @@
         <v>0.9347955213199768</v>
       </c>
       <c r="D162">
-        <v>0.3659447013291569</v>
+        <v>0.573569806385493</v>
       </c>
       <c r="E162">
         <v>0.2474217608465525</v>
@@ -18963,7 +18963,7 @@
         <v>0.9353269966160913</v>
       </c>
       <c r="D163">
-        <v>0.406741410791869</v>
+        <v>0.5909625990032887</v>
       </c>
       <c r="E163">
         <v>0.2464113424529911</v>
@@ -18989,7 +18989,7 @@
         <v>0.9356135706316248</v>
       </c>
       <c r="D164">
-        <v>0.4554191473568462</v>
+        <v>0.5940618437353316</v>
       </c>
       <c r="E164">
         <v>0.2458647968775022</v>
@@ -19015,7 +19015,7 @@
         <v>0.9368339444193341</v>
       </c>
       <c r="D165">
-        <v>0.4287315721145279</v>
+        <v>0.5844738484819376</v>
       </c>
       <c r="E165">
         <v>0.2435236020251917</v>
@@ -19041,7 +19041,7 @@
         <v>0.9402221409396019</v>
       </c>
       <c r="D166">
-        <v>0.4757403879606689</v>
+        <v>0.6123376581066029</v>
       </c>
       <c r="E166">
         <v>0.2369023442246676</v>
@@ -19067,7 +19067,7 @@
         <v>0.9413589433117496</v>
       </c>
       <c r="D167">
-        <v>0.4923517931404146</v>
+        <v>0.61752628647926</v>
       </c>
       <c r="E167">
         <v>0.2346389322141864</v>
@@ -19093,7 +19093,7 @@
         <v>0.9402718181406508</v>
       </c>
       <c r="D168">
-        <v>0.5329762153463106</v>
+        <v>0.6392999198547908</v>
       </c>
       <c r="E168">
         <v>0.2368038872741414</v>
@@ -19119,7 +19119,7 @@
         <v>0.9379260677961535</v>
       </c>
       <c r="D169">
-        <v>0.5333316444113996</v>
+        <v>0.6377935125625314</v>
       </c>
       <c r="E169">
         <v>0.2414091954278701</v>
@@ -19145,7 +19145,7 @@
         <v>0.9365165516035576</v>
       </c>
       <c r="D170">
-        <v>0.4885949973807678</v>
+        <v>0.6319407035070663</v>
       </c>
       <c r="E170">
         <v>0.2441346564152295</v>
@@ -19171,7 +19171,7 @@
         <v>0.9378553134346175</v>
       </c>
       <c r="D171">
-        <v>0.4663669069652628</v>
+        <v>0.6255768922045415</v>
       </c>
       <c r="E171">
         <v>0.2415467401936432</v>
@@ -19197,7 +19197,7 @@
         <v>0.9380554372277286</v>
       </c>
       <c r="D172">
-        <v>0.4676366908163737</v>
+        <v>0.6284497738477703</v>
       </c>
       <c r="E172">
         <v>0.2411575015322217</v>
@@ -19223,7 +19223,7 @@
         <v>0.7966723060929202</v>
       </c>
       <c r="D173">
-        <v>0.6148088212081715</v>
+        <v>0.6920650665336956</v>
       </c>
       <c r="E173">
         <v>0.4369154953296162</v>
@@ -19249,7 +19249,7 @@
         <v>0.8732849389693794</v>
       </c>
       <c r="D174">
-        <v>0.2971736938715374</v>
+        <v>0.568776420788621</v>
       </c>
       <c r="E174">
         <v>0.3449159662157812</v>
@@ -19275,7 +19275,7 @@
         <v>0.8909942568143381</v>
       </c>
       <c r="D175">
-        <v>0.08859497191660093</v>
+        <v>0.4277017750064028</v>
       </c>
       <c r="E175">
         <v>0.3199070934140107</v>
@@ -19301,7 +19301,7 @@
         <v>0.9184846431530054</v>
       </c>
       <c r="D176">
-        <v>0.2378667700943029</v>
+        <v>0.4837435630309812</v>
       </c>
       <c r="E176">
         <v>0.2766424976132981</v>
@@ -19327,7 +19327,7 @@
         <v>0.9195529933195934</v>
       </c>
       <c r="D177">
-        <v>0.2477712157796631</v>
+        <v>0.5184678858612385</v>
       </c>
       <c r="E177">
         <v>0.2748236634069277</v>
@@ -19353,7 +19353,7 @@
         <v>0.9266793079746533</v>
       </c>
       <c r="D178">
-        <v>0.2759990336787378</v>
+        <v>0.5488500424402423</v>
       </c>
       <c r="E178">
         <v>0.2623689622393526</v>
@@ -19379,7 +19379,7 @@
         <v>0.9315704165944634</v>
       </c>
       <c r="D179">
-        <v>0.3948643893496936</v>
+        <v>0.5660273222095364</v>
       </c>
       <c r="E179">
         <v>0.2534668268144393</v>
@@ -19405,7 +19405,7 @@
         <v>0.9258512434805319</v>
       </c>
       <c r="D180">
-        <v>0.3970603400167453</v>
+        <v>0.5825027564204837</v>
       </c>
       <c r="E180">
         <v>0.2638463654173436</v>
@@ -19431,7 +19431,7 @@
         <v>0.9299940010353771</v>
       </c>
       <c r="D181">
-        <v>0.4411784531348428</v>
+        <v>0.6373208979316534</v>
       </c>
       <c r="E181">
         <v>0.256369766873659</v>
@@ -19457,7 +19457,7 @@
         <v>0.9314758896407247</v>
       </c>
       <c r="D182">
-        <v>0.4425453814861099</v>
+        <v>0.6392972970726485</v>
       </c>
       <c r="E182">
         <v>0.2536418328372879</v>
@@ -19483,7 +19483,7 @@
         <v>0.9363708645673715</v>
       </c>
       <c r="D183">
-        <v>0.4729228338221738</v>
+        <v>0.6470204017064212</v>
       </c>
       <c r="E183">
         <v>0.2444146260225621</v>
@@ -19509,7 +19509,7 @@
         <v>0.9369068541880726</v>
       </c>
       <c r="D184">
-        <v>0.4077643764865018</v>
+        <v>0.6258150781745749</v>
       </c>
       <c r="E184">
         <v>0.2433830172140497</v>
@@ -19535,7 +19535,7 @@
         <v>0.9393592043726344</v>
       </c>
       <c r="D185">
-        <v>0.4527643436787864</v>
+        <v>0.6498377359721346</v>
       </c>
       <c r="E185">
         <v>0.2386061455707568</v>
@@ -19561,7 +19561,7 @@
         <v>0.9389140606875992</v>
       </c>
       <c r="D186">
-        <v>0.4859474271660806</v>
+        <v>0.649328057066126</v>
       </c>
       <c r="E186">
         <v>0.2394803080023682</v>
@@ -19587,7 +19587,7 @@
         <v>0.9383494032590205</v>
       </c>
       <c r="D187">
-        <v>0.5370495545333671</v>
+        <v>0.6656706131598725</v>
       </c>
       <c r="E187">
         <v>0.2405845987819179</v>
@@ -19613,7 +19613,7 @@
         <v>0.9356725932600639</v>
       </c>
       <c r="D188">
-        <v>0.5066082364158271</v>
+        <v>0.6487905239759598</v>
       </c>
       <c r="E188">
         <v>0.2457520796955618</v>
@@ -19639,7 +19639,7 @@
         <v>0.9348053532687199</v>
       </c>
       <c r="D189">
-        <v>0.4427030887901922</v>
+        <v>0.6302472640624202</v>
       </c>
       <c r="E189">
         <v>0.2474031062247463</v>
@@ -19665,7 +19665,7 @@
         <v>0.9357542299799249</v>
       </c>
       <c r="D190">
-        <v>0.4745547134617593</v>
+        <v>0.6421083743912306</v>
       </c>
       <c r="E190">
         <v>0.2455960904839052</v>
@@ -19691,7 +19691,7 @@
         <v>0.9367055292368645</v>
       </c>
       <c r="D191">
-        <v>0.4900582299082269</v>
+        <v>0.6533162014813696</v>
       </c>
       <c r="E191">
         <v>0.2437710153689035</v>
@@ -19717,7 +19717,7 @@
         <v>0.8069616314334035</v>
       </c>
       <c r="D192">
-        <v>0.6107442117196651</v>
+        <v>0.733194382820747</v>
       </c>
       <c r="E192">
         <v>0.4257170059562121</v>
@@ -19743,7 +19743,7 @@
         <v>0.8360100302179592</v>
       </c>
       <c r="D193">
-        <v>0.09831449464530395</v>
+        <v>0.6041187750462589</v>
       </c>
       <c r="E193">
         <v>0.3923808672785866</v>
@@ -19769,7 +19769,7 @@
         <v>0.8645998021992185</v>
       </c>
       <c r="D194">
-        <v>-0.05824273884730169</v>
+        <v>0.581948292015777</v>
       </c>
       <c r="E194">
         <v>0.356540467208515</v>
@@ -19795,7 +19795,7 @@
         <v>0.8934166163571742</v>
       </c>
       <c r="D195">
-        <v>0.3469617047575712</v>
+        <v>0.6735700480660727</v>
       </c>
       <c r="E195">
         <v>0.3163325859057778</v>
@@ -19821,7 +19821,7 @@
         <v>0.9054869155919518</v>
       </c>
       <c r="D196">
-        <v>0.3120998520138958</v>
+        <v>0.656266761057093</v>
       </c>
       <c r="E196">
         <v>0.297882608408411</v>
@@ -19847,7 +19847,7 @@
         <v>0.916055414556358</v>
       </c>
       <c r="D197">
-        <v>0.3508431451600954</v>
+        <v>0.6709504016466152</v>
       </c>
       <c r="E197">
         <v>0.2807343299982593</v>
@@ -19873,7 +19873,7 @@
         <v>0.920821446656455</v>
       </c>
       <c r="D198">
-        <v>0.5244144943645587</v>
+        <v>0.7005863347800747</v>
       </c>
       <c r="E198">
         <v>0.2726484048367417</v>
@@ -19899,7 +19899,7 @@
         <v>0.9223428603517181</v>
       </c>
       <c r="D199">
-        <v>0.5544184903859189</v>
+        <v>0.7130144260276635</v>
       </c>
       <c r="E199">
         <v>0.270016233482227</v>
@@ -19925,7 +19925,7 @@
         <v>0.9224333926628234</v>
       </c>
       <c r="D200">
-        <v>0.5585747788754162</v>
+        <v>0.7214078869726326</v>
       </c>
       <c r="E200">
         <v>0.269858795785955</v>
@@ -19951,7 +19951,7 @@
         <v>0.9270070036785565</v>
       </c>
       <c r="D201">
-        <v>0.5116162408610752</v>
+        <v>0.6996962477036677</v>
       </c>
       <c r="E201">
         <v>0.2617819965400848</v>
@@ -19977,7 +19977,7 @@
         <v>0.9329146252673707</v>
       </c>
       <c r="D202">
-        <v>0.5551860059981156</v>
+        <v>0.722537381396448</v>
       </c>
       <c r="E202">
         <v>0.2509649691447004</v>
@@ -20003,7 +20003,7 @@
         <v>0.9339959590319988</v>
       </c>
       <c r="D203">
-        <v>0.519261222475094</v>
+        <v>0.7060623927549572</v>
       </c>
       <c r="E203">
         <v>0.2489341288556893</v>
@@ -20029,7 +20029,7 @@
         <v>0.9383406262044696</v>
       </c>
       <c r="D204">
-        <v>0.5433179197750878</v>
+        <v>0.7208001304162857</v>
       </c>
       <c r="E204">
         <v>0.2406017239121504</v>
@@ -20055,7 +20055,7 @@
         <v>0.9385642253367453</v>
       </c>
       <c r="D205">
-        <v>0.5796778592534793</v>
+        <v>0.7196705335414364</v>
       </c>
       <c r="E205">
         <v>0.2401650733669419</v>
@@ -20081,7 +20081,7 @@
         <v>0.9380410768227357</v>
       </c>
       <c r="D206">
-        <v>0.6133585454808008</v>
+        <v>0.731404691404421</v>
       </c>
       <c r="E206">
         <v>0.2411854532889736</v>
@@ -20107,7 +20107,7 @@
         <v>0.9359019873754589</v>
       </c>
       <c r="D207">
-        <v>0.5883449550576789</v>
+        <v>0.7136774580772234</v>
       </c>
       <c r="E207">
         <v>0.2453135074628371</v>
@@ -20133,7 +20133,7 @@
         <v>0.9354447242887809</v>
       </c>
       <c r="D208">
-        <v>0.531454870667778</v>
+        <v>0.6966918469604588</v>
       </c>
       <c r="E208">
         <v>0.2461869625244866</v>
@@ -20159,7 +20159,7 @@
         <v>0.9361913599680295</v>
       </c>
       <c r="D209">
-        <v>0.5440497865277732</v>
+        <v>0.6979840384642901</v>
       </c>
       <c r="E209">
         <v>0.2447591431199179</v>
@@ -20185,7 +20185,7 @@
         <v>0.9380901184813065</v>
       </c>
       <c r="D210">
-        <v>0.5678062571716882</v>
+        <v>0.7118073492907174</v>
       </c>
       <c r="E210">
         <v>0.2410899829715394</v>
@@ -20211,7 +20211,7 @@
         <v>0.8127176477107392</v>
       </c>
       <c r="D211">
-        <v>0.5220617742450707</v>
+        <v>0.6000328606996744</v>
       </c>
       <c r="E211">
         <v>0.4193219604750381</v>
@@ -20237,7 +20237,7 @@
         <v>0.8570463187674708</v>
       </c>
       <c r="D212">
-        <v>0.2153693299016433</v>
+        <v>0.6110631678902418</v>
       </c>
       <c r="E212">
         <v>0.3663505531177487</v>
@@ -20263,7 +20263,7 @@
         <v>0.8698297095287825</v>
       </c>
       <c r="D213">
-        <v>-0.1818034879001627</v>
+        <v>0.5583702189040909</v>
       </c>
       <c r="E213">
         <v>0.3495868732710432</v>
@@ -20289,7 +20289,7 @@
         <v>0.8929799955920664</v>
       </c>
       <c r="D214">
-        <v>0.3451636169711708</v>
+        <v>0.6785835139408594</v>
       </c>
       <c r="E214">
         <v>0.3169798547851929</v>
@@ -20315,7 +20315,7 @@
         <v>0.9091963548389805</v>
       </c>
       <c r="D215">
-        <v>0.3401666553019744</v>
+        <v>0.6804959451662298</v>
       </c>
       <c r="E215">
         <v>0.2919784651674598</v>
@@ -20341,7 +20341,7 @@
         <v>0.9204978704038785</v>
       </c>
       <c r="D216">
-        <v>0.3333310575887209</v>
+        <v>0.6642631356265607</v>
       </c>
       <c r="E216">
         <v>0.2732049482129581</v>
@@ -20367,7 +20367,7 @@
         <v>0.9255147945619927</v>
       </c>
       <c r="D217">
-        <v>0.3707620420970004</v>
+        <v>0.6639888353300226</v>
       </c>
       <c r="E217">
         <v>0.2644442874675336</v>
@@ -20393,7 +20393,7 @@
         <v>0.922068770729735</v>
       </c>
       <c r="D218">
-        <v>0.411270227462835</v>
+        <v>0.6812797153517485</v>
       </c>
       <c r="E218">
         <v>0.2704923227356234</v>
@@ -20419,7 +20419,7 @@
         <v>0.9261792193126227</v>
       </c>
       <c r="D219">
-        <v>0.5254763645791369</v>
+        <v>0.7170031368129537</v>
       </c>
       <c r="E219">
         <v>0.2632621942289667</v>
@@ -20445,7 +20445,7 @@
         <v>0.9315287841656593</v>
       </c>
       <c r="D220">
-        <v>0.5110380981362228</v>
+        <v>0.7047340426046595</v>
       </c>
       <c r="E220">
         <v>0.2535439194589029</v>
@@ -20471,7 +20471,7 @@
         <v>0.9376126450413832</v>
       </c>
       <c r="D221">
-        <v>0.5284983783455929</v>
+        <v>0.7081286732023362</v>
       </c>
       <c r="E221">
         <v>0.2420178878648636</v>
@@ -20497,7 +20497,7 @@
         <v>0.9398691823067183</v>
       </c>
       <c r="D222">
-        <v>0.4551533642427742</v>
+        <v>0.684755973914206</v>
       </c>
       <c r="E222">
         <v>0.2376007103344312</v>
@@ -20523,7 +20523,7 @@
         <v>0.9439613326866104</v>
       </c>
       <c r="D223">
-        <v>0.4944794177444244</v>
+        <v>0.6977524677723719</v>
       </c>
       <c r="E223">
         <v>0.2293734142302837</v>
@@ -20549,7 +20549,7 @@
         <v>0.9437561136093783</v>
       </c>
       <c r="D224">
-        <v>0.5048550667140994</v>
+        <v>0.6876380783750222</v>
       </c>
       <c r="E224">
         <v>0.2297930243496051</v>
@@ -20575,7 +20575,7 @@
         <v>0.9431435272887633</v>
       </c>
       <c r="D225">
-        <v>0.5423860587125293</v>
+        <v>0.6944569351001492</v>
       </c>
       <c r="E225">
         <v>0.2310410430050152</v>
@@ -20601,7 +20601,7 @@
         <v>0.940796199014854</v>
       </c>
       <c r="D226">
-        <v>0.5431837654491766</v>
+        <v>0.6873048706986471</v>
       </c>
       <c r="E226">
         <v>0.2357620911177029</v>
@@ -20627,7 +20627,7 @@
         <v>0.9403416328925749</v>
       </c>
       <c r="D227">
-        <v>0.4860347642979292</v>
+        <v>0.6696424087659811</v>
       </c>
       <c r="E227">
         <v>0.2366654497892539</v>
@@ -20653,7 +20653,7 @@
         <v>0.9396383088107786</v>
       </c>
       <c r="D228">
-        <v>0.5039797962101833</v>
+        <v>0.6737541670036769</v>
       </c>
       <c r="E228">
         <v>0.2380564097135342</v>
@@ -20679,7 +20679,7 @@
         <v>0.9412343028249341</v>
       </c>
       <c r="D229">
-        <v>0.5269638611813534</v>
+        <v>0.6872943152052799</v>
       </c>
       <c r="E229">
         <v>0.2348881602182706</v>
@@ -20705,7 +20705,7 @@
         <v>0.8569696768027961</v>
       </c>
       <c r="D230">
-        <v>0.2939439622222243</v>
+        <v>0.4166177734896013</v>
       </c>
       <c r="E230">
         <v>0.3664487459854162</v>
@@ -20731,7 +20731,7 @@
         <v>0.8906009769963409</v>
       </c>
       <c r="D231">
-        <v>0.03213330639717282</v>
+        <v>0.4441996395606639</v>
       </c>
       <c r="E231">
         <v>0.3204836672918841</v>
@@ -20757,7 +20757,7 @@
         <v>0.8909029679712495</v>
       </c>
       <c r="D232">
-        <v>-0.3279658806371941</v>
+        <v>0.4637403135507733</v>
       </c>
       <c r="E232">
         <v>0.3200410213879631</v>
@@ -20783,7 +20783,7 @@
         <v>0.9195461060709621</v>
       </c>
       <c r="D233">
-        <v>0.2785476560404093</v>
+        <v>0.6305539266697178</v>
       </c>
       <c r="E233">
         <v>0.2748354272901858</v>
@@ -20809,7 +20809,7 @@
         <v>0.9231086870472509</v>
       </c>
       <c r="D234">
-        <v>0.2184831671500606</v>
+        <v>0.6160269524382072</v>
       </c>
       <c r="E234">
         <v>0.2686815334050606</v>
@@ -20835,7 +20835,7 @@
         <v>0.9313140925219745</v>
       </c>
       <c r="D235">
-        <v>0.2117420486230741</v>
+        <v>0.5835914401841689</v>
       </c>
       <c r="E235">
         <v>0.2539411021116629</v>
@@ -20861,7 +20861,7 @@
         <v>0.9349712530948761</v>
       </c>
       <c r="D236">
-        <v>0.3255323995886982</v>
+        <v>0.6013114099711576</v>
       </c>
       <c r="E236">
         <v>0.2470881242535082</v>
@@ -20887,7 +20887,7 @@
         <v>0.9313848971140469</v>
       </c>
       <c r="D237">
-        <v>0.3121917910595651</v>
+        <v>0.5955082239352367</v>
       </c>
       <c r="E237">
         <v>0.2538101812801641</v>
@@ -20913,7 +20913,7 @@
         <v>0.9357324475080948</v>
       </c>
       <c r="D238">
-        <v>0.3613629846054074</v>
+        <v>0.6116310012790038</v>
       </c>
       <c r="E238">
         <v>0.2456377215247177</v>
@@ -20939,7 +20939,7 @@
         <v>0.9364935382174455</v>
       </c>
       <c r="D239">
-        <v>0.3475857487873367</v>
+        <v>0.627729996544686</v>
       </c>
       <c r="E239">
         <v>0.2441789030351533</v>
@@ -20965,7 +20965,7 @@
         <v>0.9392762162053672</v>
       </c>
       <c r="D240">
-        <v>0.3609625186524421</v>
+        <v>0.6482686345857998</v>
       </c>
       <c r="E240">
         <v>0.238769358441414</v>
@@ -20991,7 +20991,7 @@
         <v>0.9378982727878606</v>
       </c>
       <c r="D241">
-        <v>0.2204586881638084</v>
+        <v>0.6105584257296001</v>
       </c>
       <c r="E241">
         <v>0.2414632375948758</v>
@@ -21017,7 +21017,7 @@
         <v>0.9424433008826136</v>
       </c>
       <c r="D242">
-        <v>0.3195962717802001</v>
+        <v>0.6399261987209184</v>
       </c>
       <c r="E242">
         <v>0.2324594036975515</v>
@@ -21043,7 +21043,7 @@
         <v>0.9440204725144646</v>
       </c>
       <c r="D243">
-        <v>0.3454164857756977</v>
+        <v>0.6393521769316335</v>
       </c>
       <c r="E243">
         <v>0.2292523488506067</v>
@@ -21069,7 +21069,7 @@
         <v>0.9443864672510607</v>
       </c>
       <c r="D244">
-        <v>0.4175940341709728</v>
+        <v>0.6671039842497365</v>
       </c>
       <c r="E244">
         <v>0.2285016927611311</v>
@@ -21095,7 +21095,7 @@
         <v>0.9439282945192335</v>
       </c>
       <c r="D245">
-        <v>0.3903353243444854</v>
+        <v>0.6582791589059185</v>
       </c>
       <c r="E245">
         <v>0.2294410189843791</v>
@@ -21121,7 +21121,7 @@
         <v>0.9416478175042345</v>
       </c>
       <c r="D246">
-        <v>0.3119809607231945</v>
+        <v>0.6341576778533506</v>
       </c>
       <c r="E246">
         <v>0.2340602863215513</v>
@@ -21147,7 +21147,7 @@
         <v>0.9425417602518963</v>
       </c>
       <c r="D247">
-        <v>0.3161016693210821</v>
+        <v>0.6368555237970857</v>
       </c>
       <c r="E247">
         <v>0.2322604902499361</v>
@@ -21173,7 +21173,7 @@
         <v>0.9419812335952996</v>
       </c>
       <c r="D248">
-        <v>0.343035063733526</v>
+        <v>0.6475967153587698</v>
       </c>
       <c r="E248">
         <v>0.2333906347453162</v>
@@ -21199,7 +21199,7 @@
         <v>0.8126605715977318</v>
       </c>
       <c r="D249">
-        <v>0.05869866199322049</v>
+        <v>0.260489048289007</v>
       </c>
       <c r="E249">
         <v>0.4193858518244205</v>
@@ -21225,7 +21225,7 @@
         <v>0.8609467756353802</v>
       </c>
       <c r="D250">
-        <v>-0.2335488465178819</v>
+        <v>0.3368249668887752</v>
       </c>
       <c r="E250">
         <v>0.3613180949222166</v>
@@ -21251,7 +21251,7 @@
         <v>0.8763098381717633</v>
       </c>
       <c r="D251">
-        <v>-1.122457903999071</v>
+        <v>0.3170375485948083</v>
       </c>
       <c r="E251">
         <v>0.3407742406361034</v>
@@ -21277,7 +21277,7 @@
         <v>0.9108658477410077</v>
       </c>
       <c r="D252">
-        <v>-0.1868078914230913</v>
+        <v>0.5402411521832184</v>
       </c>
       <c r="E252">
         <v>0.2892818918533044</v>
@@ -21303,7 +21303,7 @@
         <v>0.9124547908264102</v>
       </c>
       <c r="D253">
-        <v>-0.1778070581390259</v>
+        <v>0.5429128898225376</v>
       </c>
       <c r="E253">
         <v>0.2866918665683947</v>
@@ -21329,7 +21329,7 @@
         <v>0.9245794729096767</v>
       </c>
       <c r="D254">
-        <v>-0.1614820900822254</v>
+        <v>0.511003387108572</v>
       </c>
       <c r="E254">
         <v>0.2660994405346866</v>
@@ -21355,7 +21355,7 @@
         <v>0.9299013154288187</v>
       </c>
       <c r="D255">
-        <v>0.1018102023058752</v>
+        <v>0.5734224589441566</v>
       </c>
       <c r="E255">
         <v>0.2565394232455842</v>
@@ -21381,7 +21381,7 @@
         <v>0.9314612519568368</v>
       </c>
       <c r="D256">
-        <v>0.1269862027448725</v>
+        <v>0.572054204726712</v>
       </c>
       <c r="E256">
         <v>0.2536689220668973</v>
@@ -21407,7 +21407,7 @@
         <v>0.9368918928614343</v>
       </c>
       <c r="D257">
-        <v>0.2350269130634104</v>
+        <v>0.6034677844930244</v>
       </c>
       <c r="E257">
         <v>0.2434118723054347</v>
@@ -21433,7 +21433,7 @@
         <v>0.9384167410639596</v>
       </c>
       <c r="D258">
-        <v>0.2597658889570618</v>
+        <v>0.6301213864188582</v>
       </c>
       <c r="E258">
         <v>0.2404531737366896</v>
@@ -21459,7 +21459,7 @@
         <v>0.9415441369729712</v>
       </c>
       <c r="D259">
-        <v>0.2538884344854001</v>
+        <v>0.6324335754166019</v>
       </c>
       <c r="E259">
         <v>0.2342681339435425</v>
@@ -21485,7 +21485,7 @@
         <v>0.9415757768293079</v>
       </c>
       <c r="D260">
-        <v>0.1009250275945921</v>
+        <v>0.5939698108974037</v>
       </c>
       <c r="E260">
         <v>0.2342047253051764</v>
@@ -21511,7 +21511,7 @@
         <v>0.9438795583389415</v>
       </c>
       <c r="D261">
-        <v>0.1991474581129513</v>
+        <v>0.6172321605545776</v>
       </c>
       <c r="E261">
         <v>0.2295407096396614</v>
@@ -21537,7 +21537,7 @@
         <v>0.9443150069298946</v>
       </c>
       <c r="D262">
-        <v>0.2290106182084067</v>
+        <v>0.6115663072581637</v>
       </c>
       <c r="E262">
         <v>0.2286484516659245</v>
@@ -21563,7 +21563,7 @@
         <v>0.9446560617701301</v>
       </c>
       <c r="D263">
-        <v>0.3400240904478562</v>
+        <v>0.6465714172432264</v>
       </c>
       <c r="E263">
         <v>0.2279471726693981</v>
@@ -21589,7 +21589,7 @@
         <v>0.9443964920743108</v>
       </c>
       <c r="D264">
-        <v>0.3065247386957112</v>
+        <v>0.6376740728149595</v>
       </c>
       <c r="E264">
         <v>0.228481097123635</v>
@@ -21615,7 +21615,7 @@
         <v>0.9424385080342569</v>
       </c>
       <c r="D265">
-        <v>0.2282653910015046</v>
+        <v>0.6205458924611313</v>
       </c>
       <c r="E265">
         <v>0.2324690821493645</v>
@@ -21641,7 +21641,7 @@
         <v>0.9435233963528793</v>
       </c>
       <c r="D266">
-        <v>0.2205423926095746</v>
+        <v>0.615499520386939</v>
       </c>
       <c r="E266">
         <v>0.2302679346265497</v>
@@ -21667,7 +21667,7 @@
         <v>0.9430628060681218</v>
       </c>
       <c r="D267">
-        <v>0.2553300574963604</v>
+        <v>0.625033979548969</v>
       </c>
       <c r="E267">
         <v>0.2312049935573735</v>
@@ -21693,7 +21693,7 @@
         <v>0.8667816673449399</v>
       </c>
       <c r="D268">
-        <v>0.5243659597792023</v>
+        <v>0.525452191502481</v>
       </c>
       <c r="E268">
         <v>0.3536561190316651</v>
@@ -21719,7 +21719,7 @@
         <v>0.8961959237058487</v>
       </c>
       <c r="D269">
-        <v>0.4222791798892448</v>
+        <v>0.606261835595181</v>
       </c>
       <c r="E269">
         <v>0.3121809399838926</v>
@@ -21745,7 +21745,7 @@
         <v>0.9110458783209241</v>
       </c>
       <c r="D270">
-        <v>0.1884594753839334</v>
+        <v>0.6179622271257567</v>
       </c>
       <c r="E270">
         <v>0.288989602594753</v>
@@ -21771,7 +21771,7 @@
         <v>0.9314731114248016</v>
       </c>
       <c r="D271">
-        <v>0.4992875896108966</v>
+        <v>0.7174138068511406</v>
       </c>
       <c r="E271">
         <v>0.2536469745650148</v>
@@ -21797,7 +21797,7 @@
         <v>0.9281301591094295</v>
       </c>
       <c r="D272">
-        <v>0.4404432373826335</v>
+        <v>0.6978709637949917</v>
       </c>
       <c r="E272">
         <v>0.2597601470938168</v>
@@ -21823,7 +21823,7 @@
         <v>0.9331263851528666</v>
       </c>
       <c r="D273">
-        <v>0.4034193982725853</v>
+        <v>0.675464421285539</v>
       </c>
       <c r="E273">
         <v>0.2505685614467489</v>
@@ -21849,7 +21849,7 @@
         <v>0.9355700491234074</v>
       </c>
       <c r="D274">
-        <v>0.4481019921749708</v>
+        <v>0.6762545579683235</v>
       </c>
       <c r="E274">
         <v>0.245947878042891</v>
@@ -21875,7 +21875,7 @@
         <v>0.935328013289998</v>
       </c>
       <c r="D275">
-        <v>0.4159269166020784</v>
+        <v>0.66637403352327</v>
       </c>
       <c r="E275">
         <v>0.2464094056249975</v>
@@ -21901,7 +21901,7 @@
         <v>0.9379784312289735</v>
       </c>
       <c r="D276">
-        <v>0.4814263614148221</v>
+        <v>0.6906187261897819</v>
       </c>
       <c r="E276">
         <v>0.2413073517010096</v>
@@ -21927,7 +21927,7 @@
         <v>0.9398970184991868</v>
       </c>
       <c r="D277">
-        <v>0.450787817645683</v>
+        <v>0.6786146403958631</v>
       </c>
       <c r="E277">
         <v>0.237545708049638</v>
@@ -21953,7 +21953,7 @@
         <v>0.9406907458748119</v>
       </c>
       <c r="D278">
-        <v>0.438688905699382</v>
+        <v>0.6769247339424693</v>
       </c>
       <c r="E278">
         <v>0.2359719660863179</v>
@@ -21979,7 +21979,7 @@
         <v>0.9415324459705844</v>
       </c>
       <c r="D279">
-        <v>0.3055835143817852</v>
+        <v>0.6383494020838405</v>
       </c>
       <c r="E279">
         <v>0.2342915592446627</v>
@@ -22005,7 +22005,7 @@
         <v>0.9439257160849678</v>
       </c>
       <c r="D280">
-        <v>0.3545593939778469</v>
+        <v>0.6573045926220005</v>
       </c>
       <c r="E280">
         <v>0.2294462942990791</v>
@@ -22031,7 +22031,7 @@
         <v>0.9437115975053585</v>
       </c>
       <c r="D281">
-        <v>0.4290143084633108</v>
+        <v>0.6706183656383511</v>
       </c>
       <c r="E281">
         <v>0.2298839450479596</v>
@@ -22057,7 +22057,7 @@
         <v>0.945969973435279</v>
       </c>
       <c r="D282">
-        <v>0.4464835224226612</v>
+        <v>0.6643007090086159</v>
       </c>
       <c r="E282">
         <v>0.22522509064685</v>
@@ -22083,7 +22083,7 @@
         <v>0.9440298389566169</v>
       </c>
       <c r="D283">
-        <v>0.4017836514185421</v>
+        <v>0.6553906307597495</v>
       </c>
       <c r="E283">
         <v>0.2292331689040448</v>
@@ -22109,7 +22109,7 @@
         <v>0.9417147653151273</v>
       </c>
       <c r="D284">
-        <v>0.3368848312872694</v>
+        <v>0.6474373270522363</v>
       </c>
       <c r="E284">
         <v>0.2339259783983789</v>
@@ -22135,7 +22135,7 @@
         <v>0.9423501155944707</v>
       </c>
       <c r="D285">
-        <v>0.3211001352468105</v>
+        <v>0.6379505736501547</v>
       </c>
       <c r="E285">
         <v>0.2326475054844157</v>
@@ -22161,7 +22161,7 @@
         <v>0.942318723967047</v>
       </c>
       <c r="D286">
-        <v>0.3414654271977144</v>
+        <v>0.6444192257113712</v>
       </c>
       <c r="E286">
         <v>0.232710837700717</v>
@@ -22187,7 +22187,7 @@
         <v>0.8657662690150685</v>
       </c>
       <c r="D287">
-        <v>-0.05092474724132412</v>
+        <v>0.2298072241769197</v>
       </c>
       <c r="E287">
         <v>0.3550013548818508</v>
@@ -22213,7 +22213,7 @@
         <v>0.8756498762171142</v>
       </c>
       <c r="D288">
-        <v>-0.3564897245649823</v>
+        <v>0.3087256844471218</v>
       </c>
       <c r="E288">
         <v>0.3416821497069083</v>
@@ -22239,7 +22239,7 @@
         <v>0.8869265841182391</v>
       </c>
       <c r="D289">
-        <v>-0.8257249882302053</v>
+        <v>0.4649993484142267</v>
       </c>
       <c r="E289">
         <v>0.3258212728248728</v>
@@ -22265,7 +22265,7 @@
         <v>0.9160307106721908</v>
       </c>
       <c r="D290">
-        <v>-0.103284373271761</v>
+        <v>0.5849376851216059</v>
       </c>
       <c r="E290">
         <v>0.2807756353318303</v>
@@ -22291,7 +22291,7 @@
         <v>0.9293133394056176</v>
       </c>
       <c r="D291">
-        <v>-0.1409216614664484</v>
+        <v>0.5846604044109091</v>
       </c>
       <c r="E291">
         <v>0.2576130813841191</v>
@@ -22317,7 +22317,7 @@
         <v>0.9346201491411996</v>
       </c>
       <c r="D292">
-        <v>-0.05574704262309527</v>
+        <v>0.5548533997655452</v>
       </c>
       <c r="E292">
         <v>0.2477542668153472</v>
@@ -22343,7 +22343,7 @@
         <v>0.9429104568033693</v>
       </c>
       <c r="D293">
-        <v>0.05225544167806206</v>
+        <v>0.5794291654258985</v>
       </c>
       <c r="E293">
         <v>0.2315141094207289</v>
@@ -22369,7 +22369,7 @@
         <v>0.9426704228713197</v>
       </c>
       <c r="D294">
-        <v>0.09806072023744128</v>
+        <v>0.5810164291988462</v>
       </c>
       <c r="E294">
         <v>0.2320003013643404</v>
@@ -22395,7 +22395,7 @@
         <v>0.9449354225631262</v>
       </c>
       <c r="D295">
-        <v>0.2282607237409965</v>
+        <v>0.6139095635798114</v>
       </c>
       <c r="E295">
         <v>0.227371137899236</v>
@@ -22421,7 +22421,7 @@
         <v>0.9495180397390734</v>
       </c>
       <c r="D296">
-        <v>0.2355716257158548</v>
+        <v>0.6124646224629148</v>
       </c>
       <c r="E296">
         <v>0.2177044393752732</v>
@@ -22447,7 +22447,7 @@
         <v>0.9496546820168259</v>
       </c>
       <c r="D297">
-        <v>0.2493476520118885</v>
+        <v>0.6359231853730256</v>
       </c>
       <c r="E297">
         <v>0.2174096034824856</v>
@@ -22473,7 +22473,7 @@
         <v>0.948127712859049</v>
       </c>
       <c r="D298">
-        <v>0.07774057891372055</v>
+        <v>0.596887229267005</v>
       </c>
       <c r="E298">
         <v>0.2206819833477439</v>
@@ -22499,7 +22499,7 @@
         <v>0.9500878887616853</v>
       </c>
       <c r="D299">
-        <v>0.1778245876337569</v>
+        <v>0.618969421018717</v>
       </c>
       <c r="E299">
         <v>0.2164722095821477</v>
@@ -22525,7 +22525,7 @@
         <v>0.9503081769041885</v>
       </c>
       <c r="D300">
-        <v>0.273649556925107</v>
+        <v>0.6330797644845974</v>
       </c>
       <c r="E300">
         <v>0.2159939790257071</v>
@@ -22551,7 +22551,7 @@
         <v>0.9516960043932727</v>
       </c>
       <c r="D301">
-        <v>0.2904695703517847</v>
+        <v>0.6273960210314907</v>
       </c>
       <c r="E301">
         <v>0.2129564056081943</v>
@@ -22577,7 +22577,7 @@
         <v>0.9493567273308443</v>
       </c>
       <c r="D302">
-        <v>0.2627388309718164</v>
+        <v>0.6320462143153025</v>
       </c>
       <c r="E302">
         <v>0.2180519934043365</v>
@@ -22603,7 +22603,7 @@
         <v>0.9461365360223445</v>
       </c>
       <c r="D303">
-        <v>0.1835147183266979</v>
+        <v>0.6242061439521827</v>
       </c>
       <c r="E303">
         <v>0.2248776631819772</v>
@@ -22629,7 +22629,7 @@
         <v>0.9476820398784048</v>
       </c>
       <c r="D304">
-        <v>0.1633517297873973</v>
+        <v>0.6158563661738827</v>
       </c>
       <c r="E304">
         <v>0.2216279763989902</v>
@@ -22655,7 +22655,7 @@
         <v>0.9481966505682147</v>
       </c>
       <c r="D305">
-        <v>0.2405932732595418</v>
+        <v>0.6324599899048532</v>
       </c>
       <c r="E305">
         <v>0.2205352926081626</v>
@@ -22681,7 +22681,7 @@
         <v>0.8945418935394253</v>
       </c>
       <c r="D306">
-        <v>-0.6222916054713881</v>
+        <v>0.08276196120275792</v>
       </c>
       <c r="E306">
         <v>0.3146582800362736</v>
@@ -22707,7 +22707,7 @@
         <v>0.8728170238600551</v>
       </c>
       <c r="D307">
-        <v>-0.4389232966899277</v>
+        <v>0.1259585038074744</v>
       </c>
       <c r="E307">
         <v>0.3455522073794766</v>
@@ -22733,7 +22733,7 @@
         <v>0.8636421697158865</v>
       </c>
       <c r="D308">
-        <v>-0.2995443581634527</v>
+        <v>0.3540249546702919</v>
       </c>
       <c r="E308">
         <v>0.3577990811381164</v>
@@ -22759,7 +22759,7 @@
         <v>0.881726204803146</v>
       </c>
       <c r="D309">
-        <v>-0.3375465914380043</v>
+        <v>0.3661738345160298</v>
       </c>
       <c r="E309">
         <v>0.3332295036540022</v>
@@ -22785,7 +22785,7 @@
         <v>0.8986678715893075</v>
       </c>
       <c r="D310">
-        <v>-0.3317697975527989</v>
+        <v>0.4409181661631872</v>
       </c>
       <c r="E310">
         <v>0.3084414685714094</v>
@@ -22811,7 +22811,7 @@
         <v>0.8992061658229529</v>
       </c>
       <c r="D311">
-        <v>-0.2315688724292335</v>
+        <v>0.4628548562502671</v>
       </c>
       <c r="E311">
         <v>0.3076211297885495</v>
@@ -22837,7 +22837,7 @@
         <v>0.9028918557773313</v>
       </c>
       <c r="D312">
-        <v>-0.02139162005445527</v>
+        <v>0.5457634912441687</v>
       </c>
       <c r="E312">
         <v>0.3019444193149978</v>
@@ -22863,7 +22863,7 @@
         <v>0.8975702382471802</v>
       </c>
       <c r="D313">
-        <v>0.00205402509507191</v>
+        <v>0.5770282022424345</v>
       </c>
       <c r="E313">
         <v>0.3101074937778964</v>
@@ -22889,7 +22889,7 @@
         <v>0.9102507488691537</v>
       </c>
       <c r="D314">
-        <v>-0.1314181538682597</v>
+        <v>0.5199104545011779</v>
       </c>
       <c r="E314">
         <v>0.2902783171160699</v>
@@ -22915,7 +22915,7 @@
         <v>0.9146154788326301</v>
       </c>
       <c r="D315">
-        <v>-0.0306893580743457</v>
+        <v>0.583885622992659</v>
       </c>
       <c r="E315">
         <v>0.2831318674814804</v>
@@ -22941,7 +22941,7 @@
         <v>0.9197509803474471</v>
       </c>
       <c r="D316">
-        <v>-0.03340911468894348</v>
+        <v>0.5613537107117785</v>
       </c>
       <c r="E316">
         <v>0.2744852726968816</v>
@@ -22967,7 +22967,7 @@
         <v>0.9223600377293012</v>
       </c>
       <c r="D317">
-        <v>0.1047999232757333</v>
+        <v>0.585601496255691</v>
       </c>
       <c r="E317">
         <v>0.2699863686988304</v>
@@ -22993,7 +22993,7 @@
         <v>0.9259654637780731</v>
       </c>
       <c r="D318">
-        <v>0.1394514773514851</v>
+        <v>0.596883491098164</v>
       </c>
       <c r="E318">
         <v>0.2636430698632963</v>
@@ -23019,7 +23019,7 @@
         <v>0.9275456481586349</v>
       </c>
       <c r="D319">
-        <v>-0.02804864342822766</v>
+        <v>0.5412080260226967</v>
       </c>
       <c r="E319">
         <v>0.2608143110335742</v>
@@ -23045,7 +23045,7 @@
         <v>0.923734551994595</v>
       </c>
       <c r="D320">
-        <v>-0.06597681483649764</v>
+        <v>0.5525505288971702</v>
       </c>
       <c r="E320">
         <v>0.2675858183450541</v>
@@ -23071,7 +23071,7 @@
         <v>0.9264180829250939</v>
       </c>
       <c r="D321">
-        <v>-0.1193799707028376</v>
+        <v>0.5380635455629011</v>
       </c>
       <c r="E321">
         <v>0.2628359273348144</v>
@@ -23097,7 +23097,7 @@
         <v>0.9220524891464915</v>
       </c>
       <c r="D322">
-        <v>-0.1415813737357332</v>
+        <v>0.531005091802921</v>
       </c>
       <c r="E322">
         <v>0.2705205772191517</v>
@@ -23123,7 +23123,7 @@
         <v>0.9232939412777514</v>
       </c>
       <c r="D323">
-        <v>-0.2829409107694261</v>
+        <v>0.5095008314459391</v>
       </c>
       <c r="E323">
         <v>0.2683576710249248</v>
@@ -23149,7 +23149,7 @@
         <v>0.9243507395775596</v>
       </c>
       <c r="D324">
-        <v>-0.2495991525159167</v>
+        <v>0.5205376522544507</v>
       </c>
       <c r="E324">
         <v>0.2665026446480356</v>
@@ -23175,7 +23175,7 @@
         <v>0.8887668503197206</v>
       </c>
       <c r="D325">
-        <v>0.03794931804617852</v>
+        <v>-0.02552563189135304</v>
       </c>
       <c r="E325">
         <v>0.3231590310548631</v>
@@ -23201,7 +23201,7 @@
         <v>0.8733434158059518</v>
       </c>
       <c r="D326">
-        <v>-0.3173800582412936</v>
+        <v>-0.03310403358972613</v>
       </c>
       <c r="E326">
         <v>0.3448363706178251</v>
@@ -23227,7 +23227,7 @@
         <v>0.8536799787930975</v>
       </c>
       <c r="D327">
-        <v>-0.101610380514112</v>
+        <v>0.1992622341352281</v>
       </c>
       <c r="E327">
         <v>0.3706389505896618</v>
@@ -23253,7 +23253,7 @@
         <v>0.8825409989638522</v>
       </c>
       <c r="D328">
-        <v>-0.1834538719852785</v>
+        <v>0.1290101313593879</v>
       </c>
       <c r="E328">
         <v>0.332079702514749</v>
@@ -23279,7 +23279,7 @@
         <v>0.8989161823363334</v>
       </c>
       <c r="D329">
-        <v>-0.1013423630093295</v>
+        <v>0.2039196228672497</v>
       </c>
       <c r="E329">
         <v>0.3080633243929281</v>
@@ -23305,7 +23305,7 @@
         <v>0.8941967205709284</v>
       </c>
       <c r="D330">
-        <v>-0.127230618328289</v>
+        <v>0.2666347127788199</v>
       </c>
       <c r="E330">
         <v>0.3151728104397472</v>
@@ -23331,7 +23331,7 @@
         <v>0.9018193027234601</v>
       </c>
       <c r="D331">
-        <v>0.0368916951493643</v>
+        <v>0.3714785090220299</v>
       </c>
       <c r="E331">
         <v>0.3036073183785967</v>
@@ -23357,7 +23357,7 @@
         <v>0.8960504105195525</v>
       </c>
       <c r="D332">
-        <v>0.05790522979261747</v>
+        <v>0.3990086460453227</v>
       </c>
       <c r="E332">
         <v>0.3123996719271911</v>
@@ -23383,7 +23383,7 @@
         <v>0.9036879257055022</v>
       </c>
       <c r="D333">
-        <v>0.02606645849793654</v>
+        <v>0.4112821045117994</v>
       </c>
       <c r="E333">
         <v>0.3007042374243651</v>
@@ -23409,7 +23409,7 @@
         <v>0.9067941088243905</v>
       </c>
       <c r="D334">
-        <v>0.07665742792833852</v>
+        <v>0.442187979817816</v>
       </c>
       <c r="E334">
         <v>0.2958154559059941</v>
@@ -23435,7 +23435,7 @@
         <v>0.9123281589088107</v>
       </c>
       <c r="D335">
-        <v>0.1091223160766163</v>
+        <v>0.4738764050596963</v>
       </c>
       <c r="E335">
         <v>0.2868991378875584</v>
@@ -23461,7 +23461,7 @@
         <v>0.9098176710824097</v>
       </c>
       <c r="D336">
-        <v>0.1278044525651042</v>
+        <v>0.4659865176832906</v>
       </c>
       <c r="E336">
         <v>0.2909778315952028</v>
@@ -23487,7 +23487,7 @@
         <v>0.9146681534112787</v>
       </c>
       <c r="D337">
-        <v>0.1457062182655177</v>
+        <v>0.4795423110318763</v>
       </c>
       <c r="E337">
         <v>0.2830445205452086</v>
@@ -23513,7 +23513,7 @@
         <v>0.9197006032913826</v>
       </c>
       <c r="D338">
-        <v>0.02674757179739473</v>
+        <v>0.4491694241683273</v>
       </c>
       <c r="E338">
         <v>0.2745714145001495</v>
@@ -23539,7 +23539,7 @@
         <v>0.9152276701967057</v>
       </c>
       <c r="D339">
-        <v>0.04059767385933344</v>
+        <v>0.447064195393817</v>
       </c>
       <c r="E339">
         <v>0.2821150397926801</v>
@@ -23565,7 +23565,7 @@
         <v>0.9175695912475313</v>
       </c>
       <c r="D340">
-        <v>-0.03547797646578976</v>
+        <v>0.4641884332654905</v>
       </c>
       <c r="E340">
         <v>0.278190891688409</v>
@@ -23591,7 +23591,7 @@
         <v>0.9116753126929712</v>
       </c>
       <c r="D341">
-        <v>-0.1016996334251643</v>
+        <v>0.4603468049641207</v>
       </c>
       <c r="E341">
         <v>0.2879653503868221</v>
@@ -23617,7 +23617,7 @@
         <v>0.9133759482467718</v>
       </c>
       <c r="D342">
-        <v>-0.1421371495564538</v>
+        <v>0.4537933963003067</v>
       </c>
       <c r="E342">
         <v>0.2851795810235792</v>
@@ -23643,7 +23643,7 @@
         <v>0.9153398517951491</v>
       </c>
       <c r="D343">
-        <v>-0.1740672907358689</v>
+        <v>0.4643658925361258</v>
       </c>
       <c r="E343">
         <v>0.281928312629905</v>
@@ -23669,7 +23669,7 @@
         <v>0.8887668503197206</v>
       </c>
       <c r="D344">
-        <v>0.03794931804617852</v>
+        <v>-0.02552563189135304</v>
       </c>
       <c r="E344">
         <v>0.3231590310548631</v>
@@ -23695,7 +23695,7 @@
         <v>0.8733434158059518</v>
       </c>
       <c r="D345">
-        <v>-0.3173800582412936</v>
+        <v>-0.03310403358972613</v>
       </c>
       <c r="E345">
         <v>0.3448363706178251</v>
@@ -23721,7 +23721,7 @@
         <v>0.8536799787930975</v>
       </c>
       <c r="D346">
-        <v>-0.101610380514112</v>
+        <v>0.1992622341352281</v>
       </c>
       <c r="E346">
         <v>0.3706389505896618</v>
@@ -23747,7 +23747,7 @@
         <v>0.8825409989638522</v>
       </c>
       <c r="D347">
-        <v>-0.1834538719852785</v>
+        <v>0.1290101313593879</v>
       </c>
       <c r="E347">
         <v>0.332079702514749</v>
@@ -23773,7 +23773,7 @@
         <v>0.8989161823363334</v>
       </c>
       <c r="D348">
-        <v>-0.1013423630093295</v>
+        <v>0.2039196228672497</v>
       </c>
       <c r="E348">
         <v>0.3080633243929281</v>
@@ -23799,7 +23799,7 @@
         <v>0.8941967205709284</v>
       </c>
       <c r="D349">
-        <v>-0.127230618328289</v>
+        <v>0.2666347127788199</v>
       </c>
       <c r="E349">
         <v>0.3151728104397472</v>
@@ -23825,7 +23825,7 @@
         <v>0.9018193027234601</v>
       </c>
       <c r="D350">
-        <v>0.0368916951493643</v>
+        <v>0.3714785090220299</v>
       </c>
       <c r="E350">
         <v>0.3036073183785967</v>
@@ -23851,7 +23851,7 @@
         <v>0.8960504105195525</v>
       </c>
       <c r="D351">
-        <v>0.05790522979261747</v>
+        <v>0.3990086460453227</v>
       </c>
       <c r="E351">
         <v>0.3123996719271911</v>
@@ -23877,7 +23877,7 @@
         <v>0.9036879257055022</v>
       </c>
       <c r="D352">
-        <v>0.02606645849793654</v>
+        <v>0.4112821045117994</v>
       </c>
       <c r="E352">
         <v>0.3007042374243651</v>
@@ -23903,7 +23903,7 @@
         <v>0.9067941088243905</v>
       </c>
       <c r="D353">
-        <v>0.07665742792833852</v>
+        <v>0.442187979817816</v>
       </c>
       <c r="E353">
         <v>0.2958154559059941</v>
@@ -23929,7 +23929,7 @@
         <v>0.9123281589088107</v>
       </c>
       <c r="D354">
-        <v>0.1091223160766163</v>
+        <v>0.4738764050596963</v>
       </c>
       <c r="E354">
         <v>0.2868991378875584</v>
@@ -23955,7 +23955,7 @@
         <v>0.9098176710824097</v>
       </c>
       <c r="D355">
-        <v>0.1278044525651042</v>
+        <v>0.4659865176832906</v>
       </c>
       <c r="E355">
         <v>0.2909778315952028</v>
@@ -23981,7 +23981,7 @@
         <v>0.9146681534112787</v>
       </c>
       <c r="D356">
-        <v>0.1457062182655177</v>
+        <v>0.4795423110318763</v>
       </c>
       <c r="E356">
         <v>0.2830445205452086</v>
@@ -24007,7 +24007,7 @@
         <v>0.9197006032913826</v>
       </c>
       <c r="D357">
-        <v>0.02674757179739473</v>
+        <v>0.4491694241683273</v>
       </c>
       <c r="E357">
         <v>0.2745714145001495</v>
@@ -24033,7 +24033,7 @@
         <v>0.9152276701967057</v>
       </c>
       <c r="D358">
-        <v>0.04059767385933344</v>
+        <v>0.447064195393817</v>
       </c>
       <c r="E358">
         <v>0.2821150397926801</v>
@@ -24059,7 +24059,7 @@
         <v>0.9175695912475313</v>
       </c>
       <c r="D359">
-        <v>-0.03547797646578976</v>
+        <v>0.4641884332654905</v>
       </c>
       <c r="E359">
         <v>0.278190891688409</v>
@@ -24085,7 +24085,7 @@
         <v>0.9116753126929712</v>
       </c>
       <c r="D360">
-        <v>-0.1016996334251643</v>
+        <v>0.4603468049641207</v>
       </c>
       <c r="E360">
         <v>0.2879653503868221</v>
@@ -24111,7 +24111,7 @@
         <v>0.9133759482467718</v>
       </c>
       <c r="D361">
-        <v>-0.1421371495564538</v>
+        <v>0.4537933963003067</v>
       </c>
       <c r="E361">
         <v>0.2851795810235792</v>
@@ -24137,7 +24137,7 @@
         <v>0.9153398517951491</v>
       </c>
       <c r="D362">
-        <v>-0.1740672907358689</v>
+        <v>0.4643658925361258</v>
       </c>
       <c r="E362">
         <v>0.281928312629905</v>
@@ -24196,7 +24196,7 @@
         <v>0.6086377163847887</v>
       </c>
       <c r="D2">
-        <v>-0.5868468460682537</v>
+        <v>0.01613658421624109</v>
       </c>
       <c r="E2">
         <v>0.6061619405664289</v>
@@ -24219,7 +24219,7 @@
         <v>0.6097634934134519</v>
       </c>
       <c r="D3">
-        <v>-0.5868468460682537</v>
+        <v>0.01613658421624109</v>
       </c>
       <c r="E3">
         <v>0.6052894821469164</v>
@@ -24242,7 +24242,7 @@
         <v>0.6176073087880196</v>
       </c>
       <c r="D4">
-        <v>-0.7864567927647377</v>
+        <v>0.005977546775465692</v>
       </c>
       <c r="E4">
         <v>0.5991753955995743</v>
@@ -24265,7 +24265,7 @@
         <v>0.6363168616179976</v>
       </c>
       <c r="D5">
-        <v>-0.7821644692903933</v>
+        <v>0.00406683280529796</v>
       </c>
       <c r="E5">
         <v>0.5843334699427133</v>
@@ -24288,7 +24288,7 @@
         <v>0.6291605381999349</v>
       </c>
       <c r="D6">
-        <v>-0.7815320774780208</v>
+        <v>0.003452426460042513</v>
       </c>
       <c r="E6">
         <v>0.5900545327202422</v>
@@ -24311,7 +24311,7 @@
         <v>0.7209820556380115</v>
       </c>
       <c r="D7">
-        <v>0.2522541631745785</v>
+        <v>0.33465126162242</v>
       </c>
       <c r="E7">
         <v>0.5118176368062537</v>
@@ -24334,7 +24334,7 @@
         <v>0.7155007267460699</v>
       </c>
       <c r="D8">
-        <v>0.2522541631745785</v>
+        <v>0.33465126162242</v>
       </c>
       <c r="E8">
         <v>0.5168205340751185</v>
@@ -24357,7 +24357,7 @@
         <v>0.7104362575935779</v>
       </c>
       <c r="D9">
-        <v>0.2522541631745785</v>
+        <v>0.33465126162242</v>
       </c>
       <c r="E9">
         <v>0.5214002923228792</v>
@@ -24380,7 +24380,7 @@
         <v>0.6989841310880063</v>
       </c>
       <c r="D10">
-        <v>0.2535432875101241</v>
+        <v>0.3240165827568559</v>
       </c>
       <c r="E10">
         <v>0.5316108981287486</v>
@@ -24403,7 +24403,7 @@
         <v>0.6176320873783645</v>
       </c>
       <c r="D11">
-        <v>-0.2703161680820549</v>
+        <v>0.1097730037968211</v>
       </c>
       <c r="E11">
         <v>0.5991559823595546</v>
@@ -24426,7 +24426,7 @@
         <v>0.5685664197996672</v>
       </c>
       <c r="D12">
-        <v>-0.7538123330232194</v>
+        <v>0.07093373479707743</v>
       </c>
       <c r="E12">
         <v>0.6364380733082515</v>
@@ -24449,7 +24449,7 @@
         <v>0.5685467873482666</v>
       </c>
       <c r="D13">
-        <v>-0.7538123330232194</v>
+        <v>0.07093373479707743</v>
       </c>
       <c r="E13">
         <v>0.6364525537497093</v>
@@ -24472,7 +24472,7 @@
         <v>0.5657005505466419</v>
       </c>
       <c r="D14">
-        <v>-0.7538123330232194</v>
+        <v>0.07093373479707743</v>
       </c>
       <c r="E14">
         <v>0.6385483973975538</v>
@@ -24495,7 +24495,7 @@
         <v>0.569945661839124</v>
       </c>
       <c r="D15">
-        <v>-0.7153071511747999</v>
+        <v>0.1127567982559144</v>
       </c>
       <c r="E15">
         <v>0.6354199503948497</v>
@@ -24518,7 +24518,7 @@
         <v>0.569945661839124</v>
       </c>
       <c r="D16">
-        <v>-0.7153071511747999</v>
+        <v>0.1127567982559144</v>
       </c>
       <c r="E16">
         <v>0.6354199503948497</v>
@@ -24541,7 +24541,7 @@
         <v>0.569945661839124</v>
       </c>
       <c r="D17">
-        <v>-0.713488423397342</v>
+        <v>0.1128924191575464</v>
       </c>
       <c r="E17">
         <v>0.6354199503948497</v>
@@ -24564,7 +24564,7 @@
         <v>0.5545095959884958</v>
       </c>
       <c r="D18">
-        <v>-0.565700678581682</v>
+        <v>0.1818505070075841</v>
       </c>
       <c r="E18">
         <v>0.6467230748145942</v>
@@ -24587,7 +24587,7 @@
         <v>0.5373267326789486</v>
       </c>
       <c r="D19">
-        <v>-0.5574522331786358</v>
+        <v>0.1788759828633039</v>
       </c>
       <c r="E19">
         <v>0.6590773448884411</v>
@@ -24610,7 +24610,7 @@
         <v>0.5373267326789486</v>
       </c>
       <c r="D20">
-        <v>-0.5574522331786358</v>
+        <v>0.1788759828633039</v>
       </c>
       <c r="E20">
         <v>0.6590773448884411</v>
@@ -24666,7 +24666,7 @@
         <v>0.7842057193290195</v>
       </c>
       <c r="D2">
-        <v>-0.2737967568915578</v>
+        <v>0.01293041346102797</v>
       </c>
       <c r="E2">
         <v>0.450110500833495</v>
@@ -24689,7 +24689,7 @@
         <v>0.7845040006103954</v>
       </c>
       <c r="D3">
-        <v>-0.3076224769797768</v>
+        <v>0.01046735411160427</v>
       </c>
       <c r="E3">
         <v>0.449799311019685</v>
@@ -24712,7 +24712,7 @@
         <v>0.7610367045148959</v>
       </c>
       <c r="D4">
-        <v>-0.433487093182888</v>
+        <v>-0.1765051259702233</v>
       </c>
       <c r="E4">
         <v>0.4736578935889271</v>
@@ -24735,7 +24735,7 @@
         <v>0.6705456940954999</v>
       </c>
       <c r="D5">
-        <v>-1.413869387202269</v>
+        <v>-0.03996801396944494</v>
       </c>
       <c r="E5">
         <v>0.5561561882250442</v>
@@ -24758,7 +24758,7 @@
         <v>0.6681926958042619</v>
       </c>
       <c r="D6">
-        <v>-1.200970130986792</v>
+        <v>0.03163100812812158</v>
       </c>
       <c r="E6">
         <v>0.5581387184907249</v>
@@ -24781,7 +24781,7 @@
         <v>0.6474707601101457</v>
       </c>
       <c r="D7">
-        <v>-0.4898958819229982</v>
+        <v>0.2287507259929256</v>
       </c>
       <c r="E7">
         <v>0.5753031502402474</v>
@@ -24804,7 +24804,7 @@
         <v>0.6293868202090955</v>
       </c>
       <c r="D8">
-        <v>-0.7107036946269041</v>
+        <v>0.19028550487428</v>
       </c>
       <c r="E8">
         <v>0.5898744829776295</v>
@@ -24827,7 +24827,7 @@
         <v>0.6320831671091471</v>
       </c>
       <c r="D9">
-        <v>-0.9342159259844098</v>
+        <v>0.125215024638625</v>
       </c>
       <c r="E9">
         <v>0.5877247892118634</v>
@@ -24850,7 +24850,7 @@
         <v>0.6141302369676266</v>
       </c>
       <c r="D10">
-        <v>-0.4745604217881259</v>
+        <v>0.2646598175261833</v>
       </c>
       <c r="E10">
         <v>0.6018933624193852</v>
@@ -24873,7 +24873,7 @@
         <v>0.5942591959594421</v>
       </c>
       <c r="D11">
-        <v>-0.5935041848859715</v>
+        <v>0.3274935669454908</v>
       </c>
       <c r="E11">
         <v>0.6171965966313833</v>
@@ -24896,7 +24896,7 @@
         <v>0.5801934400689073</v>
       </c>
       <c r="D12">
-        <v>-1.003880594164309</v>
+        <v>0.2519540210003736</v>
       </c>
       <c r="E12">
         <v>0.6278035832638216</v>
@@ -24919,7 +24919,7 @@
         <v>0.5799960355954991</v>
       </c>
       <c r="D13">
-        <v>-1.009982642961562</v>
+        <v>0.2501498751374338</v>
       </c>
       <c r="E13">
         <v>0.6279511710840815</v>
@@ -24942,7 +24942,7 @@
         <v>0.580284732864649</v>
       </c>
       <c r="D14">
-        <v>-0.9768542829657612</v>
+        <v>0.2656997576340456</v>
       </c>
       <c r="E14">
         <v>0.6277353172265181</v>
@@ -24965,7 +24965,7 @@
         <v>0.5404042275977463</v>
       </c>
       <c r="D15">
-        <v>-0.9700512329251698</v>
+        <v>0.3799336662207693</v>
       </c>
       <c r="E15">
         <v>0.6568817444129773</v>
@@ -24988,7 +24988,7 @@
         <v>0.5405286832726522</v>
       </c>
       <c r="D16">
-        <v>-0.9791983593773961</v>
+        <v>0.380586332312974</v>
       </c>
       <c r="E16">
         <v>0.6567927986469138</v>
@@ -25011,7 +25011,7 @@
         <v>0.5284315269607501</v>
       </c>
       <c r="D17">
-        <v>-0.2815777073958152</v>
+        <v>0.5295764951805704</v>
       </c>
       <c r="E17">
         <v>0.6653827858907351</v>
@@ -25034,7 +25034,7 @@
         <v>0.5256757145968818</v>
       </c>
       <c r="D18">
-        <v>-0.2512548926899401</v>
+        <v>0.5226837219596768</v>
       </c>
       <c r="E18">
         <v>0.6673241783426443</v>
@@ -25057,7 +25057,7 @@
         <v>0.5020352037550295</v>
       </c>
       <c r="D19">
-        <v>-0.6112229706925218</v>
+        <v>0.4743557839935354</v>
       </c>
       <c r="E19">
         <v>0.6837518281038438</v>
@@ -25080,7 +25080,7 @@
         <v>0.5020352037550295</v>
       </c>
       <c r="D20">
-        <v>-0.6112229706925218</v>
+        <v>0.4743557839935354</v>
       </c>
       <c r="E20">
         <v>0.6837518281038438</v>
